--- a/config/project/Integrate_90kw/IntegrateConfig.xlsx
+++ b/config/project/Integrate_90kw/IntegrateConfig.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_90kw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="464">
   <si>
     <t>组序号</t>
   </si>
@@ -2421,6 +2421,22 @@
   <si>
     <t>模块8</t>
     <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3326,7 +3342,7 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3690,58 +3706,61 @@
     <xf numFmtId="49" fontId="48" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4103,8 +4122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4442,11 +4461,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="141"/>
-      <c r="B15" s="141" t="s">
+      <c r="A15" s="135"/>
+      <c r="B15" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="135" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -4463,9 +4482,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="133"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
+      <c r="A16" s="132"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -4480,9 +4499,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="133"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -4497,9 +4516,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="133"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -4514,9 +4533,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="133"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="132"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -4577,11 +4596,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="135"/>
-      <c r="B22" s="135" t="s">
+      <c r="A22" s="141"/>
+      <c r="B22" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="135" t="s">
+      <c r="C22" s="141" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4598,9 +4617,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="136"/>
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="137"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4615,9 +4634,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="136"/>
-      <c r="B24" s="136"/>
-      <c r="C24" s="136"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4632,9 +4651,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="136"/>
-      <c r="B25" s="136"/>
-      <c r="C25" s="136"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4708,11 +4727,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="146"/>
-      <c r="B29" s="143" t="s">
+      <c r="A29" s="143"/>
+      <c r="B29" s="146" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="143" t="s">
+      <c r="C29" s="146" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -4797,11 +4816,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="133"/>
-      <c r="B34" s="133" t="s">
+      <c r="A34" s="132"/>
+      <c r="B34" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="133" t="s">
+      <c r="C34" s="132" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -4818,9 +4837,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="133"/>
-      <c r="B35" s="133"/>
-      <c r="C35" s="133"/>
+      <c r="A35" s="132"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -4835,11 +4854,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="133"/>
-      <c r="B36" s="133" t="s">
+      <c r="A36" s="132"/>
+      <c r="B36" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="141" t="s">
+      <c r="C36" s="135" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="20">
@@ -4856,9 +4875,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="133"/>
-      <c r="B37" s="133"/>
-      <c r="C37" s="133"/>
+      <c r="A37" s="132"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -4873,11 +4892,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="133"/>
-      <c r="B38" s="140" t="s">
+      <c r="A38" s="132"/>
+      <c r="B38" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="140" t="s">
+      <c r="C38" s="138" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -4894,9 +4913,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="133"/>
-      <c r="B39" s="133"/>
-      <c r="C39" s="133"/>
+      <c r="A39" s="132"/>
+      <c r="B39" s="132"/>
+      <c r="C39" s="132"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -4911,11 +4930,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="133"/>
-      <c r="B40" s="133" t="s">
+      <c r="A40" s="132"/>
+      <c r="B40" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="140" t="s">
+      <c r="C40" s="138" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -4932,9 +4951,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="133"/>
-      <c r="B41" s="133"/>
-      <c r="C41" s="133"/>
+      <c r="A41" s="132"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="132"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -4949,9 +4968,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="133"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
+      <c r="A42" s="132"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="132"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -4966,9 +4985,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="133"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
+      <c r="A43" s="132"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="132"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -4983,9 +5002,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="133"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
+      <c r="A44" s="132"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="132"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -5000,11 +5019,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="133">
+      <c r="A45" s="132">
         <v>13</v>
       </c>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133" t="s">
+      <c r="B45" s="132"/>
+      <c r="C45" s="132" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5084,11 +5103,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="134"/>
-      <c r="B49" s="138" t="s">
+      <c r="A49" s="149"/>
+      <c r="B49" s="139" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="139" t="s">
+      <c r="C49" s="140" t="s">
         <v>287</v>
       </c>
       <c r="D49" s="20">
@@ -5105,9 +5124,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="133"/>
-      <c r="B50" s="133"/>
-      <c r="C50" s="133"/>
+      <c r="A50" s="132"/>
+      <c r="B50" s="132"/>
+      <c r="C50" s="132"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -5122,9 +5141,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="133"/>
-      <c r="B51" s="133"/>
-      <c r="C51" s="133"/>
+      <c r="A51" s="132"/>
+      <c r="B51" s="132"/>
+      <c r="C51" s="132"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -5223,11 +5242,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="135"/>
-      <c r="B56" s="137" t="s">
+      <c r="A56" s="141"/>
+      <c r="B56" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="135" t="s">
+      <c r="C56" s="141" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5244,9 +5263,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="136"/>
-      <c r="B57" s="136"/>
-      <c r="C57" s="136"/>
+      <c r="A57" s="137"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5261,9 +5280,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="136"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="136"/>
+      <c r="A58" s="137"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="137"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5278,9 +5297,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="136"/>
-      <c r="B59" s="136"/>
-      <c r="C59" s="136"/>
+      <c r="A59" s="137"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5295,9 +5314,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="136"/>
-      <c r="B60" s="136"/>
-      <c r="C60" s="136"/>
+      <c r="A60" s="137"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5312,9 +5331,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="136"/>
-      <c r="B61" s="136"/>
-      <c r="C61" s="136"/>
+      <c r="A61" s="137"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="137"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5329,9 +5348,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="136"/>
-      <c r="B62" s="136"/>
-      <c r="C62" s="136"/>
+      <c r="A62" s="137"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -5388,11 +5407,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="134"/>
-      <c r="B65" s="138" t="s">
+      <c r="A65" s="149"/>
+      <c r="B65" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="139" t="s">
+      <c r="C65" s="140" t="s">
         <v>287</v>
       </c>
       <c r="D65" s="20">
@@ -5409,9 +5428,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="133"/>
-      <c r="B66" s="133"/>
-      <c r="C66" s="133"/>
+      <c r="A66" s="132"/>
+      <c r="B66" s="132"/>
+      <c r="C66" s="132"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -5426,9 +5445,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="133"/>
-      <c r="B67" s="133"/>
-      <c r="C67" s="133"/>
+      <c r="A67" s="132"/>
+      <c r="B67" s="132"/>
+      <c r="C67" s="132"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -5527,11 +5546,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="135"/>
-      <c r="B72" s="137" t="s">
+      <c r="A72" s="141"/>
+      <c r="B72" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="135" t="s">
+      <c r="C72" s="141" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -5548,9 +5567,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="136"/>
-      <c r="B73" s="136"/>
-      <c r="C73" s="136"/>
+      <c r="A73" s="137"/>
+      <c r="B73" s="137"/>
+      <c r="C73" s="137"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -5565,9 +5584,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="136"/>
-      <c r="B74" s="136"/>
-      <c r="C74" s="136"/>
+      <c r="A74" s="137"/>
+      <c r="B74" s="137"/>
+      <c r="C74" s="137"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -5582,9 +5601,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="136"/>
-      <c r="B75" s="136"/>
-      <c r="C75" s="136"/>
+      <c r="A75" s="137"/>
+      <c r="B75" s="137"/>
+      <c r="C75" s="137"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -5599,9 +5618,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="136"/>
-      <c r="B76" s="136"/>
-      <c r="C76" s="136"/>
+      <c r="A76" s="137"/>
+      <c r="B76" s="137"/>
+      <c r="C76" s="137"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -5616,9 +5635,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="136"/>
-      <c r="B77" s="136"/>
-      <c r="C77" s="136"/>
+      <c r="A77" s="137"/>
+      <c r="B77" s="137"/>
+      <c r="C77" s="137"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -5633,9 +5652,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="136"/>
-      <c r="B78" s="136"/>
-      <c r="C78" s="136"/>
+      <c r="A78" s="137"/>
+      <c r="B78" s="137"/>
+      <c r="C78" s="137"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -5692,11 +5711,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="141"/>
-      <c r="B81" s="141" t="s">
+      <c r="A81" s="135"/>
+      <c r="B81" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="140" t="s">
+      <c r="C81" s="138" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5713,9 +5732,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="133"/>
-      <c r="B82" s="133"/>
-      <c r="C82" s="133"/>
+      <c r="A82" s="132"/>
+      <c r="B82" s="132"/>
+      <c r="C82" s="132"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -5730,9 +5749,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="133"/>
-      <c r="B83" s="133"/>
-      <c r="C83" s="133"/>
+      <c r="A83" s="132"/>
+      <c r="B83" s="132"/>
+      <c r="C83" s="132"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -5747,9 +5766,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="133"/>
-      <c r="B84" s="133"/>
-      <c r="C84" s="133"/>
+      <c r="A84" s="132"/>
+      <c r="B84" s="132"/>
+      <c r="C84" s="132"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -6058,11 +6077,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="131"/>
-      <c r="B99" s="131" t="s">
+      <c r="A99" s="147"/>
+      <c r="B99" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="C99" s="131" t="s">
+      <c r="C99" s="147" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="83">
@@ -6079,9 +6098,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="131"/>
-      <c r="B100" s="131"/>
-      <c r="C100" s="131"/>
+      <c r="A100" s="147"/>
+      <c r="B100" s="147"/>
+      <c r="C100" s="147"/>
       <c r="D100" s="83">
         <v>99</v>
       </c>
@@ -6096,9 +6115,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="131"/>
-      <c r="B101" s="131"/>
-      <c r="C101" s="131"/>
+      <c r="A101" s="147"/>
+      <c r="B101" s="147"/>
+      <c r="C101" s="147"/>
       <c r="D101" s="83">
         <v>100</v>
       </c>
@@ -6134,11 +6153,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="131"/>
-      <c r="B103" s="131" t="s">
+      <c r="A103" s="147"/>
+      <c r="B103" s="147" t="s">
         <v>299</v>
       </c>
-      <c r="C103" s="131" t="s">
+      <c r="C103" s="147" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="78">
@@ -6155,9 +6174,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="132"/>
-      <c r="B104" s="132"/>
-      <c r="C104" s="132"/>
+      <c r="A104" s="148"/>
+      <c r="B104" s="148"/>
+      <c r="C104" s="148"/>
       <c r="D104" s="78">
         <v>103</v>
       </c>
@@ -6172,9 +6191,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="132"/>
-      <c r="B105" s="132"/>
-      <c r="C105" s="132"/>
+      <c r="A105" s="148"/>
+      <c r="B105" s="148"/>
+      <c r="C105" s="148"/>
       <c r="D105" s="78">
         <v>104</v>
       </c>
@@ -6202,8 +6221,8 @@
       <c r="E106" s="98" t="s">
         <v>300</v>
       </c>
-      <c r="F106" s="73" t="s">
-        <v>73</v>
+      <c r="F106" s="131" t="s">
+        <v>463</v>
       </c>
       <c r="G106" s="73" t="s">
         <v>73</v>
@@ -7176,11 +7195,11 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="148"/>
-      <c r="B153" s="147" t="s">
+      <c r="A153" s="134"/>
+      <c r="B153" s="133" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="133" t="s">
+      <c r="C153" s="132" t="s">
         <v>458</v>
       </c>
       <c r="D153" s="125">
@@ -7197,9 +7216,9 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="148"/>
-      <c r="B154" s="148"/>
-      <c r="C154" s="133"/>
+      <c r="A154" s="134"/>
+      <c r="B154" s="134"/>
+      <c r="C154" s="132"/>
       <c r="D154" s="125">
         <v>153</v>
       </c>
@@ -7214,9 +7233,9 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="148"/>
-      <c r="B155" s="148"/>
-      <c r="C155" s="133"/>
+      <c r="A155" s="134"/>
+      <c r="B155" s="134"/>
+      <c r="C155" s="132"/>
       <c r="D155" s="125">
         <v>154</v>
       </c>
@@ -7232,6 +7251,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="C153:C155"/>
     <mergeCell ref="B153:B155"/>
     <mergeCell ref="A153:A155"/>
@@ -7248,35 +7296,6 @@
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A99:A101"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10357,7 +10376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="82" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="82" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>

--- a/config/project/Integrate_90kw/IntegrateConfig.xlsx
+++ b/config/project/Integrate_90kw/IntegrateConfig.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_90kw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2ADC5DDD-75A6-42E3-8F1B-4C6EC0B41339}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="468">
   <si>
     <t>组序号</t>
   </si>
@@ -2438,11 +2439,27 @@
     </r>
     <phoneticPr fontId="35" type="noConversion"/>
   </si>
+  <si>
+    <t>2.77</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>350</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3447,12 +3464,6 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3709,80 +3720,86 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="6"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="8"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="11"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="12"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="18"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="标题" xfId="19" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="20" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="21" builtinId="17" customBuiltin="1"/>
@@ -3790,8 +3807,8 @@
     <cellStyle name="标题 4" xfId="23" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="24" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="25"/>
-    <cellStyle name="常规 3" xfId="43"/>
+    <cellStyle name="常规 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="好" xfId="26" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="27" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="28" builtinId="22" customBuiltin="1"/>
@@ -3799,12 +3816,12 @@
     <cellStyle name="解释性文本" xfId="30" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="31" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="32" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="33"/>
-    <cellStyle name="强调文字颜色 2" xfId="34"/>
-    <cellStyle name="强调文字颜色 3" xfId="35"/>
-    <cellStyle name="强调文字颜色 4" xfId="36"/>
-    <cellStyle name="强调文字颜色 5" xfId="37"/>
-    <cellStyle name="强调文字颜色 6" xfId="38"/>
+    <cellStyle name="强调文字颜色 1" xfId="33" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="强调文字颜色 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="强调文字颜色 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="强调文字颜色 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="强调文字颜色 5" xfId="37" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="适中" xfId="39" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="40" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="41" builtinId="20" customBuiltin="1"/>
@@ -4119,11 +4136,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4165,10 +4182,10 @@
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="109" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="20">
@@ -4188,10 +4205,10 @@
       <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="109" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="20">
@@ -4200,7 +4217,7 @@
       <c r="E3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -4211,16 +4228,16 @@
       <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="106" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="20">
         <v>3</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="99" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -4234,19 +4251,19 @@
       <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="106" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="20">
         <v>4</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -4260,7 +4277,7 @@
       <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="107" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="20">
@@ -4269,7 +4286,7 @@
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -4283,7 +4300,7 @@
       <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="107" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="20">
@@ -4292,7 +4309,7 @@
       <c r="E7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -4303,19 +4320,19 @@
       <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="107" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="20">
         <v>7</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -4329,7 +4346,7 @@
       <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="107" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="20">
@@ -4338,7 +4355,7 @@
       <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -4349,19 +4366,19 @@
       <c r="A10" s="19">
         <v>1</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="107" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="20">
         <v>9</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -4375,7 +4392,7 @@
       <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="107" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="20">
@@ -4384,7 +4401,7 @@
       <c r="E11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -4395,19 +4412,19 @@
       <c r="A12" s="19">
         <v>1</v>
       </c>
-      <c r="B12" s="115" t="s">
+      <c r="B12" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="107" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="20">
         <v>11</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -4418,19 +4435,19 @@
       <c r="A13" s="19">
         <v>1</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="107" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="20">
         <v>12</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -4441,19 +4458,19 @@
       <c r="A14" s="19">
         <v>1</v>
       </c>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="107" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="20">
         <v>13</v>
       </c>
-      <c r="E14" s="101" t="s">
+      <c r="E14" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -4461,20 +4478,20 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
-      <c r="B15" s="135" t="s">
+      <c r="A15" s="140"/>
+      <c r="B15" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="140" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
         <v>14</v>
       </c>
-      <c r="E15" s="101" t="s">
+      <c r="E15" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -4488,10 +4505,10 @@
       <c r="D16" s="20">
         <v>15</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -4505,10 +4522,10 @@
       <c r="D17" s="20">
         <v>16</v>
       </c>
-      <c r="E17" s="101" t="s">
+      <c r="E17" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
@@ -4522,10 +4539,10 @@
       <c r="D18" s="20">
         <v>17</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -4539,10 +4556,10 @@
       <c r="D19" s="20">
         <v>18</v>
       </c>
-      <c r="E19" s="101" t="s">
+      <c r="E19" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -4553,19 +4570,19 @@
       <c r="A20" s="19">
         <v>1</v>
       </c>
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="106" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="20">
         <v>19</v>
       </c>
-      <c r="E20" s="101" t="s">
+      <c r="E20" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="70" t="s">
+      <c r="F20" s="68" t="s">
         <v>73</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -4576,19 +4593,19 @@
       <c r="A21" s="19">
         <v>1</v>
       </c>
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="106" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="20">
         <v>20</v>
       </c>
-      <c r="E21" s="101" t="s">
+      <c r="E21" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="68" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -4596,20 +4613,20 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="141"/>
-      <c r="B22" s="141" t="s">
+      <c r="A22" s="134"/>
+      <c r="B22" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="134" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
         <v>21</v>
       </c>
-      <c r="E22" s="101" t="s">
+      <c r="E22" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -4617,16 +4634,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="137"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
-      <c r="E23" s="101" t="s">
+      <c r="E23" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -4634,16 +4651,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="137"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
+      <c r="A24" s="135"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
-      <c r="E24" s="101" t="s">
+      <c r="E24" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="F24" s="68" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -4651,16 +4668,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="137"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
-      <c r="E25" s="99" t="s">
+      <c r="E25" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="26" t="s">
@@ -4668,16 +4685,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="142"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
+      <c r="A26" s="141"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
-      <c r="E26" s="99" t="s">
+      <c r="E26" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="70" t="s">
+      <c r="F26" s="68" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="25" t="s">
@@ -4686,19 +4703,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="115" t="s">
+      <c r="B27" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="108" t="s">
+      <c r="C27" s="106" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="20">
         <v>26</v>
       </c>
-      <c r="E27" s="101" t="s">
+      <c r="E27" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -4710,16 +4727,16 @@
       <c r="B28" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="108" t="s">
+      <c r="C28" s="106" t="s">
         <v>76</v>
       </c>
       <c r="D28" s="20">
         <v>27</v>
       </c>
-      <c r="E28" s="101" t="s">
+      <c r="E28" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="69" t="s">
+      <c r="F28" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -4727,91 +4744,91 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="143"/>
-      <c r="B29" s="146" t="s">
+      <c r="A29" s="145"/>
+      <c r="B29" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="142" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
         <v>28</v>
       </c>
-      <c r="E29" s="101" t="s">
+      <c r="E29" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="64" t="s">
+      <c r="F29" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="144"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
+      <c r="A30" s="143"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="143"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
-      <c r="E30" s="101" t="s">
+      <c r="E30" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="64" t="s">
+      <c r="F30" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="144"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="143"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
-      <c r="E31" s="101" t="s">
+      <c r="E31" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="64" t="s">
+      <c r="F31" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="144"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
-      <c r="E32" s="101" t="s">
+      <c r="E32" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="64" t="s">
+      <c r="F32" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="145"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
-      <c r="E33" s="98" t="s">
+      <c r="E33" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="F33" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="64" t="s">
+      <c r="F33" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="62" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4826,10 +4843,10 @@
       <c r="D34" s="20">
         <v>33</v>
       </c>
-      <c r="E34" s="101" t="s">
+      <c r="E34" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="69" t="s">
+      <c r="F34" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -4843,10 +4860,10 @@
       <c r="D35" s="20">
         <v>34</v>
       </c>
-      <c r="E35" s="101" t="s">
+      <c r="E35" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -4858,16 +4875,16 @@
       <c r="B36" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="135" t="s">
+      <c r="C36" s="140" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="20">
         <v>35</v>
       </c>
-      <c r="E36" s="101" t="s">
+      <c r="E36" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="F36" s="71" t="s">
+      <c r="F36" s="69" t="s">
         <v>73</v>
       </c>
       <c r="G36" s="8" t="s">
@@ -4881,10 +4898,10 @@
       <c r="D37" s="20">
         <v>36</v>
       </c>
-      <c r="E37" s="101" t="s">
+      <c r="E37" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="69" t="s">
+      <c r="F37" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="4">
@@ -4893,19 +4910,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="132"/>
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="138" t="s">
+      <c r="C38" s="139" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
         <v>37</v>
       </c>
-      <c r="E38" s="101" t="s">
+      <c r="E38" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="F38" s="70" t="s">
+      <c r="F38" s="68" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="8">
@@ -4919,10 +4936,10 @@
       <c r="D39" s="20">
         <v>38</v>
       </c>
-      <c r="E39" s="101" t="s">
+      <c r="E39" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="69" t="s">
+      <c r="F39" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="4">
@@ -4934,7 +4951,7 @@
       <c r="B40" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="138" t="s">
+      <c r="C40" s="139" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -4943,10 +4960,10 @@
       <c r="E40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="55" t="s">
+      <c r="F40" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="53" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4960,10 +4977,10 @@
       <c r="E41" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="55" t="s">
+      <c r="F41" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="53" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4977,10 +4994,10 @@
       <c r="E42" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="55" t="s">
+      <c r="F42" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="53" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4994,10 +5011,10 @@
       <c r="E43" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="55" t="s">
+      <c r="F43" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="53" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5011,10 +5028,10 @@
       <c r="E44" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="55" t="s">
+      <c r="F44" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="53" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5032,19 +5049,19 @@
       <c r="E45" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="55" t="s">
+      <c r="F45" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="53" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
-      <c r="B46" s="124" t="s">
+      <c r="B46" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="110" t="s">
+      <c r="C46" s="108" t="s">
         <v>165</v>
       </c>
       <c r="D46" s="20">
@@ -5053,19 +5070,19 @@
       <c r="E46" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="70" t="s">
+      <c r="F46" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="54" t="s">
+      <c r="G46" s="52" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="115" t="s">
+      <c r="B47" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="108" t="s">
+      <c r="C47" s="106" t="s">
         <v>76</v>
       </c>
       <c r="D47" s="20">
@@ -5074,7 +5091,7 @@
       <c r="E47" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="70" t="s">
+      <c r="F47" s="68" t="s">
         <v>77</v>
       </c>
       <c r="G47" s="8" t="s">
@@ -5083,10 +5100,10 @@
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="C48" s="110" t="s">
+      <c r="C48" s="108" t="s">
         <v>165</v>
       </c>
       <c r="D48" s="20">
@@ -5095,7 +5112,7 @@
       <c r="E48" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F48" s="70" t="s">
+      <c r="F48" s="68" t="s">
         <v>77</v>
       </c>
       <c r="G48" s="8" t="s">
@@ -5103,20 +5120,20 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="149"/>
-      <c r="B49" s="139" t="s">
+      <c r="A49" s="133"/>
+      <c r="B49" s="137" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="140" t="s">
+      <c r="C49" s="138" t="s">
         <v>287</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E49" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="F49" s="72" t="s">
+      <c r="F49" s="70" t="s">
         <v>215</v>
       </c>
       <c r="G49" s="8" t="s">
@@ -5130,10 +5147,10 @@
       <c r="D50" s="20">
         <v>49</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E50" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="F50" s="72" t="s">
+      <c r="F50" s="70" t="s">
         <v>216</v>
       </c>
       <c r="G50" s="8" t="s">
@@ -5147,10 +5164,10 @@
       <c r="D51" s="20">
         <v>50</v>
       </c>
-      <c r="E51" s="50" t="s">
+      <c r="E51" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="72" t="s">
+      <c r="F51" s="70" t="s">
         <v>217</v>
       </c>
       <c r="G51" s="8" t="s">
@@ -5158,53 +5175,53 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="49"/>
-      <c r="B52" s="45" t="s">
+      <c r="A52" s="47"/>
+      <c r="B52" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="108" t="s">
+      <c r="C52" s="106" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="20">
         <v>51</v>
       </c>
-      <c r="E52" s="46" t="s">
+      <c r="E52" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="F52" s="71" t="s">
+      <c r="F52" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="62">
+      <c r="G52" s="60">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="49"/>
-      <c r="B53" s="45" t="s">
+      <c r="A53" s="47"/>
+      <c r="B53" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C53" s="110" t="s">
+      <c r="C53" s="108" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="20">
         <v>52</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="F53" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="60">
+      <c r="F53" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="58">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
-      <c r="B54" s="116" t="s">
+      <c r="B54" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="108" t="s">
+      <c r="C54" s="106" t="s">
         <v>129</v>
       </c>
       <c r="D54" s="20">
@@ -5213,7 +5230,7 @@
       <c r="E54" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="69" t="s">
+      <c r="F54" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="4" t="s">
@@ -5222,19 +5239,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="116" t="s">
+      <c r="B55" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="110" t="s">
+      <c r="C55" s="108" t="s">
         <v>130</v>
       </c>
       <c r="D55" s="20">
         <v>54</v>
       </c>
-      <c r="E55" s="113" t="s">
+      <c r="E55" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="F55" s="69" t="s">
+      <c r="F55" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -5242,11 +5259,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="141"/>
+      <c r="A56" s="134"/>
       <c r="B56" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="141" t="s">
+      <c r="C56" s="134" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5255,7 +5272,7 @@
       <c r="E56" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="69" t="s">
+      <c r="F56" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="27" t="s">
@@ -5263,101 +5280,101 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="137"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
+      <c r="A57" s="135"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="135"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
       <c r="E57" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F57" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="28">
-        <v>2.77</v>
+      <c r="F57" s="128" t="s">
+        <v>465</v>
+      </c>
+      <c r="G57" s="128" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="137"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
+      <c r="A58" s="135"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="135"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F58" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="28">
-        <v>350</v>
+      <c r="F58" s="128" t="s">
+        <v>466</v>
+      </c>
+      <c r="G58" s="128" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="137"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
+      <c r="A59" s="135"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="135"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="28" t="s">
+      <c r="F59" s="148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="148" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="137"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="137"/>
+      <c r="A60" s="135"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="135"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="28">
-        <v>2.77</v>
+      <c r="F60" s="128" t="s">
+        <v>465</v>
+      </c>
+      <c r="G60" s="128" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="137"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
+      <c r="A61" s="135"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="135"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="28">
-        <v>350</v>
+      <c r="F61" s="128" t="s">
+        <v>466</v>
+      </c>
+      <c r="G61" s="128" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="137"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
+      <c r="A62" s="135"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="135"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="69" t="s">
+      <c r="F62" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="28" t="s">
@@ -5366,10 +5383,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="116" t="s">
+      <c r="B63" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="108" t="s">
+      <c r="C63" s="106" t="s">
         <v>76</v>
       </c>
       <c r="D63" s="20">
@@ -5378,7 +5395,7 @@
       <c r="E63" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="69" t="s">
+      <c r="F63" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="4" t="s">
@@ -5387,10 +5404,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
-      <c r="B64" s="116" t="s">
+      <c r="B64" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="110" t="s">
+      <c r="C64" s="108" t="s">
         <v>239</v>
       </c>
       <c r="D64" s="20">
@@ -5399,7 +5416,7 @@
       <c r="E64" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="69" t="s">
+      <c r="F64" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="4" t="s">
@@ -5407,23 +5424,23 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="149"/>
-      <c r="B65" s="139" t="s">
+      <c r="A65" s="133"/>
+      <c r="B65" s="137" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="140" t="s">
+      <c r="C65" s="138" t="s">
         <v>287</v>
       </c>
       <c r="D65" s="20">
         <v>64</v>
       </c>
-      <c r="E65" s="50" t="s">
+      <c r="E65" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="F65" s="72" t="s">
+      <c r="F65" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="G65" s="48" t="s">
+      <c r="G65" s="46" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5434,13 +5451,13 @@
       <c r="D66" s="20">
         <v>65</v>
       </c>
-      <c r="E66" s="50" t="s">
+      <c r="E66" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="F66" s="72" t="s">
+      <c r="F66" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="G66" s="48" t="s">
+      <c r="G66" s="46" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5451,85 +5468,85 @@
       <c r="D67" s="20">
         <v>66</v>
       </c>
-      <c r="E67" s="50" t="s">
+      <c r="E67" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="F67" s="72" t="s">
+      <c r="F67" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="G67" s="48" t="s">
+      <c r="G67" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="45"/>
-      <c r="B68" s="65" t="s">
+      <c r="A68" s="43"/>
+      <c r="B68" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="43" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="20">
         <v>67</v>
       </c>
-      <c r="E68" s="66" t="s">
+      <c r="E68" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="F68" s="71" t="s">
+      <c r="F68" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="G68" s="62">
+      <c r="G68" s="60">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="45"/>
-      <c r="B69" s="45" t="s">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C69" s="110" t="s">
+      <c r="C69" s="108" t="s">
         <v>58</v>
       </c>
       <c r="D69" s="20">
         <v>68</v>
       </c>
-      <c r="E69" s="46" t="s">
+      <c r="E69" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="F69" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="61">
+      <c r="F69" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="59">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="38"/>
-      <c r="B70" s="116" t="s">
+      <c r="A70" s="36"/>
+      <c r="B70" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="108" t="s">
+      <c r="C70" s="106" t="s">
         <v>129</v>
       </c>
       <c r="D70" s="20">
         <v>69</v>
       </c>
-      <c r="E70" s="40" t="s">
+      <c r="E70" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="38" t="s">
+      <c r="F70" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
-      <c r="B71" s="115" t="s">
+      <c r="B71" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="110" t="s">
+      <c r="C71" s="108" t="s">
         <v>130</v>
       </c>
       <c r="D71" s="20">
@@ -5538,142 +5555,142 @@
       <c r="E71" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F71" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="4" t="s">
+      <c r="F71" s="148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="148" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="141"/>
+      <c r="A72" s="134"/>
       <c r="B72" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="141" t="s">
+      <c r="C72" s="134" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
         <v>71</v>
       </c>
-      <c r="E72" s="39" t="s">
+      <c r="E72" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="F72" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="36" t="s">
+      <c r="F72" s="148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="149" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="137"/>
-      <c r="B73" s="137"/>
-      <c r="C73" s="137"/>
+      <c r="A73" s="135"/>
+      <c r="B73" s="135"/>
+      <c r="C73" s="135"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="E73" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="F73" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="37">
-        <v>2.77</v>
+      <c r="F73" s="128" t="s">
+        <v>465</v>
+      </c>
+      <c r="G73" s="128" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="137"/>
-      <c r="B74" s="137"/>
-      <c r="C74" s="137"/>
+      <c r="A74" s="135"/>
+      <c r="B74" s="135"/>
+      <c r="C74" s="135"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
-      <c r="E74" s="39" t="s">
+      <c r="E74" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="F74" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="37">
-        <v>350</v>
+      <c r="F74" s="128" t="s">
+        <v>466</v>
+      </c>
+      <c r="G74" s="128" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="137"/>
-      <c r="B75" s="137"/>
-      <c r="C75" s="137"/>
+      <c r="A75" s="135"/>
+      <c r="B75" s="135"/>
+      <c r="C75" s="135"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="F75" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="37" t="s">
+      <c r="F75" s="148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="148" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="137"/>
-      <c r="B76" s="137"/>
-      <c r="C76" s="137"/>
+      <c r="A76" s="135"/>
+      <c r="B76" s="135"/>
+      <c r="C76" s="135"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
-      <c r="E76" s="39" t="s">
+      <c r="E76" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="37">
-        <v>2.77</v>
+      <c r="F76" s="128" t="s">
+        <v>465</v>
+      </c>
+      <c r="G76" s="128" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="137"/>
-      <c r="B77" s="137"/>
-      <c r="C77" s="137"/>
+      <c r="A77" s="135"/>
+      <c r="B77" s="135"/>
+      <c r="C77" s="135"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
-      <c r="E77" s="39" t="s">
+      <c r="E77" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="F77" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="37">
-        <v>350</v>
+      <c r="F77" s="128" t="s">
+        <v>466</v>
+      </c>
+      <c r="G77" s="128" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="137"/>
-      <c r="B78" s="137"/>
-      <c r="C78" s="137"/>
+      <c r="A78" s="135"/>
+      <c r="B78" s="135"/>
+      <c r="C78" s="135"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
-      <c r="E78" s="39" t="s">
+      <c r="E78" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="F78" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="37" t="s">
+      <c r="F78" s="148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="148" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
-      <c r="B79" s="116" t="s">
+      <c r="B79" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="108" t="s">
+      <c r="C79" s="106" t="s">
         <v>76</v>
       </c>
       <c r="D79" s="20">
@@ -5682,7 +5699,7 @@
       <c r="E79" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F79" s="69" t="s">
+      <c r="F79" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="4" t="s">
@@ -5691,10 +5708,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="116" t="s">
+      <c r="B80" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="110" t="s">
+      <c r="C80" s="108" t="s">
         <v>239</v>
       </c>
       <c r="D80" s="20">
@@ -5703,7 +5720,7 @@
       <c r="E80" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F80" s="69" t="s">
+      <c r="F80" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="4" t="s">
@@ -5711,11 +5728,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="135"/>
-      <c r="B81" s="135" t="s">
+      <c r="A81" s="140"/>
+      <c r="B81" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="138" t="s">
+      <c r="C81" s="139" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5724,7 +5741,7 @@
       <c r="E81" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F81" s="69" t="s">
+      <c r="F81" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="4" t="s">
@@ -5741,7 +5758,7 @@
       <c r="E82" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F82" s="69" t="s">
+      <c r="F82" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G82" s="4" t="s">
@@ -5758,7 +5775,7 @@
       <c r="E83" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F83" s="69" t="s">
+      <c r="F83" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G83" s="4" t="s">
@@ -5775,7 +5792,7 @@
       <c r="E84" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F84" s="69" t="s">
+      <c r="F84" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G84" s="4" t="s">
@@ -5784,19 +5801,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="115" t="s">
+      <c r="B85" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="110" t="s">
+      <c r="C85" s="108" t="s">
         <v>58</v>
       </c>
       <c r="D85" s="20">
         <v>84</v>
       </c>
-      <c r="E85" s="101" t="s">
+      <c r="E85" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="F85" s="70" t="s">
+      <c r="F85" s="68" t="s">
         <v>91</v>
       </c>
       <c r="G85" s="8" t="s">
@@ -5805,19 +5822,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="115" t="s">
+      <c r="B86" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="108" t="s">
+      <c r="C86" s="106" t="s">
         <v>76</v>
       </c>
       <c r="D86" s="20">
         <v>85</v>
       </c>
-      <c r="E86" s="101" t="s">
+      <c r="E86" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="F86" s="69" t="s">
+      <c r="F86" s="67" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="4" t="s">
@@ -5826,19 +5843,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="115" t="s">
+      <c r="B87" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="110" t="s">
+      <c r="C87" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="D87" s="68">
+      <c r="D87" s="66">
         <v>86</v>
       </c>
-      <c r="E87" s="101" t="s">
+      <c r="E87" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="F87" s="71" t="s">
+      <c r="F87" s="69" t="s">
         <v>73</v>
       </c>
       <c r="G87" s="8" t="s">
@@ -5847,19 +5864,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="116" t="s">
+      <c r="B88" s="114" t="s">
         <v>447</v>
       </c>
-      <c r="C88" s="110" t="s">
+      <c r="C88" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="D88" s="68">
+      <c r="D88" s="66">
         <v>87</v>
       </c>
-      <c r="E88" s="98" t="s">
+      <c r="E88" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="F88" s="69">
+      <c r="F88" s="67">
         <v>20</v>
       </c>
       <c r="G88" s="31" t="s">
@@ -5868,19 +5885,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
-      <c r="B89" s="116" t="s">
+      <c r="B89" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="C89" s="110" t="s">
+      <c r="C89" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="D89" s="68">
+      <c r="D89" s="66">
         <v>88</v>
       </c>
-      <c r="E89" s="98" t="s">
+      <c r="E89" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="F89" s="69">
+      <c r="F89" s="67">
         <v>20</v>
       </c>
       <c r="G89" s="32" t="s">
@@ -5889,19 +5906,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="116" t="s">
+      <c r="B90" s="114" t="s">
         <v>448</v>
       </c>
-      <c r="C90" s="110" t="s">
+      <c r="C90" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="D90" s="68">
+      <c r="D90" s="66">
         <v>89</v>
       </c>
-      <c r="E90" s="98" t="s">
+      <c r="E90" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="F90" s="70">
+      <c r="F90" s="68">
         <v>3</v>
       </c>
       <c r="G90" s="30" t="s">
@@ -5910,1347 +5927,1376 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
-      <c r="B91" s="116" t="s">
+      <c r="B91" s="114" t="s">
         <v>234</v>
       </c>
-      <c r="C91" s="111" t="s">
+      <c r="C91" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D91" s="68">
+      <c r="D91" s="66">
         <v>90</v>
       </c>
-      <c r="E91" s="98" t="s">
+      <c r="E91" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="F91" s="70" t="s">
+      <c r="F91" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G91" s="55" t="s">
+      <c r="G91" s="53" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
-      <c r="B92" s="116" t="s">
+      <c r="B92" s="114" t="s">
         <v>235</v>
       </c>
-      <c r="C92" s="111" t="s">
+      <c r="C92" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="68">
+      <c r="D92" s="66">
         <v>91</v>
       </c>
-      <c r="E92" s="98" t="s">
+      <c r="E92" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="F92" s="70" t="s">
+      <c r="F92" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G92" s="55" t="s">
+      <c r="G92" s="53" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
-      <c r="B93" s="116" t="s">
+      <c r="B93" s="114" t="s">
         <v>265</v>
       </c>
-      <c r="C93" s="111" t="s">
+      <c r="C93" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="68">
+      <c r="D93" s="66">
         <v>92</v>
       </c>
-      <c r="E93" s="98" t="s">
+      <c r="E93" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="F93" s="70" t="s">
+      <c r="F93" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G93" s="55" t="s">
+      <c r="G93" s="53" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
-      <c r="B94" s="116" t="s">
+      <c r="B94" s="114" t="s">
         <v>233</v>
       </c>
-      <c r="C94" s="111" t="s">
+      <c r="C94" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D94" s="68">
+      <c r="D94" s="66">
         <v>93</v>
       </c>
-      <c r="E94" s="98" t="s">
+      <c r="E94" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="F94" s="70" t="s">
+      <c r="F94" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G94" s="55" t="s">
+      <c r="G94" s="53" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
-      <c r="B95" s="116" t="s">
+      <c r="B95" s="114" t="s">
         <v>236</v>
       </c>
-      <c r="C95" s="111" t="s">
+      <c r="C95" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="68">
+      <c r="D95" s="66">
         <v>94</v>
       </c>
-      <c r="E95" s="98" t="s">
+      <c r="E95" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="F95" s="70" t="s">
+      <c r="F95" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G95" s="55" t="s">
+      <c r="G95" s="53" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
-      <c r="B96" s="116" t="s">
+      <c r="B96" s="114" t="s">
         <v>266</v>
       </c>
-      <c r="C96" s="111" t="s">
+      <c r="C96" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="68">
+      <c r="D96" s="66">
         <v>95</v>
       </c>
-      <c r="E96" s="98" t="s">
+      <c r="E96" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="F96" s="70" t="s">
+      <c r="F96" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G96" s="55" t="s">
+      <c r="G96" s="53" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="68"/>
-      <c r="B97" s="117" t="s">
+      <c r="A97" s="66"/>
+      <c r="B97" s="115" t="s">
         <v>271</v>
       </c>
-      <c r="C97" s="111" t="s">
+      <c r="C97" s="109" t="s">
         <v>268</v>
       </c>
-      <c r="D97" s="68">
+      <c r="D97" s="66">
         <v>96</v>
       </c>
-      <c r="E97" s="98" t="s">
+      <c r="E97" s="96" t="s">
         <v>267</v>
       </c>
-      <c r="F97" s="70" t="s">
+      <c r="F97" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G97" s="63" t="s">
+      <c r="G97" s="61" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="68"/>
-      <c r="B98" s="117" t="s">
+      <c r="A98" s="66"/>
+      <c r="B98" s="115" t="s">
         <v>272</v>
       </c>
-      <c r="C98" s="111" t="s">
+      <c r="C98" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="D98" s="68">
+      <c r="D98" s="66">
         <v>97</v>
       </c>
-      <c r="E98" s="98" t="s">
+      <c r="E98" s="96" t="s">
         <v>267</v>
       </c>
-      <c r="F98" s="70" t="s">
+      <c r="F98" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G98" s="67" t="s">
+      <c r="G98" s="65" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="147"/>
-      <c r="B99" s="147" t="s">
+      <c r="A99" s="130"/>
+      <c r="B99" s="130" t="s">
         <v>297</v>
       </c>
-      <c r="C99" s="147" t="s">
+      <c r="C99" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="D99" s="83">
+      <c r="D99" s="81">
         <v>98</v>
       </c>
-      <c r="E99" s="98" t="s">
+      <c r="E99" s="96" t="s">
         <v>298</v>
       </c>
-      <c r="F99" s="82" t="s">
+      <c r="F99" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G99" s="82" t="s">
+      <c r="G99" s="80" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="147"/>
-      <c r="B100" s="147"/>
-      <c r="C100" s="147"/>
-      <c r="D100" s="83">
+      <c r="A100" s="130"/>
+      <c r="B100" s="130"/>
+      <c r="C100" s="130"/>
+      <c r="D100" s="81">
         <v>99</v>
       </c>
-      <c r="E100" s="98" t="s">
+      <c r="E100" s="96" t="s">
         <v>301</v>
       </c>
-      <c r="F100" s="82" t="s">
+      <c r="F100" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G100" s="82" t="s">
+      <c r="G100" s="80" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="147"/>
-      <c r="B101" s="147"/>
-      <c r="C101" s="147"/>
-      <c r="D101" s="83">
+      <c r="A101" s="130"/>
+      <c r="B101" s="130"/>
+      <c r="C101" s="130"/>
+      <c r="D101" s="81">
         <v>100</v>
       </c>
-      <c r="E101" s="98" t="s">
+      <c r="E101" s="96" t="s">
         <v>302</v>
       </c>
-      <c r="F101" s="82" t="s">
+      <c r="F101" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G101" s="82" t="s">
+      <c r="G101" s="80" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="84"/>
-      <c r="B102" s="118" t="s">
+      <c r="A102" s="82"/>
+      <c r="B102" s="116" t="s">
         <v>310</v>
       </c>
-      <c r="C102" s="112" t="s">
+      <c r="C102" s="110" t="s">
         <v>309</v>
       </c>
-      <c r="D102" s="83">
+      <c r="D102" s="81">
         <v>101</v>
       </c>
-      <c r="E102" s="98" t="s">
+      <c r="E102" s="96" t="s">
         <v>310</v>
       </c>
-      <c r="F102" s="82" t="s">
+      <c r="F102" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G102" s="82" t="s">
+      <c r="G102" s="80" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="147"/>
-      <c r="B103" s="147" t="s">
+      <c r="A103" s="130"/>
+      <c r="B103" s="130" t="s">
         <v>299</v>
       </c>
-      <c r="C103" s="147" t="s">
+      <c r="C103" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="D103" s="78">
+      <c r="D103" s="76">
         <v>102</v>
       </c>
-      <c r="E103" s="98" t="s">
+      <c r="E103" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="F103" s="73" t="s">
+      <c r="F103" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G103" s="73" t="s">
+      <c r="G103" s="71" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="148"/>
-      <c r="B104" s="148"/>
-      <c r="C104" s="148"/>
-      <c r="D104" s="78">
+      <c r="A104" s="131"/>
+      <c r="B104" s="131"/>
+      <c r="C104" s="131"/>
+      <c r="D104" s="76">
         <v>103</v>
       </c>
-      <c r="E104" s="99" t="s">
+      <c r="E104" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="F104" s="73" t="s">
+      <c r="F104" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G104" s="73" t="s">
+      <c r="G104" s="71" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="148"/>
-      <c r="B105" s="148"/>
-      <c r="C105" s="148"/>
-      <c r="D105" s="78">
+      <c r="A105" s="131"/>
+      <c r="B105" s="131"/>
+      <c r="C105" s="131"/>
+      <c r="D105" s="76">
         <v>104</v>
       </c>
-      <c r="E105" s="99" t="s">
+      <c r="E105" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="F105" s="73" t="s">
+      <c r="F105" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G105" s="73" t="s">
+      <c r="G105" s="71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="76"/>
-      <c r="B106" s="116" t="s">
+    <row r="106" spans="1:7" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="74"/>
+      <c r="B106" s="114" t="s">
         <v>300</v>
       </c>
-      <c r="C106" s="111" t="s">
+      <c r="C106" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D106" s="100">
+      <c r="D106" s="98">
         <v>105</v>
       </c>
-      <c r="E106" s="98" t="s">
+      <c r="E106" s="96" t="s">
         <v>300</v>
       </c>
-      <c r="F106" s="131" t="s">
+      <c r="F106" s="129" t="s">
         <v>463</v>
       </c>
-      <c r="G106" s="73" t="s">
+      <c r="G106" s="71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="79"/>
-      <c r="B107" s="117" t="s">
+    <row r="107" spans="1:7" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="77"/>
+      <c r="B107" s="115" t="s">
         <v>303</v>
       </c>
-      <c r="C107" s="111" t="s">
+      <c r="C107" s="109" t="s">
         <v>453</v>
       </c>
-      <c r="D107" s="100">
+      <c r="D107" s="98">
         <v>106</v>
       </c>
-      <c r="E107" s="100" t="s">
+      <c r="E107" s="98" t="s">
         <v>303</v>
       </c>
-      <c r="F107" s="77" t="s">
+      <c r="F107" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="G107" s="77" t="s">
+      <c r="G107" s="75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="79"/>
-      <c r="B108" s="117" t="s">
+    <row r="108" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="77"/>
+      <c r="B108" s="115" t="s">
         <v>304</v>
       </c>
-      <c r="C108" s="111" t="s">
+      <c r="C108" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="D108" s="100">
+      <c r="D108" s="98">
         <v>107</v>
       </c>
-      <c r="E108" s="100" t="s">
+      <c r="E108" s="98" t="s">
         <v>304</v>
       </c>
-      <c r="F108" s="77" t="s">
+      <c r="F108" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="G108" s="77" t="s">
+      <c r="G108" s="75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="79"/>
-      <c r="B109" s="117" t="s">
+    <row r="109" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="77"/>
+      <c r="B109" s="115" t="s">
         <v>305</v>
       </c>
-      <c r="C109" s="111" t="s">
+      <c r="C109" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="D109" s="100">
+      <c r="D109" s="98">
         <v>108</v>
       </c>
-      <c r="E109" s="100" t="s">
+      <c r="E109" s="98" t="s">
         <v>305</v>
       </c>
-      <c r="F109" s="77" t="s">
+      <c r="F109" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="G109" s="77" t="s">
+      <c r="G109" s="75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="79"/>
-      <c r="B110" s="117" t="s">
+    <row r="110" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="77"/>
+      <c r="B110" s="115" t="s">
         <v>306</v>
       </c>
-      <c r="C110" s="111" t="s">
+      <c r="C110" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="D110" s="100">
+      <c r="D110" s="98">
         <v>109</v>
       </c>
-      <c r="E110" s="100" t="s">
+      <c r="E110" s="98" t="s">
         <v>306</v>
       </c>
-      <c r="F110" s="77" t="s">
+      <c r="F110" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="G110" s="77" t="s">
+      <c r="G110" s="75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="75" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="79"/>
-      <c r="B111" s="116" t="s">
+    <row r="111" spans="1:7" s="73" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="77"/>
+      <c r="B111" s="114" t="s">
         <v>307</v>
       </c>
-      <c r="C111" s="111" t="s">
+      <c r="C111" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="D111" s="100">
+      <c r="D111" s="98">
         <v>110</v>
       </c>
-      <c r="E111" s="98" t="s">
+      <c r="E111" s="96" t="s">
         <v>307</v>
       </c>
-      <c r="F111" s="77" t="s">
+      <c r="F111" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="G111" s="77" t="s">
+      <c r="G111" s="75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="75" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="80"/>
-      <c r="B112" s="116" t="s">
+    <row r="112" spans="1:7" s="73" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="78"/>
+      <c r="B112" s="114" t="s">
         <v>308</v>
       </c>
-      <c r="C112" s="111" t="s">
+      <c r="C112" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="D112" s="100">
+      <c r="D112" s="98">
         <v>111</v>
       </c>
-      <c r="E112" s="98" t="s">
+      <c r="E112" s="96" t="s">
         <v>308</v>
       </c>
-      <c r="F112" s="81" t="s">
+      <c r="F112" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="G112" s="81" t="s">
+      <c r="G112" s="79" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="102"/>
-      <c r="B113" s="116" t="s">
+      <c r="A113" s="100"/>
+      <c r="B113" s="114" t="s">
         <v>347</v>
       </c>
-      <c r="C113" s="110" t="s">
+      <c r="C113" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="D113" s="117">
+      <c r="D113" s="115">
         <v>112</v>
       </c>
-      <c r="E113" s="98" t="s">
+      <c r="E113" s="96" t="s">
         <v>347</v>
       </c>
-      <c r="F113" s="91" t="s">
+      <c r="F113" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G113" s="91">
+      <c r="G113" s="89">
         <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="102"/>
-      <c r="B114" s="116" t="s">
+      <c r="A114" s="100"/>
+      <c r="B114" s="114" t="s">
         <v>352</v>
       </c>
-      <c r="C114" s="110" t="s">
+      <c r="C114" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="D114" s="117">
+      <c r="D114" s="115">
         <v>113</v>
       </c>
-      <c r="E114" s="98" t="s">
+      <c r="E114" s="96" t="s">
         <v>352</v>
       </c>
-      <c r="F114" s="91" t="s">
+      <c r="F114" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G114" s="91">
+      <c r="G114" s="89">
         <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="102"/>
-      <c r="B115" s="116" t="s">
+      <c r="A115" s="100"/>
+      <c r="B115" s="114" t="s">
         <v>353</v>
       </c>
-      <c r="C115" s="110" t="s">
+      <c r="C115" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="D115" s="117">
+      <c r="D115" s="115">
         <v>114</v>
       </c>
-      <c r="E115" s="98" t="s">
+      <c r="E115" s="96" t="s">
         <v>353</v>
       </c>
-      <c r="F115" s="91" t="s">
+      <c r="F115" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G115" s="91">
+      <c r="G115" s="89">
         <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="102"/>
-      <c r="B116" s="116" t="s">
+      <c r="A116" s="100"/>
+      <c r="B116" s="114" t="s">
         <v>349</v>
       </c>
-      <c r="C116" s="110" t="s">
+      <c r="C116" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="D116" s="117">
+      <c r="D116" s="115">
         <v>115</v>
       </c>
-      <c r="E116" s="98" t="s">
+      <c r="E116" s="96" t="s">
         <v>349</v>
       </c>
-      <c r="F116" s="91" t="s">
+      <c r="F116" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G116" s="91">
+      <c r="G116" s="89">
         <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="102"/>
-      <c r="B117" s="116" t="s">
+      <c r="A117" s="100"/>
+      <c r="B117" s="114" t="s">
         <v>354</v>
       </c>
-      <c r="C117" s="110" t="s">
+      <c r="C117" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="D117" s="117">
+      <c r="D117" s="115">
         <v>116</v>
       </c>
-      <c r="E117" s="98" t="s">
+      <c r="E117" s="96" t="s">
         <v>354</v>
       </c>
-      <c r="F117" s="91" t="s">
+      <c r="F117" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G117" s="91">
+      <c r="G117" s="89">
         <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="102"/>
-      <c r="B118" s="116" t="s">
+      <c r="A118" s="100"/>
+      <c r="B118" s="114" t="s">
         <v>449</v>
       </c>
-      <c r="C118" s="110" t="s">
+      <c r="C118" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="D118" s="117">
+      <c r="D118" s="115">
         <v>117</v>
       </c>
-      <c r="E118" s="98" t="s">
+      <c r="E118" s="96" t="s">
         <v>350</v>
       </c>
-      <c r="F118" s="91" t="s">
+      <c r="F118" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G118" s="91">
+      <c r="G118" s="89">
         <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="102"/>
-      <c r="B119" s="116" t="s">
+      <c r="A119" s="100"/>
+      <c r="B119" s="114" t="s">
         <v>450</v>
       </c>
-      <c r="C119" s="110" t="s">
+      <c r="C119" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="D119" s="117">
+      <c r="D119" s="115">
         <v>118</v>
       </c>
-      <c r="E119" s="98" t="s">
+      <c r="E119" s="96" t="s">
         <v>351</v>
       </c>
-      <c r="F119" s="91" t="s">
+      <c r="F119" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G119" s="90">
+      <c r="G119" s="88">
         <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="110"/>
-      <c r="B120" s="116" t="s">
+      <c r="A120" s="108"/>
+      <c r="B120" s="114" t="s">
         <v>398</v>
       </c>
-      <c r="C120" s="110" t="s">
+      <c r="C120" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="D120" s="117">
+      <c r="D120" s="115">
         <v>119</v>
       </c>
-      <c r="E120" s="110" t="s">
+      <c r="E120" s="108" t="s">
         <v>400</v>
       </c>
-      <c r="F120" s="110" t="s">
+      <c r="F120" s="108" t="s">
         <v>399</v>
       </c>
-      <c r="G120" s="110" t="s">
+      <c r="G120" s="108" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="114"/>
-      <c r="B121" s="116" t="s">
+      <c r="A121" s="112"/>
+      <c r="B121" s="114" t="s">
         <v>396</v>
       </c>
-      <c r="C121" s="114" t="s">
+      <c r="C121" s="112" t="s">
         <v>346</v>
       </c>
-      <c r="D121" s="117">
+      <c r="D121" s="115">
         <v>120</v>
       </c>
-      <c r="E121" s="114" t="s">
+      <c r="E121" s="112" t="s">
         <v>396</v>
       </c>
-      <c r="F121" s="114" t="s">
+      <c r="F121" s="112" t="s">
         <v>399</v>
       </c>
-      <c r="G121" s="114" t="s">
+      <c r="G121" s="112" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="114"/>
-      <c r="B122" s="116" t="s">
+      <c r="A122" s="112"/>
+      <c r="B122" s="114" t="s">
         <v>397</v>
       </c>
-      <c r="C122" s="114" t="s">
+      <c r="C122" s="112" t="s">
         <v>346</v>
       </c>
-      <c r="D122" s="117">
+      <c r="D122" s="115">
         <v>121</v>
       </c>
-      <c r="E122" s="114" t="s">
+      <c r="E122" s="112" t="s">
         <v>397</v>
       </c>
-      <c r="F122" s="114" t="s">
+      <c r="F122" s="112" t="s">
         <v>399</v>
       </c>
-      <c r="G122" s="114" t="s">
+      <c r="G122" s="112" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="120"/>
-      <c r="B123" s="120" t="s">
+      <c r="A123" s="118"/>
+      <c r="B123" s="118" t="s">
         <v>413</v>
       </c>
-      <c r="C123" s="120" t="s">
+      <c r="C123" s="118" t="s">
         <v>429</v>
       </c>
-      <c r="D123" s="119">
+      <c r="D123" s="117">
         <v>122</v>
       </c>
-      <c r="E123" s="120" t="s">
+      <c r="E123" s="118" t="s">
         <v>413</v>
       </c>
-      <c r="F123" s="120" t="s">
+      <c r="F123" s="118" t="s">
         <v>399</v>
       </c>
-      <c r="G123" s="120" t="s">
+      <c r="G123" s="118" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="120"/>
-      <c r="B124" s="120" t="s">
+      <c r="A124" s="118"/>
+      <c r="B124" s="118" t="s">
         <v>414</v>
       </c>
-      <c r="C124" s="120" t="s">
+      <c r="C124" s="118" t="s">
         <v>429</v>
       </c>
-      <c r="D124" s="119">
+      <c r="D124" s="117">
         <v>123</v>
       </c>
-      <c r="E124" s="120" t="s">
+      <c r="E124" s="118" t="s">
         <v>414</v>
       </c>
-      <c r="F124" s="120" t="s">
+      <c r="F124" s="118" t="s">
         <v>399</v>
       </c>
-      <c r="G124" s="120" t="s">
+      <c r="G124" s="118" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="120"/>
-      <c r="B125" s="120" t="s">
+      <c r="A125" s="118"/>
+      <c r="B125" s="118" t="s">
         <v>415</v>
       </c>
-      <c r="C125" s="120" t="s">
+      <c r="C125" s="118" t="s">
         <v>429</v>
       </c>
-      <c r="D125" s="119">
+      <c r="D125" s="117">
         <v>124</v>
       </c>
-      <c r="E125" s="120" t="s">
+      <c r="E125" s="118" t="s">
         <v>415</v>
       </c>
-      <c r="F125" s="120" t="s">
+      <c r="F125" s="118" t="s">
         <v>399</v>
       </c>
-      <c r="G125" s="120" t="s">
+      <c r="G125" s="118" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="120"/>
-      <c r="B126" s="120" t="s">
+      <c r="A126" s="118"/>
+      <c r="B126" s="118" t="s">
         <v>416</v>
       </c>
-      <c r="C126" s="120" t="s">
+      <c r="C126" s="118" t="s">
         <v>429</v>
       </c>
-      <c r="D126" s="119">
+      <c r="D126" s="117">
         <v>125</v>
       </c>
-      <c r="E126" s="120" t="s">
+      <c r="E126" s="118" t="s">
         <v>416</v>
       </c>
-      <c r="F126" s="120" t="s">
+      <c r="F126" s="118" t="s">
         <v>399</v>
       </c>
-      <c r="G126" s="120" t="s">
+      <c r="G126" s="118" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="120"/>
-      <c r="B127" s="120" t="s">
+      <c r="A127" s="118"/>
+      <c r="B127" s="118" t="s">
         <v>423</v>
       </c>
-      <c r="C127" s="120" t="s">
+      <c r="C127" s="118" t="s">
         <v>429</v>
       </c>
-      <c r="D127" s="119">
+      <c r="D127" s="117">
         <v>126</v>
       </c>
-      <c r="E127" s="120" t="s">
+      <c r="E127" s="118" t="s">
         <v>423</v>
       </c>
-      <c r="F127" s="120" t="s">
+      <c r="F127" s="118" t="s">
         <v>399</v>
       </c>
-      <c r="G127" s="120" t="s">
+      <c r="G127" s="118" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="120"/>
-      <c r="B128" s="120" t="s">
+      <c r="A128" s="118"/>
+      <c r="B128" s="118" t="s">
         <v>424</v>
       </c>
-      <c r="C128" s="120" t="s">
+      <c r="C128" s="118" t="s">
         <v>429</v>
       </c>
-      <c r="D128" s="119">
+      <c r="D128" s="117">
         <v>127</v>
       </c>
-      <c r="E128" s="120" t="s">
+      <c r="E128" s="118" t="s">
         <v>424</v>
       </c>
-      <c r="F128" s="120" t="s">
+      <c r="F128" s="118" t="s">
         <v>399</v>
       </c>
-      <c r="G128" s="120" t="s">
+      <c r="G128" s="118" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="120"/>
-      <c r="B129" s="120" t="s">
+      <c r="A129" s="118"/>
+      <c r="B129" s="118" t="s">
         <v>425</v>
       </c>
-      <c r="C129" s="120" t="s">
+      <c r="C129" s="118" t="s">
         <v>429</v>
       </c>
-      <c r="D129" s="119">
+      <c r="D129" s="117">
         <v>128</v>
       </c>
-      <c r="E129" s="120" t="s">
+      <c r="E129" s="118" t="s">
         <v>425</v>
       </c>
-      <c r="F129" s="120" t="s">
+      <c r="F129" s="118" t="s">
         <v>399</v>
       </c>
-      <c r="G129" s="120" t="s">
+      <c r="G129" s="118" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="120"/>
-      <c r="B130" s="120" t="s">
+      <c r="A130" s="118"/>
+      <c r="B130" s="118" t="s">
         <v>426</v>
       </c>
-      <c r="C130" s="120" t="s">
+      <c r="C130" s="118" t="s">
         <v>429</v>
       </c>
-      <c r="D130" s="119">
+      <c r="D130" s="117">
         <v>129</v>
       </c>
-      <c r="E130" s="120" t="s">
+      <c r="E130" s="118" t="s">
         <v>426</v>
       </c>
-      <c r="F130" s="120" t="s">
+      <c r="F130" s="118" t="s">
         <v>399</v>
       </c>
-      <c r="G130" s="120" t="s">
+      <c r="G130" s="118" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="120"/>
-      <c r="B131" s="120" t="s">
+      <c r="A131" s="118"/>
+      <c r="B131" s="118" t="s">
         <v>405</v>
       </c>
-      <c r="C131" s="120" t="s">
+      <c r="C131" s="118" t="s">
         <v>429</v>
       </c>
-      <c r="D131" s="119">
+      <c r="D131" s="117">
         <v>130</v>
       </c>
-      <c r="E131" s="120" t="s">
+      <c r="E131" s="118" t="s">
         <v>405</v>
       </c>
-      <c r="F131" s="120" t="s">
+      <c r="F131" s="118" t="s">
         <v>399</v>
       </c>
-      <c r="G131" s="120" t="s">
+      <c r="G131" s="118" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="120"/>
-      <c r="B132" s="120" t="s">
+      <c r="A132" s="118"/>
+      <c r="B132" s="118" t="s">
         <v>406</v>
       </c>
-      <c r="C132" s="120" t="s">
+      <c r="C132" s="118" t="s">
         <v>429</v>
       </c>
-      <c r="D132" s="119">
+      <c r="D132" s="117">
         <v>131</v>
       </c>
-      <c r="E132" s="120" t="s">
+      <c r="E132" s="118" t="s">
         <v>406</v>
       </c>
-      <c r="F132" s="120" t="s">
+      <c r="F132" s="118" t="s">
         <v>399</v>
       </c>
-      <c r="G132" s="120" t="s">
+      <c r="G132" s="118" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="120"/>
-      <c r="B133" s="120" t="s">
+      <c r="A133" s="118"/>
+      <c r="B133" s="118" t="s">
         <v>407</v>
       </c>
-      <c r="C133" s="120" t="s">
+      <c r="C133" s="118" t="s">
         <v>429</v>
       </c>
-      <c r="D133" s="119">
+      <c r="D133" s="117">
         <v>132</v>
       </c>
-      <c r="E133" s="120" t="s">
+      <c r="E133" s="118" t="s">
         <v>407</v>
       </c>
-      <c r="F133" s="120" t="s">
+      <c r="F133" s="118" t="s">
         <v>399</v>
       </c>
-      <c r="G133" s="120" t="s">
+      <c r="G133" s="118" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="120"/>
-      <c r="B134" s="120" t="s">
+      <c r="A134" s="118"/>
+      <c r="B134" s="118" t="s">
         <v>408</v>
       </c>
-      <c r="C134" s="120" t="s">
+      <c r="C134" s="118" t="s">
         <v>429</v>
       </c>
-      <c r="D134" s="119">
+      <c r="D134" s="117">
         <v>133</v>
       </c>
-      <c r="E134" s="120" t="s">
+      <c r="E134" s="118" t="s">
         <v>408</v>
       </c>
-      <c r="F134" s="120" t="s">
+      <c r="F134" s="118" t="s">
         <v>399</v>
       </c>
-      <c r="G134" s="120" t="s">
+      <c r="G134" s="118" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="120"/>
-      <c r="B135" s="120" t="s">
+      <c r="A135" s="118"/>
+      <c r="B135" s="118" t="s">
         <v>409</v>
       </c>
-      <c r="C135" s="120" t="s">
+      <c r="C135" s="118" t="s">
         <v>429</v>
       </c>
-      <c r="D135" s="119">
+      <c r="D135" s="117">
         <v>134</v>
       </c>
-      <c r="E135" s="120" t="s">
+      <c r="E135" s="118" t="s">
         <v>409</v>
       </c>
-      <c r="F135" s="120" t="s">
+      <c r="F135" s="118" t="s">
         <v>399</v>
       </c>
-      <c r="G135" s="120" t="s">
+      <c r="G135" s="118" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="120"/>
-      <c r="B136" s="120" t="s">
+      <c r="A136" s="118"/>
+      <c r="B136" s="118" t="s">
         <v>410</v>
       </c>
-      <c r="C136" s="120" t="s">
+      <c r="C136" s="118" t="s">
         <v>429</v>
       </c>
-      <c r="D136" s="119">
+      <c r="D136" s="117">
         <v>135</v>
       </c>
-      <c r="E136" s="120" t="s">
+      <c r="E136" s="118" t="s">
         <v>410</v>
       </c>
-      <c r="F136" s="120" t="s">
+      <c r="F136" s="118" t="s">
         <v>399</v>
       </c>
-      <c r="G136" s="120" t="s">
+      <c r="G136" s="118" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="121"/>
-      <c r="B137" s="121" t="s">
+      <c r="A137" s="119"/>
+      <c r="B137" s="119" t="s">
         <v>431</v>
       </c>
-      <c r="C137" s="121" t="s">
+      <c r="C137" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="D137" s="121">
+      <c r="D137" s="119">
         <v>136</v>
       </c>
-      <c r="E137" s="122" t="s">
+      <c r="E137" s="120" t="s">
         <v>431</v>
       </c>
-      <c r="F137" s="121" t="s">
+      <c r="F137" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="G137" s="121" t="s">
+      <c r="G137" s="119" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="121"/>
-      <c r="B138" s="121" t="s">
+      <c r="A138" s="119"/>
+      <c r="B138" s="119" t="s">
         <v>432</v>
       </c>
-      <c r="C138" s="121" t="s">
+      <c r="C138" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="D138" s="121">
+      <c r="D138" s="119">
         <v>137</v>
       </c>
-      <c r="E138" s="122" t="s">
+      <c r="E138" s="120" t="s">
         <v>432</v>
       </c>
-      <c r="F138" s="121" t="s">
+      <c r="F138" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="G138" s="121" t="s">
+      <c r="G138" s="119" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="121"/>
-      <c r="B139" s="121" t="s">
+      <c r="A139" s="119"/>
+      <c r="B139" s="119" t="s">
         <v>433</v>
       </c>
-      <c r="C139" s="121" t="s">
+      <c r="C139" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="D139" s="121">
+      <c r="D139" s="119">
         <v>138</v>
       </c>
-      <c r="E139" s="122" t="s">
+      <c r="E139" s="120" t="s">
         <v>433</v>
       </c>
-      <c r="F139" s="121" t="s">
+      <c r="F139" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="G139" s="121" t="s">
+      <c r="G139" s="119" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="121"/>
-      <c r="B140" s="121" t="s">
+      <c r="A140" s="119"/>
+      <c r="B140" s="119" t="s">
         <v>434</v>
       </c>
-      <c r="C140" s="121" t="s">
+      <c r="C140" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="D140" s="121">
+      <c r="D140" s="119">
         <v>139</v>
       </c>
-      <c r="E140" s="122" t="s">
+      <c r="E140" s="120" t="s">
         <v>434</v>
       </c>
-      <c r="F140" s="121" t="s">
+      <c r="F140" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="G140" s="121" t="s">
+      <c r="G140" s="119" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="121"/>
-      <c r="B141" s="121" t="s">
+      <c r="A141" s="119"/>
+      <c r="B141" s="119" t="s">
         <v>435</v>
       </c>
-      <c r="C141" s="121" t="s">
+      <c r="C141" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="D141" s="121">
+      <c r="D141" s="119">
         <v>140</v>
       </c>
-      <c r="E141" s="122" t="s">
+      <c r="E141" s="120" t="s">
         <v>435</v>
       </c>
-      <c r="F141" s="121" t="s">
+      <c r="F141" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="G141" s="121" t="s">
+      <c r="G141" s="119" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="121"/>
-      <c r="B142" s="121" t="s">
+      <c r="A142" s="119"/>
+      <c r="B142" s="119" t="s">
         <v>436</v>
       </c>
-      <c r="C142" s="121" t="s">
+      <c r="C142" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="D142" s="121">
+      <c r="D142" s="119">
         <v>141</v>
       </c>
-      <c r="E142" s="122" t="s">
+      <c r="E142" s="120" t="s">
         <v>436</v>
       </c>
-      <c r="F142" s="121" t="s">
+      <c r="F142" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="G142" s="121" t="s">
+      <c r="G142" s="119" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="121"/>
-      <c r="B143" s="121" t="s">
+      <c r="A143" s="119"/>
+      <c r="B143" s="119" t="s">
         <v>437</v>
       </c>
-      <c r="C143" s="121" t="s">
+      <c r="C143" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="D143" s="121">
+      <c r="D143" s="119">
         <v>142</v>
       </c>
-      <c r="E143" s="122" t="s">
+      <c r="E143" s="120" t="s">
         <v>437</v>
       </c>
-      <c r="F143" s="121" t="s">
+      <c r="F143" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="G143" s="121" t="s">
+      <c r="G143" s="119" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="121"/>
-      <c r="B144" s="121" t="s">
+      <c r="A144" s="119"/>
+      <c r="B144" s="119" t="s">
         <v>438</v>
       </c>
-      <c r="C144" s="121" t="s">
+      <c r="C144" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="D144" s="121">
+      <c r="D144" s="119">
         <v>143</v>
       </c>
-      <c r="E144" s="122" t="s">
+      <c r="E144" s="120" t="s">
         <v>438</v>
       </c>
-      <c r="F144" s="121" t="s">
+      <c r="F144" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="G144" s="121" t="s">
+      <c r="G144" s="119" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="121"/>
-      <c r="B145" s="121" t="s">
+      <c r="A145" s="119"/>
+      <c r="B145" s="119" t="s">
         <v>439</v>
       </c>
-      <c r="C145" s="121" t="s">
+      <c r="C145" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="D145" s="121">
+      <c r="D145" s="119">
         <v>144</v>
       </c>
-      <c r="E145" s="122" t="s">
+      <c r="E145" s="120" t="s">
         <v>439</v>
       </c>
-      <c r="F145" s="121" t="s">
+      <c r="F145" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="G145" s="121" t="s">
+      <c r="G145" s="119" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="121"/>
-      <c r="B146" s="121" t="s">
+      <c r="A146" s="119"/>
+      <c r="B146" s="119" t="s">
         <v>440</v>
       </c>
-      <c r="C146" s="121" t="s">
+      <c r="C146" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="D146" s="121">
+      <c r="D146" s="119">
         <v>145</v>
       </c>
-      <c r="E146" s="122" t="s">
+      <c r="E146" s="120" t="s">
         <v>440</v>
       </c>
-      <c r="F146" s="121" t="s">
+      <c r="F146" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="G146" s="121" t="s">
+      <c r="G146" s="119" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="121"/>
-      <c r="B147" s="121" t="s">
+      <c r="A147" s="119"/>
+      <c r="B147" s="119" t="s">
         <v>441</v>
       </c>
-      <c r="C147" s="121" t="s">
+      <c r="C147" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="D147" s="121">
+      <c r="D147" s="119">
         <v>146</v>
       </c>
-      <c r="E147" s="122" t="s">
+      <c r="E147" s="120" t="s">
         <v>441</v>
       </c>
-      <c r="F147" s="121" t="s">
+      <c r="F147" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="G147" s="121" t="s">
+      <c r="G147" s="119" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="121"/>
-      <c r="B148" s="121" t="s">
+      <c r="A148" s="119"/>
+      <c r="B148" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="C148" s="121" t="s">
+      <c r="C148" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="D148" s="121">
+      <c r="D148" s="119">
         <v>147</v>
       </c>
-      <c r="E148" s="122" t="s">
+      <c r="E148" s="120" t="s">
         <v>442</v>
       </c>
-      <c r="F148" s="121" t="s">
+      <c r="F148" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="G148" s="121" t="s">
+      <c r="G148" s="119" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="121"/>
-      <c r="B149" s="121" t="s">
+      <c r="A149" s="119"/>
+      <c r="B149" s="119" t="s">
         <v>443</v>
       </c>
-      <c r="C149" s="121" t="s">
+      <c r="C149" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="D149" s="121">
+      <c r="D149" s="119">
         <v>148</v>
       </c>
-      <c r="E149" s="122" t="s">
+      <c r="E149" s="120" t="s">
         <v>443</v>
       </c>
-      <c r="F149" s="121" t="s">
+      <c r="F149" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="G149" s="121" t="s">
+      <c r="G149" s="119" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="121"/>
-      <c r="B150" s="121" t="s">
+      <c r="A150" s="119"/>
+      <c r="B150" s="119" t="s">
         <v>444</v>
       </c>
-      <c r="C150" s="121" t="s">
+      <c r="C150" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="D150" s="121">
+      <c r="D150" s="119">
         <v>149</v>
       </c>
-      <c r="E150" s="122" t="s">
+      <c r="E150" s="120" t="s">
         <v>444</v>
       </c>
-      <c r="F150" s="121" t="s">
+      <c r="F150" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="G150" s="121" t="s">
+      <c r="G150" s="119" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="122"/>
-      <c r="B151" s="122" t="s">
+      <c r="A151" s="120"/>
+      <c r="B151" s="120" t="s">
         <v>446</v>
       </c>
-      <c r="C151" s="122" t="s">
+      <c r="C151" s="120" t="s">
         <v>429</v>
       </c>
-      <c r="D151" s="122">
+      <c r="D151" s="120">
         <v>150</v>
       </c>
-      <c r="E151" s="122" t="s">
+      <c r="E151" s="120" t="s">
         <v>446</v>
       </c>
-      <c r="F151" s="122" t="s">
+      <c r="F151" s="120" t="s">
         <v>399</v>
       </c>
-      <c r="G151" s="122" t="s">
+      <c r="G151" s="120" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="123"/>
-      <c r="B152" s="123" t="s">
+      <c r="A152" s="121"/>
+      <c r="B152" s="121" t="s">
         <v>454</v>
       </c>
-      <c r="C152" s="123" t="s">
+      <c r="C152" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="D152" s="123">
+      <c r="D152" s="121">
         <v>151</v>
       </c>
-      <c r="E152" s="123" t="s">
+      <c r="E152" s="121" t="s">
         <v>454</v>
       </c>
-      <c r="F152" s="123" t="s">
+      <c r="F152" s="121" t="s">
         <v>399</v>
       </c>
-      <c r="G152" s="123" t="s">
+      <c r="G152" s="121" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="134"/>
-      <c r="B153" s="133" t="s">
+      <c r="A153" s="147"/>
+      <c r="B153" s="146" t="s">
         <v>459</v>
       </c>
       <c r="C153" s="132" t="s">
         <v>458</v>
       </c>
-      <c r="D153" s="125">
+      <c r="D153" s="123">
         <v>152</v>
       </c>
-      <c r="E153" s="128" t="s">
+      <c r="E153" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="F153" s="130" t="s">
+      <c r="F153" s="128" t="s">
         <v>460</v>
       </c>
-      <c r="G153" s="130" t="s">
+      <c r="G153" s="128" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="134"/>
-      <c r="B154" s="134"/>
+      <c r="A154" s="147"/>
+      <c r="B154" s="147"/>
       <c r="C154" s="132"/>
-      <c r="D154" s="125">
+      <c r="D154" s="123">
         <v>153</v>
       </c>
-      <c r="E154" s="129" t="s">
+      <c r="E154" s="127" t="s">
         <v>456</v>
       </c>
-      <c r="F154" s="130" t="s">
+      <c r="F154" s="128" t="s">
         <v>460</v>
       </c>
-      <c r="G154" s="130" t="s">
+      <c r="G154" s="128" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="134"/>
-      <c r="B155" s="134"/>
+      <c r="A155" s="147"/>
+      <c r="B155" s="147"/>
       <c r="C155" s="132"/>
-      <c r="D155" s="125">
+      <c r="D155" s="123">
         <v>154</v>
       </c>
-      <c r="E155" s="129" t="s">
+      <c r="E155" s="127" t="s">
         <v>457</v>
       </c>
-      <c r="F155" s="130" t="s">
+      <c r="F155" s="128" t="s">
         <v>460</v>
       </c>
-      <c r="G155" s="130" t="s">
+      <c r="G155" s="128" t="s">
         <v>460</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="C103:C105"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A103:A105"/>
@@ -7267,35 +7313,6 @@
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="B99:B101"/>
     <mergeCell ref="A99:A101"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7305,7 +7322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7315,338 +7332,338 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
-      <c r="B1" s="116" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="114" t="s">
         <v>359</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="117">
+      <c r="D1" s="115">
         <v>122</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="96" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="86" t="s">
         <v>341</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="86" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="102"/>
-      <c r="B2" s="116" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="114" t="s">
         <v>360</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="D2" s="117">
+      <c r="D2" s="115">
         <v>123</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="96" t="s">
         <v>338</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="F2" s="99" t="s">
         <v>341</v>
       </c>
-      <c r="G2" s="98" t="s">
+      <c r="G2" s="96" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="102"/>
-      <c r="B3" s="116" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="114" t="s">
         <v>361</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="115">
         <v>124</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="96" t="s">
         <v>339</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="86" t="s">
         <v>342</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="86" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="116" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="114" t="s">
         <v>362</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="117">
+      <c r="D4" s="115">
         <v>125</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="96" t="s">
         <v>339</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="86" t="s">
         <v>342</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="86" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="116" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="114" t="s">
         <v>363</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="115">
         <v>126</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="86" t="s">
         <v>343</v>
       </c>
-      <c r="G5" s="101" t="s">
+      <c r="G5" s="99" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="116" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="114" t="s">
         <v>364</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="D6" s="117">
+      <c r="D6" s="115">
         <v>127</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="F6" s="101" t="s">
+      <c r="F6" s="99" t="s">
         <v>343</v>
       </c>
-      <c r="G6" s="101" t="s">
+      <c r="G6" s="99" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="116" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="114" t="s">
         <v>365</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="D7" s="117">
+      <c r="D7" s="115">
         <v>128</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="99" t="s">
         <v>343</v>
       </c>
-      <c r="G7" s="101" t="s">
+      <c r="G7" s="99" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="102"/>
-      <c r="B8" s="116" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="114" t="s">
         <v>366</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="115">
         <v>129</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="99" t="s">
         <v>343</v>
       </c>
-      <c r="G8" s="101" t="s">
+      <c r="G8" s="99" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="102"/>
-      <c r="B9" s="116" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="114" t="s">
         <v>367</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="115">
         <v>130</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="96" t="s">
         <v>289</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="F9" s="86" t="s">
         <v>344</v>
       </c>
-      <c r="G9" s="101" t="s">
+      <c r="G9" s="99" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="102"/>
-      <c r="B10" s="116" t="s">
+      <c r="A10" s="100"/>
+      <c r="B10" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="D10" s="117">
+      <c r="D10" s="115">
         <v>131</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="96" t="s">
         <v>289</v>
       </c>
-      <c r="F10" s="101" t="s">
+      <c r="F10" s="99" t="s">
         <v>344</v>
       </c>
-      <c r="G10" s="101" t="s">
+      <c r="G10" s="99" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
-      <c r="B11" s="116" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="114" t="s">
         <v>369</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="D11" s="117">
+      <c r="D11" s="115">
         <v>132</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="96" t="s">
         <v>289</v>
       </c>
-      <c r="F11" s="101" t="s">
+      <c r="F11" s="99" t="s">
         <v>344</v>
       </c>
-      <c r="G11" s="101" t="s">
+      <c r="G11" s="99" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="116" t="s">
+      <c r="A12" s="100"/>
+      <c r="B12" s="114" t="s">
         <v>370</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="117">
+      <c r="D12" s="115">
         <v>133</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="96" t="s">
         <v>289</v>
       </c>
-      <c r="F12" s="101" t="s">
+      <c r="F12" s="99" t="s">
         <v>344</v>
       </c>
-      <c r="G12" s="101" t="s">
+      <c r="G12" s="99" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
-      <c r="B13" s="116" t="s">
+      <c r="A13" s="100"/>
+      <c r="B13" s="114" t="s">
         <v>372</v>
       </c>
-      <c r="C13" s="110" t="s">
+      <c r="C13" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="D13" s="117">
+      <c r="D13" s="115">
         <v>134</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="96" t="s">
         <v>290</v>
       </c>
-      <c r="F13" s="101" t="s">
+      <c r="F13" s="99" t="s">
         <v>345</v>
       </c>
-      <c r="G13" s="101" t="s">
+      <c r="G13" s="99" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="102"/>
-      <c r="B14" s="116" t="s">
+      <c r="A14" s="100"/>
+      <c r="B14" s="114" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="D14" s="117">
+      <c r="D14" s="115">
         <v>135</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="96" t="s">
         <v>290</v>
       </c>
-      <c r="F14" s="101" t="s">
+      <c r="F14" s="99" t="s">
         <v>345</v>
       </c>
-      <c r="G14" s="101" t="s">
+      <c r="G14" s="99" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="116" t="s">
+      <c r="A15" s="100"/>
+      <c r="B15" s="114" t="s">
         <v>374</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="115">
         <v>136</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="96" t="s">
         <v>290</v>
       </c>
-      <c r="F15" s="101" t="s">
+      <c r="F15" s="99" t="s">
         <v>345</v>
       </c>
-      <c r="G15" s="101" t="s">
+      <c r="G15" s="99" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="102"/>
-      <c r="B16" s="116" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="114" t="s">
         <v>371</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="D16" s="117">
+      <c r="D16" s="115">
         <v>137</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="96" t="s">
         <v>290</v>
       </c>
-      <c r="F16" s="101" t="s">
+      <c r="F16" s="99" t="s">
         <v>345</v>
       </c>
-      <c r="G16" s="101" t="s">
+      <c r="G16" s="99" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7657,7 +7674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView topLeftCell="B29" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -7686,7 +7703,7 @@
       <c r="B2" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="55" t="s">
         <v>260</v>
       </c>
     </row>
@@ -7837,7 +7854,7 @@
       <c r="A16" s="33">
         <v>14</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="43" t="s">
         <v>184</v>
       </c>
       <c r="C16" s="33" t="s">
@@ -7848,7 +7865,7 @@
       <c r="A17" s="33">
         <v>15</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="54" t="s">
         <v>240</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -7859,7 +7876,7 @@
       <c r="A18" s="33">
         <v>16</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="54" t="s">
         <v>241</v>
       </c>
       <c r="C18" s="34" t="s">
@@ -7870,7 +7887,7 @@
       <c r="A19" s="33">
         <v>17</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="54" t="s">
         <v>242</v>
       </c>
       <c r="C19" s="34" t="s">
@@ -7881,7 +7898,7 @@
       <c r="A20" s="33">
         <v>18</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="54" t="s">
         <v>243</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -7892,7 +7909,7 @@
       <c r="A21" s="33">
         <v>19</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="54" t="s">
         <v>244</v>
       </c>
       <c r="C21" s="34" t="s">
@@ -7903,7 +7920,7 @@
       <c r="A22" s="33">
         <v>20</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="43" t="s">
         <v>185</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -7914,7 +7931,7 @@
       <c r="A23" s="33">
         <v>21</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="43" t="s">
         <v>186</v>
       </c>
       <c r="C23" s="33" t="s">
@@ -7925,7 +7942,7 @@
       <c r="A24" s="33">
         <v>22</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="43" t="s">
         <v>189</v>
       </c>
       <c r="C24" s="34" t="s">
@@ -7936,7 +7953,7 @@
       <c r="A25" s="33">
         <v>23</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="54" t="s">
         <v>251</v>
       </c>
       <c r="C25" s="34" t="s">
@@ -7947,7 +7964,7 @@
       <c r="A26" s="33">
         <v>24</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="54" t="s">
         <v>252</v>
       </c>
       <c r="C26" s="34" t="s">
@@ -7958,7 +7975,7 @@
       <c r="A27" s="33">
         <v>25</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="54" t="s">
         <v>253</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -7969,7 +7986,7 @@
       <c r="A28" s="33">
         <v>26</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="54" t="s">
         <v>254</v>
       </c>
       <c r="C28" s="34" t="s">
@@ -7980,7 +7997,7 @@
       <c r="A29" s="33">
         <v>27</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="54" t="s">
         <v>255</v>
       </c>
       <c r="C29" s="34" t="s">
@@ -7991,7 +8008,7 @@
       <c r="A30" s="33">
         <v>28</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="50" t="s">
         <v>219</v>
       </c>
       <c r="C30" s="34" t="s">
@@ -8002,7 +8019,7 @@
       <c r="A31" s="33">
         <v>29</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="53" t="s">
         <v>234</v>
       </c>
       <c r="C31" s="34" t="s">
@@ -8013,7 +8030,7 @@
       <c r="A32" s="33">
         <v>30</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="53" t="s">
         <v>235</v>
       </c>
       <c r="C32" s="34" t="s">
@@ -8024,7 +8041,7 @@
       <c r="A33" s="33">
         <v>31</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="53" t="s">
         <v>265</v>
       </c>
       <c r="C33" s="34" t="s">
@@ -8035,7 +8052,7 @@
       <c r="A34" s="33">
         <v>32</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="53" t="s">
         <v>233</v>
       </c>
       <c r="C34" s="33" t="s">
@@ -8046,7 +8063,7 @@
       <c r="A35" s="33">
         <v>33</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="53" t="s">
         <v>236</v>
       </c>
       <c r="C35" s="34" t="s">
@@ -8057,7 +8074,7 @@
       <c r="A36" s="33">
         <v>34</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="53" t="s">
         <v>266</v>
       </c>
       <c r="C36" s="34" t="s">
@@ -8068,7 +8085,7 @@
       <c r="A37" s="33">
         <v>35</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="57" t="s">
         <v>261</v>
       </c>
       <c r="C37" s="34" t="s">
@@ -8079,7 +8096,7 @@
       <c r="A38" s="33">
         <v>36</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="57" t="s">
         <v>263</v>
       </c>
       <c r="C38" s="34" t="s">
@@ -8090,7 +8107,7 @@
       <c r="A39" s="33">
         <v>37</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="57" t="s">
         <v>355</v>
       </c>
       <c r="C39" s="34" t="s">
@@ -8101,7 +8118,7 @@
       <c r="A40" s="33">
         <v>38</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="57" t="s">
         <v>356</v>
       </c>
       <c r="C40" s="34" t="s">
@@ -8116,7 +8133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8188,7 +8205,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="40" t="s">
         <v>171</v>
       </c>
       <c r="B5" s="34" t="s">
@@ -8202,7 +8219,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="40" t="s">
         <v>172</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -8216,7 +8233,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="40" t="s">
         <v>173</v>
       </c>
       <c r="B7" s="34" t="s">
@@ -8237,7 +8254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8750,7 +8767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
@@ -9026,7 +9043,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="95" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="17">
@@ -9206,7 +9223,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="90" t="s">
         <v>94</v>
       </c>
       <c r="B23" s="17">
@@ -9226,7 +9243,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="90" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="17">
@@ -9306,7 +9323,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="72" t="s">
         <v>121</v>
       </c>
       <c r="B28" s="17">
@@ -9446,7 +9463,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="49" t="s">
         <v>176</v>
       </c>
       <c r="B35" s="17">
@@ -9466,7 +9483,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="42" t="s">
         <v>177</v>
       </c>
       <c r="B36" s="17">
@@ -9486,7 +9503,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="41" t="s">
         <v>169</v>
       </c>
       <c r="B37" s="17">
@@ -9506,7 +9523,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="42" t="s">
         <v>180</v>
       </c>
       <c r="B38" s="17">
@@ -9526,7 +9543,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="41" t="s">
         <v>181</v>
       </c>
       <c r="B39" s="17">
@@ -9606,7 +9623,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="41" t="s">
         <v>182</v>
       </c>
       <c r="B43" s="17">
@@ -9626,7 +9643,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="41" t="s">
         <v>183</v>
       </c>
       <c r="B44" s="17">
@@ -9646,7 +9663,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="45" t="s">
         <v>190</v>
       </c>
       <c r="B45" s="17">
@@ -9666,7 +9683,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="45" t="s">
         <v>191</v>
       </c>
       <c r="B46" s="17">
@@ -9686,7 +9703,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="87" t="s">
+      <c r="A47" s="85" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="17">
@@ -9706,7 +9723,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="87" t="s">
         <v>337</v>
       </c>
       <c r="B48" s="17">
@@ -9726,7 +9743,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="103" t="s">
+      <c r="A49" s="101" t="s">
         <v>336</v>
       </c>
       <c r="B49" s="17">
@@ -9746,7 +9763,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="86" t="s">
+      <c r="A50" s="84" t="s">
         <v>312</v>
       </c>
       <c r="B50" s="17">
@@ -9766,7 +9783,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="86" t="s">
+      <c r="A51" s="84" t="s">
         <v>313</v>
       </c>
       <c r="B51" s="17">
@@ -9786,7 +9803,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="86" t="s">
+      <c r="A52" s="84" t="s">
         <v>314</v>
       </c>
       <c r="B52" s="17">
@@ -9806,7 +9823,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="86" t="s">
+      <c r="A53" s="84" t="s">
         <v>315</v>
       </c>
       <c r="B53" s="17">
@@ -9826,7 +9843,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="86" t="s">
+      <c r="A54" s="84" t="s">
         <v>316</v>
       </c>
       <c r="B54" s="17">
@@ -9846,7 +9863,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="86" t="s">
+      <c r="A55" s="84" t="s">
         <v>317</v>
       </c>
       <c r="B55" s="17">
@@ -9866,7 +9883,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="86" t="s">
+      <c r="A56" s="84" t="s">
         <v>318</v>
       </c>
       <c r="B56" s="17">
@@ -9886,7 +9903,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="84" t="s">
         <v>319</v>
       </c>
       <c r="B57" s="17">
@@ -9906,7 +9923,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="86" t="s">
+      <c r="A58" s="84" t="s">
         <v>320</v>
       </c>
       <c r="B58" s="17">
@@ -9926,7 +9943,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="86" t="s">
+      <c r="A59" s="84" t="s">
         <v>321</v>
       </c>
       <c r="B59" s="17">
@@ -9946,7 +9963,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="86" t="s">
+      <c r="A60" s="84" t="s">
         <v>322</v>
       </c>
       <c r="B60" s="17">
@@ -9966,7 +9983,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="86" t="s">
+      <c r="A61" s="84" t="s">
         <v>323</v>
       </c>
       <c r="B61" s="17">
@@ -9986,7 +10003,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="86" t="s">
+      <c r="A62" s="84" t="s">
         <v>324</v>
       </c>
       <c r="B62" s="17">
@@ -10006,7 +10023,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="86" t="s">
+      <c r="A63" s="84" t="s">
         <v>325</v>
       </c>
       <c r="B63" s="17">
@@ -10026,7 +10043,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="86" t="s">
+      <c r="A64" s="84" t="s">
         <v>326</v>
       </c>
       <c r="B64" s="17">
@@ -10046,7 +10063,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="86" t="s">
+      <c r="A65" s="84" t="s">
         <v>331</v>
       </c>
       <c r="B65" s="17">
@@ -10066,7 +10083,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="86" t="s">
+      <c r="A66" s="84" t="s">
         <v>332</v>
       </c>
       <c r="B66" s="17">
@@ -10086,7 +10103,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="86" t="s">
+      <c r="A67" s="84" t="s">
         <v>327</v>
       </c>
       <c r="B67" s="17">
@@ -10106,7 +10123,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="86" t="s">
+      <c r="A68" s="84" t="s">
         <v>328</v>
       </c>
       <c r="B68" s="17">
@@ -10126,7 +10143,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="86" t="s">
+      <c r="A69" s="84" t="s">
         <v>329</v>
       </c>
       <c r="B69" s="17">
@@ -10146,7 +10163,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="86" t="s">
+      <c r="A70" s="84" t="s">
         <v>330</v>
       </c>
       <c r="B70" s="17">
@@ -10166,7 +10183,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="86" t="s">
+      <c r="A71" s="84" t="s">
         <v>333</v>
       </c>
       <c r="B71" s="17">
@@ -10186,7 +10203,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="86" t="s">
+      <c r="A72" s="84" t="s">
         <v>334</v>
       </c>
       <c r="B72" s="17">
@@ -10206,7 +10223,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="86" t="s">
+      <c r="A73" s="84" t="s">
         <v>335</v>
       </c>
       <c r="B73" s="17">
@@ -10226,7 +10243,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="51" t="s">
         <v>223</v>
       </c>
       <c r="B74" s="17">
@@ -10246,7 +10263,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="51" t="s">
         <v>224</v>
       </c>
       <c r="B75" s="17">
@@ -10266,7 +10283,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="53" t="s">
+      <c r="A76" s="51" t="s">
         <v>225</v>
       </c>
       <c r="B76" s="17">
@@ -10286,7 +10303,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="83" t="s">
         <v>311</v>
       </c>
       <c r="B77" s="17">
@@ -10306,7 +10323,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="126" t="s">
+      <c r="A78" s="124" t="s">
         <v>168</v>
       </c>
       <c r="B78" s="16">
@@ -10329,7 +10346,7 @@
       <c r="A79" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="B79" s="127">
+      <c r="B79" s="125">
         <v>5</v>
       </c>
       <c r="C79" s="17">
@@ -10349,7 +10366,7 @@
       <c r="A80" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="B80" s="127">
+      <c r="B80" s="125">
         <v>5</v>
       </c>
       <c r="C80" s="17">
@@ -10373,7 +10390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="82" workbookViewId="0">
@@ -10490,67 +10507,67 @@
       <c r="A2" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="70" t="s">
         <v>215</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="106" t="s">
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="O2" s="106" t="s">
+      <c r="O2" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="P2" s="106" t="s">
+      <c r="P2" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="Q2" s="106" t="s">
+      <c r="Q2" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="R2" s="106" t="s">
+      <c r="R2" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="S2" s="106" t="s">
+      <c r="S2" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="T2" s="106" t="s">
+      <c r="T2" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="U2" s="106" t="s">
+      <c r="U2" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="V2" s="106" t="s">
+      <c r="V2" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="W2" s="106" t="s">
+      <c r="W2" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="X2" s="106" t="s">
+      <c r="X2" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="Y2" s="106" t="s">
+      <c r="Y2" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="Z2" s="106" t="s">
+      <c r="Z2" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="AA2" s="106" t="s">
+      <c r="AA2" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="AB2" s="106" t="s">
+      <c r="AB2" s="104" t="s">
         <v>200</v>
       </c>
     </row>
@@ -10558,10 +10575,10 @@
       <c r="A3" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="70" t="s">
         <v>218</v>
       </c>
       <c r="D3" s="33" t="s">
@@ -10638,10 +10655,10 @@
       <c r="A4" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="70" t="s">
         <v>293</v>
       </c>
       <c r="D4" s="18"/>
@@ -10658,10 +10675,10 @@
       <c r="A5" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="70" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="70" t="s">
         <v>294</v>
       </c>
       <c r="D5" s="18"/>
@@ -10678,10 +10695,10 @@
       <c r="A6" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="70" t="s">
         <v>340</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="70" t="s">
         <v>295</v>
       </c>
       <c r="D6" s="18"/>
@@ -10694,78 +10711,78 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:28" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+    <row r="7" spans="1:28" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="91" t="s">
         <v>348</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="94" t="s">
         <v>402</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="94" t="s">
         <v>386</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="105">
-        <v>0</v>
-      </c>
-      <c r="F7" s="94">
-        <v>0</v>
-      </c>
-      <c r="G7" s="94">
-        <v>0</v>
-      </c>
-      <c r="H7" s="94">
-        <v>0</v>
-      </c>
-      <c r="I7" s="105">
-        <v>0</v>
-      </c>
-      <c r="J7" s="94">
-        <v>0</v>
-      </c>
-      <c r="K7" s="94">
-        <v>0</v>
-      </c>
-      <c r="L7" s="94">
-        <v>1</v>
-      </c>
-      <c r="M7" s="104">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="104">
-        <v>0</v>
-      </c>
-      <c r="R7" s="95">
-        <v>0</v>
-      </c>
-      <c r="S7" s="95">
-        <v>0</v>
-      </c>
-      <c r="T7" s="95">
-        <v>0</v>
-      </c>
-      <c r="U7" s="104">
-        <v>0</v>
-      </c>
-      <c r="V7" s="95">
-        <v>0</v>
-      </c>
-      <c r="W7" s="95">
-        <v>0</v>
-      </c>
-      <c r="X7" s="95">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="104">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="95">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="95">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="95">
+      <c r="D7" s="92"/>
+      <c r="E7" s="103">
+        <v>0</v>
+      </c>
+      <c r="F7" s="92">
+        <v>0</v>
+      </c>
+      <c r="G7" s="92">
+        <v>0</v>
+      </c>
+      <c r="H7" s="92">
+        <v>0</v>
+      </c>
+      <c r="I7" s="103">
+        <v>0</v>
+      </c>
+      <c r="J7" s="92">
+        <v>0</v>
+      </c>
+      <c r="K7" s="92">
+        <v>0</v>
+      </c>
+      <c r="L7" s="92">
+        <v>1</v>
+      </c>
+      <c r="M7" s="102">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="102">
+        <v>0</v>
+      </c>
+      <c r="R7" s="93">
+        <v>0</v>
+      </c>
+      <c r="S7" s="93">
+        <v>0</v>
+      </c>
+      <c r="T7" s="93">
+        <v>0</v>
+      </c>
+      <c r="U7" s="102">
+        <v>0</v>
+      </c>
+      <c r="V7" s="93">
+        <v>0</v>
+      </c>
+      <c r="W7" s="93">
+        <v>0</v>
+      </c>
+      <c r="X7" s="93">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="102">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="93">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="93">
         <v>1</v>
       </c>
     </row>
@@ -10773,77 +10790,77 @@
       <c r="A8" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="94" t="s">
         <v>402</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="94" t="s">
         <v>387</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="105">
-        <v>0</v>
-      </c>
-      <c r="F8" s="94">
-        <v>0</v>
-      </c>
-      <c r="G8" s="94">
-        <v>0</v>
-      </c>
-      <c r="H8" s="94">
-        <v>0</v>
-      </c>
-      <c r="I8" s="105">
-        <v>0</v>
-      </c>
-      <c r="J8" s="94">
-        <v>0</v>
-      </c>
-      <c r="K8" s="94">
-        <v>1</v>
-      </c>
-      <c r="L8" s="94">
-        <v>0</v>
-      </c>
-      <c r="M8" s="104">
-        <v>1</v>
-      </c>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="104">
-        <v>0</v>
-      </c>
-      <c r="R8" s="95">
-        <v>0</v>
-      </c>
-      <c r="S8" s="95">
-        <v>0</v>
-      </c>
-      <c r="T8" s="95">
-        <v>0</v>
-      </c>
-      <c r="U8" s="104">
-        <v>0</v>
-      </c>
-      <c r="V8" s="95">
-        <v>0</v>
-      </c>
-      <c r="W8" s="95">
-        <v>0</v>
-      </c>
-      <c r="X8" s="95">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="104">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="95">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="95">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="95">
+      <c r="E8" s="103">
+        <v>0</v>
+      </c>
+      <c r="F8" s="92">
+        <v>0</v>
+      </c>
+      <c r="G8" s="92">
+        <v>0</v>
+      </c>
+      <c r="H8" s="92">
+        <v>0</v>
+      </c>
+      <c r="I8" s="103">
+        <v>0</v>
+      </c>
+      <c r="J8" s="92">
+        <v>0</v>
+      </c>
+      <c r="K8" s="92">
+        <v>1</v>
+      </c>
+      <c r="L8" s="92">
+        <v>0</v>
+      </c>
+      <c r="M8" s="102">
+        <v>1</v>
+      </c>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="102">
+        <v>0</v>
+      </c>
+      <c r="R8" s="93">
+        <v>0</v>
+      </c>
+      <c r="S8" s="93">
+        <v>0</v>
+      </c>
+      <c r="T8" s="93">
+        <v>0</v>
+      </c>
+      <c r="U8" s="102">
+        <v>0</v>
+      </c>
+      <c r="V8" s="93">
+        <v>0</v>
+      </c>
+      <c r="W8" s="93">
+        <v>0</v>
+      </c>
+      <c r="X8" s="93">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="102">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="93">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="93">
         <v>1</v>
       </c>
     </row>
@@ -10851,79 +10868,79 @@
       <c r="A9" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="94" t="s">
         <v>402</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="94" t="s">
         <v>385</v>
       </c>
       <c r="D9" s="18">
         <v>294947</v>
       </c>
-      <c r="E9" s="105">
-        <v>0</v>
-      </c>
-      <c r="F9" s="94">
-        <v>0</v>
-      </c>
-      <c r="G9" s="94">
-        <v>0</v>
-      </c>
-      <c r="H9" s="94">
-        <v>0</v>
-      </c>
-      <c r="I9" s="105">
-        <v>0</v>
-      </c>
-      <c r="J9" s="94">
-        <v>1</v>
-      </c>
-      <c r="K9" s="94">
-        <v>0</v>
-      </c>
-      <c r="L9" s="94">
-        <v>0</v>
-      </c>
-      <c r="M9" s="104">
-        <v>1</v>
-      </c>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="104">
-        <v>0</v>
-      </c>
-      <c r="R9" s="95">
-        <v>0</v>
-      </c>
-      <c r="S9" s="95">
-        <v>0</v>
-      </c>
-      <c r="T9" s="95">
-        <v>0</v>
-      </c>
-      <c r="U9" s="104">
-        <v>0</v>
-      </c>
-      <c r="V9" s="95">
-        <v>0</v>
-      </c>
-      <c r="W9" s="95">
-        <v>1</v>
-      </c>
-      <c r="X9" s="95">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="104">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="95">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="95">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="95">
+      <c r="E9" s="103">
+        <v>0</v>
+      </c>
+      <c r="F9" s="92">
+        <v>0</v>
+      </c>
+      <c r="G9" s="92">
+        <v>0</v>
+      </c>
+      <c r="H9" s="92">
+        <v>0</v>
+      </c>
+      <c r="I9" s="103">
+        <v>0</v>
+      </c>
+      <c r="J9" s="92">
+        <v>1</v>
+      </c>
+      <c r="K9" s="92">
+        <v>0</v>
+      </c>
+      <c r="L9" s="92">
+        <v>0</v>
+      </c>
+      <c r="M9" s="102">
+        <v>1</v>
+      </c>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="102">
+        <v>0</v>
+      </c>
+      <c r="R9" s="93">
+        <v>0</v>
+      </c>
+      <c r="S9" s="93">
+        <v>0</v>
+      </c>
+      <c r="T9" s="93">
+        <v>0</v>
+      </c>
+      <c r="U9" s="102">
+        <v>0</v>
+      </c>
+      <c r="V9" s="93">
+        <v>0</v>
+      </c>
+      <c r="W9" s="93">
+        <v>1</v>
+      </c>
+      <c r="X9" s="93">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="102">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="93">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="93">
         <v>1</v>
       </c>
     </row>
@@ -10931,79 +10948,79 @@
       <c r="A10" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="94" t="s">
         <v>402</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="70" t="s">
         <v>382</v>
       </c>
       <c r="D10" s="18">
         <v>557315</v>
       </c>
-      <c r="E10" s="105">
-        <v>0</v>
-      </c>
-      <c r="F10" s="94">
-        <v>0</v>
-      </c>
-      <c r="G10" s="94">
-        <v>0</v>
-      </c>
-      <c r="H10" s="94">
-        <v>0</v>
-      </c>
-      <c r="I10" s="105">
-        <v>1</v>
-      </c>
-      <c r="J10" s="94">
-        <v>0</v>
-      </c>
-      <c r="K10" s="94">
-        <v>0</v>
-      </c>
-      <c r="L10" s="94">
-        <v>0</v>
-      </c>
-      <c r="M10" s="104">
-        <v>1</v>
-      </c>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="104">
-        <v>0</v>
-      </c>
-      <c r="R10" s="95">
-        <v>0</v>
-      </c>
-      <c r="S10" s="95">
-        <v>0</v>
-      </c>
-      <c r="T10" s="95">
-        <v>1</v>
-      </c>
-      <c r="U10" s="104">
-        <v>0</v>
-      </c>
-      <c r="V10" s="95">
-        <v>0</v>
-      </c>
-      <c r="W10" s="95">
-        <v>0</v>
-      </c>
-      <c r="X10" s="95">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="104">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="95">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="95">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="95">
+      <c r="E10" s="103">
+        <v>0</v>
+      </c>
+      <c r="F10" s="92">
+        <v>0</v>
+      </c>
+      <c r="G10" s="92">
+        <v>0</v>
+      </c>
+      <c r="H10" s="92">
+        <v>0</v>
+      </c>
+      <c r="I10" s="103">
+        <v>1</v>
+      </c>
+      <c r="J10" s="92">
+        <v>0</v>
+      </c>
+      <c r="K10" s="92">
+        <v>0</v>
+      </c>
+      <c r="L10" s="92">
+        <v>0</v>
+      </c>
+      <c r="M10" s="102">
+        <v>1</v>
+      </c>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="102">
+        <v>0</v>
+      </c>
+      <c r="R10" s="93">
+        <v>0</v>
+      </c>
+      <c r="S10" s="93">
+        <v>0</v>
+      </c>
+      <c r="T10" s="93">
+        <v>1</v>
+      </c>
+      <c r="U10" s="102">
+        <v>0</v>
+      </c>
+      <c r="V10" s="93">
+        <v>0</v>
+      </c>
+      <c r="W10" s="93">
+        <v>0</v>
+      </c>
+      <c r="X10" s="93">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="102">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="93">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="93">
         <v>1</v>
       </c>
     </row>
@@ -11011,79 +11028,79 @@
       <c r="A11" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="94" t="s">
         <v>402</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="70" t="s">
         <v>383</v>
       </c>
       <c r="D11" s="18">
         <v>1081603</v>
       </c>
-      <c r="E11" s="105">
-        <v>0</v>
-      </c>
-      <c r="F11" s="94">
-        <v>0</v>
-      </c>
-      <c r="G11" s="94">
-        <v>0</v>
-      </c>
-      <c r="H11" s="94">
-        <v>0</v>
-      </c>
-      <c r="I11" s="105">
-        <v>0</v>
-      </c>
-      <c r="J11" s="94">
-        <v>0</v>
-      </c>
-      <c r="K11" s="94">
-        <v>0</v>
-      </c>
-      <c r="L11" s="94">
-        <v>0</v>
-      </c>
-      <c r="M11" s="104">
-        <v>1</v>
-      </c>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="104">
-        <v>0</v>
-      </c>
-      <c r="R11" s="95">
-        <v>0</v>
-      </c>
-      <c r="S11" s="95">
-        <v>0</v>
-      </c>
-      <c r="T11" s="95">
-        <v>0</v>
-      </c>
-      <c r="U11" s="104">
-        <v>0</v>
-      </c>
-      <c r="V11" s="95">
-        <v>0</v>
-      </c>
-      <c r="W11" s="95">
-        <v>0</v>
-      </c>
-      <c r="X11" s="95">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="104">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="95">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="95">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="95">
+      <c r="E11" s="103">
+        <v>0</v>
+      </c>
+      <c r="F11" s="92">
+        <v>0</v>
+      </c>
+      <c r="G11" s="92">
+        <v>0</v>
+      </c>
+      <c r="H11" s="92">
+        <v>0</v>
+      </c>
+      <c r="I11" s="103">
+        <v>0</v>
+      </c>
+      <c r="J11" s="92">
+        <v>0</v>
+      </c>
+      <c r="K11" s="92">
+        <v>0</v>
+      </c>
+      <c r="L11" s="92">
+        <v>0</v>
+      </c>
+      <c r="M11" s="102">
+        <v>1</v>
+      </c>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="102">
+        <v>0</v>
+      </c>
+      <c r="R11" s="93">
+        <v>0</v>
+      </c>
+      <c r="S11" s="93">
+        <v>0</v>
+      </c>
+      <c r="T11" s="93">
+        <v>0</v>
+      </c>
+      <c r="U11" s="102">
+        <v>0</v>
+      </c>
+      <c r="V11" s="93">
+        <v>0</v>
+      </c>
+      <c r="W11" s="93">
+        <v>0</v>
+      </c>
+      <c r="X11" s="93">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="102">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="93">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="93">
         <v>1</v>
       </c>
     </row>
@@ -11091,79 +11108,79 @@
       <c r="A12" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="94" t="s">
         <v>402</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="94" t="s">
         <v>388</v>
       </c>
       <c r="D12" s="33">
         <v>2130019</v>
       </c>
-      <c r="E12" s="105">
-        <v>0</v>
-      </c>
-      <c r="F12" s="94">
-        <v>0</v>
-      </c>
-      <c r="G12" s="94">
-        <v>1</v>
-      </c>
-      <c r="H12" s="94">
-        <v>0</v>
-      </c>
-      <c r="I12" s="105">
-        <v>0</v>
-      </c>
-      <c r="J12" s="94">
-        <v>0</v>
-      </c>
-      <c r="K12" s="94">
-        <v>0</v>
-      </c>
-      <c r="L12" s="94">
-        <v>0</v>
-      </c>
-      <c r="M12" s="104">
-        <v>1</v>
-      </c>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="104">
-        <v>0</v>
-      </c>
-      <c r="R12" s="95">
-        <v>0</v>
-      </c>
-      <c r="S12" s="95">
-        <v>0</v>
-      </c>
-      <c r="T12" s="95">
-        <v>0</v>
-      </c>
-      <c r="U12" s="104">
-        <v>0</v>
-      </c>
-      <c r="V12" s="95">
-        <v>1</v>
-      </c>
-      <c r="W12" s="95">
-        <v>1</v>
-      </c>
-      <c r="X12" s="95">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="104">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="95">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="95">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="95">
+      <c r="E12" s="103">
+        <v>0</v>
+      </c>
+      <c r="F12" s="92">
+        <v>0</v>
+      </c>
+      <c r="G12" s="92">
+        <v>1</v>
+      </c>
+      <c r="H12" s="92">
+        <v>0</v>
+      </c>
+      <c r="I12" s="103">
+        <v>0</v>
+      </c>
+      <c r="J12" s="92">
+        <v>0</v>
+      </c>
+      <c r="K12" s="92">
+        <v>0</v>
+      </c>
+      <c r="L12" s="92">
+        <v>0</v>
+      </c>
+      <c r="M12" s="102">
+        <v>1</v>
+      </c>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="102">
+        <v>0</v>
+      </c>
+      <c r="R12" s="93">
+        <v>0</v>
+      </c>
+      <c r="S12" s="93">
+        <v>0</v>
+      </c>
+      <c r="T12" s="93">
+        <v>0</v>
+      </c>
+      <c r="U12" s="102">
+        <v>0</v>
+      </c>
+      <c r="V12" s="93">
+        <v>1</v>
+      </c>
+      <c r="W12" s="93">
+        <v>1</v>
+      </c>
+      <c r="X12" s="93">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="102">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="93">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="93">
         <v>1</v>
       </c>
     </row>
@@ -11171,79 +11188,79 @@
       <c r="A13" s="33" t="s">
         <v>351</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="94" t="s">
         <v>402</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="94" t="s">
         <v>384</v>
       </c>
       <c r="D13" s="18">
         <v>2130947</v>
       </c>
-      <c r="E13" s="105">
-        <v>0</v>
-      </c>
-      <c r="F13" s="94">
-        <v>0</v>
-      </c>
-      <c r="G13" s="94">
-        <v>0</v>
-      </c>
-      <c r="H13" s="94">
-        <v>0</v>
-      </c>
-      <c r="I13" s="105">
-        <v>0</v>
-      </c>
-      <c r="J13" s="94">
-        <v>0</v>
-      </c>
-      <c r="K13" s="94">
-        <v>0</v>
-      </c>
-      <c r="L13" s="94">
-        <v>0</v>
-      </c>
-      <c r="M13" s="104">
-        <v>1</v>
-      </c>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="104">
-        <v>0</v>
-      </c>
-      <c r="R13" s="95">
-        <v>1</v>
-      </c>
-      <c r="S13" s="95">
-        <v>0</v>
-      </c>
-      <c r="T13" s="95">
-        <v>0</v>
-      </c>
-      <c r="U13" s="104">
-        <v>0</v>
-      </c>
-      <c r="V13" s="95">
-        <v>0</v>
-      </c>
-      <c r="W13" s="95">
-        <v>0</v>
-      </c>
-      <c r="X13" s="95">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="104">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="95">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="95">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="95">
+      <c r="E13" s="103">
+        <v>0</v>
+      </c>
+      <c r="F13" s="92">
+        <v>0</v>
+      </c>
+      <c r="G13" s="92">
+        <v>0</v>
+      </c>
+      <c r="H13" s="92">
+        <v>0</v>
+      </c>
+      <c r="I13" s="103">
+        <v>0</v>
+      </c>
+      <c r="J13" s="92">
+        <v>0</v>
+      </c>
+      <c r="K13" s="92">
+        <v>0</v>
+      </c>
+      <c r="L13" s="92">
+        <v>0</v>
+      </c>
+      <c r="M13" s="102">
+        <v>1</v>
+      </c>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="102">
+        <v>0</v>
+      </c>
+      <c r="R13" s="93">
+        <v>1</v>
+      </c>
+      <c r="S13" s="93">
+        <v>0</v>
+      </c>
+      <c r="T13" s="93">
+        <v>0</v>
+      </c>
+      <c r="U13" s="102">
+        <v>0</v>
+      </c>
+      <c r="V13" s="93">
+        <v>0</v>
+      </c>
+      <c r="W13" s="93">
+        <v>0</v>
+      </c>
+      <c r="X13" s="93">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="102">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="93">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="93">
         <v>1</v>
       </c>
     </row>
@@ -11251,79 +11268,79 @@
       <c r="A14" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="94" t="s">
         <v>452</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="70" t="s">
         <v>394</v>
       </c>
       <c r="D14" s="33">
         <v>2059</v>
       </c>
-      <c r="E14" s="105">
-        <v>0</v>
-      </c>
-      <c r="F14" s="94">
-        <v>0</v>
-      </c>
-      <c r="G14" s="94">
-        <v>1</v>
-      </c>
-      <c r="H14" s="94">
-        <v>0</v>
-      </c>
-      <c r="I14" s="105">
-        <v>0</v>
-      </c>
-      <c r="J14" s="94">
-        <v>0</v>
-      </c>
-      <c r="K14" s="94">
-        <v>0</v>
-      </c>
-      <c r="L14" s="94">
-        <v>0</v>
-      </c>
-      <c r="M14" s="104">
-        <v>0</v>
-      </c>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="104">
-        <v>1</v>
-      </c>
-      <c r="R14" s="95">
-        <v>0</v>
-      </c>
-      <c r="S14" s="95">
-        <v>0</v>
-      </c>
-      <c r="T14" s="95">
-        <v>0</v>
-      </c>
-      <c r="U14" s="104">
-        <v>0</v>
-      </c>
-      <c r="V14" s="95">
-        <v>0</v>
-      </c>
-      <c r="W14" s="95">
-        <v>0</v>
-      </c>
-      <c r="X14" s="95">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="104">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="95">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="95">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="95">
+      <c r="E14" s="103">
+        <v>0</v>
+      </c>
+      <c r="F14" s="92">
+        <v>0</v>
+      </c>
+      <c r="G14" s="92">
+        <v>1</v>
+      </c>
+      <c r="H14" s="92">
+        <v>0</v>
+      </c>
+      <c r="I14" s="103">
+        <v>0</v>
+      </c>
+      <c r="J14" s="92">
+        <v>0</v>
+      </c>
+      <c r="K14" s="92">
+        <v>0</v>
+      </c>
+      <c r="L14" s="92">
+        <v>0</v>
+      </c>
+      <c r="M14" s="102">
+        <v>0</v>
+      </c>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="102">
+        <v>1</v>
+      </c>
+      <c r="R14" s="93">
+        <v>0</v>
+      </c>
+      <c r="S14" s="93">
+        <v>0</v>
+      </c>
+      <c r="T14" s="93">
+        <v>0</v>
+      </c>
+      <c r="U14" s="102">
+        <v>0</v>
+      </c>
+      <c r="V14" s="93">
+        <v>0</v>
+      </c>
+      <c r="W14" s="93">
+        <v>0</v>
+      </c>
+      <c r="X14" s="93">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="102">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="93">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="93">
         <v>1</v>
       </c>
     </row>
@@ -11331,81 +11348,81 @@
       <c r="A15" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="94" t="s">
         <v>452</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="70" t="s">
         <v>395</v>
       </c>
       <c r="D15" s="33">
         <v>8451</v>
       </c>
-      <c r="E15" s="105">
-        <v>0</v>
-      </c>
-      <c r="F15" s="94">
-        <v>0</v>
-      </c>
-      <c r="G15" s="94">
-        <v>0</v>
-      </c>
-      <c r="H15" s="94">
-        <v>0</v>
-      </c>
-      <c r="I15" s="105">
-        <v>0</v>
-      </c>
-      <c r="J15" s="94">
-        <v>0</v>
-      </c>
-      <c r="K15" s="94">
-        <v>0</v>
-      </c>
-      <c r="L15" s="94">
-        <v>0</v>
-      </c>
-      <c r="M15" s="104">
-        <v>1</v>
-      </c>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95">
-        <v>1</v>
-      </c>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="104">
-        <v>0</v>
-      </c>
-      <c r="R15" s="95">
-        <v>0</v>
-      </c>
-      <c r="S15" s="95">
-        <v>0</v>
-      </c>
-      <c r="T15" s="95">
-        <v>1</v>
-      </c>
-      <c r="U15" s="104">
-        <v>0</v>
-      </c>
-      <c r="V15" s="95">
-        <v>0</v>
-      </c>
-      <c r="W15" s="95">
-        <v>0</v>
-      </c>
-      <c r="X15" s="95">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="104">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="95">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="95">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="95">
+      <c r="E15" s="103">
+        <v>0</v>
+      </c>
+      <c r="F15" s="92">
+        <v>0</v>
+      </c>
+      <c r="G15" s="92">
+        <v>0</v>
+      </c>
+      <c r="H15" s="92">
+        <v>0</v>
+      </c>
+      <c r="I15" s="103">
+        <v>0</v>
+      </c>
+      <c r="J15" s="92">
+        <v>0</v>
+      </c>
+      <c r="K15" s="92">
+        <v>0</v>
+      </c>
+      <c r="L15" s="92">
+        <v>0</v>
+      </c>
+      <c r="M15" s="102">
+        <v>1</v>
+      </c>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93">
+        <v>1</v>
+      </c>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="102">
+        <v>0</v>
+      </c>
+      <c r="R15" s="93">
+        <v>0</v>
+      </c>
+      <c r="S15" s="93">
+        <v>0</v>
+      </c>
+      <c r="T15" s="93">
+        <v>1</v>
+      </c>
+      <c r="U15" s="102">
+        <v>0</v>
+      </c>
+      <c r="V15" s="93">
+        <v>0</v>
+      </c>
+      <c r="W15" s="93">
+        <v>0</v>
+      </c>
+      <c r="X15" s="93">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="102">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="93">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="93">
         <v>1</v>
       </c>
     </row>
@@ -11413,85 +11430,85 @@
       <c r="A16" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="94" t="s">
         <v>393</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="70" t="s">
         <v>403</v>
       </c>
       <c r="D16" s="33">
         <v>4137</v>
       </c>
-      <c r="E16" s="105">
-        <v>0</v>
-      </c>
-      <c r="F16" s="94">
-        <v>0</v>
-      </c>
-      <c r="G16" s="94">
-        <v>1</v>
-      </c>
-      <c r="H16" s="94">
-        <v>0</v>
-      </c>
-      <c r="I16" s="105">
-        <v>0</v>
-      </c>
-      <c r="J16" s="94">
-        <v>0</v>
-      </c>
-      <c r="K16" s="94">
-        <v>0</v>
-      </c>
-      <c r="L16" s="94">
-        <v>0</v>
-      </c>
-      <c r="M16" s="104">
-        <v>0</v>
-      </c>
-      <c r="N16" s="95">
-        <v>0</v>
-      </c>
-      <c r="O16" s="95">
-        <v>0</v>
-      </c>
-      <c r="P16" s="95">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="104">
-        <v>0</v>
-      </c>
-      <c r="R16" s="95">
-        <v>0</v>
-      </c>
-      <c r="S16" s="95">
-        <v>0</v>
-      </c>
-      <c r="T16" s="95">
-        <v>0</v>
-      </c>
-      <c r="U16" s="104">
-        <v>0</v>
-      </c>
-      <c r="V16" s="95">
-        <v>0</v>
-      </c>
-      <c r="W16" s="95">
-        <v>1</v>
-      </c>
-      <c r="X16" s="95">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="104">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="95">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="95">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="95">
+      <c r="E16" s="103">
+        <v>0</v>
+      </c>
+      <c r="F16" s="92">
+        <v>0</v>
+      </c>
+      <c r="G16" s="92">
+        <v>1</v>
+      </c>
+      <c r="H16" s="92">
+        <v>0</v>
+      </c>
+      <c r="I16" s="103">
+        <v>0</v>
+      </c>
+      <c r="J16" s="92">
+        <v>0</v>
+      </c>
+      <c r="K16" s="92">
+        <v>0</v>
+      </c>
+      <c r="L16" s="92">
+        <v>0</v>
+      </c>
+      <c r="M16" s="102">
+        <v>0</v>
+      </c>
+      <c r="N16" s="93">
+        <v>0</v>
+      </c>
+      <c r="O16" s="93">
+        <v>0</v>
+      </c>
+      <c r="P16" s="93">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="102">
+        <v>0</v>
+      </c>
+      <c r="R16" s="93">
+        <v>0</v>
+      </c>
+      <c r="S16" s="93">
+        <v>0</v>
+      </c>
+      <c r="T16" s="93">
+        <v>0</v>
+      </c>
+      <c r="U16" s="102">
+        <v>0</v>
+      </c>
+      <c r="V16" s="93">
+        <v>0</v>
+      </c>
+      <c r="W16" s="93">
+        <v>1</v>
+      </c>
+      <c r="X16" s="93">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="102">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="93">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="93">
         <v>1</v>
       </c>
     </row>
@@ -11499,85 +11516,85 @@
       <c r="A17" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="94" t="s">
         <v>393</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="70" t="s">
         <v>404</v>
       </c>
       <c r="D17" s="33">
         <v>17665</v>
       </c>
-      <c r="E17" s="105">
-        <v>0</v>
-      </c>
-      <c r="F17" s="94">
-        <v>0</v>
-      </c>
-      <c r="G17" s="94">
-        <v>0</v>
-      </c>
-      <c r="H17" s="94">
-        <v>0</v>
-      </c>
-      <c r="I17" s="105">
-        <v>0</v>
-      </c>
-      <c r="J17" s="94">
-        <v>0</v>
-      </c>
-      <c r="K17" s="94">
-        <v>0</v>
-      </c>
-      <c r="L17" s="94">
-        <v>0</v>
-      </c>
-      <c r="M17" s="104">
-        <v>0</v>
-      </c>
-      <c r="N17" s="95">
-        <v>1</v>
-      </c>
-      <c r="O17" s="95">
-        <v>0</v>
-      </c>
-      <c r="P17" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="104">
-        <v>0</v>
-      </c>
-      <c r="R17" s="95">
-        <v>1</v>
-      </c>
-      <c r="S17" s="95">
-        <v>0</v>
-      </c>
-      <c r="T17" s="95">
-        <v>1</v>
-      </c>
-      <c r="U17" s="104">
-        <v>0</v>
-      </c>
-      <c r="V17" s="95">
-        <v>0</v>
-      </c>
-      <c r="W17" s="95">
-        <v>0</v>
-      </c>
-      <c r="X17" s="95">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="104">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="95">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="95">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="95">
+      <c r="E17" s="103">
+        <v>0</v>
+      </c>
+      <c r="F17" s="92">
+        <v>0</v>
+      </c>
+      <c r="G17" s="92">
+        <v>0</v>
+      </c>
+      <c r="H17" s="92">
+        <v>0</v>
+      </c>
+      <c r="I17" s="103">
+        <v>0</v>
+      </c>
+      <c r="J17" s="92">
+        <v>0</v>
+      </c>
+      <c r="K17" s="92">
+        <v>0</v>
+      </c>
+      <c r="L17" s="92">
+        <v>0</v>
+      </c>
+      <c r="M17" s="102">
+        <v>0</v>
+      </c>
+      <c r="N17" s="93">
+        <v>1</v>
+      </c>
+      <c r="O17" s="93">
+        <v>0</v>
+      </c>
+      <c r="P17" s="93">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="102">
+        <v>0</v>
+      </c>
+      <c r="R17" s="93">
+        <v>1</v>
+      </c>
+      <c r="S17" s="93">
+        <v>0</v>
+      </c>
+      <c r="T17" s="93">
+        <v>1</v>
+      </c>
+      <c r="U17" s="102">
+        <v>0</v>
+      </c>
+      <c r="V17" s="93">
+        <v>0</v>
+      </c>
+      <c r="W17" s="93">
+        <v>0</v>
+      </c>
+      <c r="X17" s="93">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="102">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="93">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="93">
         <v>1</v>
       </c>
     </row>
@@ -11585,10 +11602,10 @@
       <c r="A18" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="70" t="s">
         <v>401</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="70" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11596,10 +11613,10 @@
       <c r="A19" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="70" t="s">
         <v>451</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="70" t="s">
         <v>451</v>
       </c>
     </row>
@@ -11607,10 +11624,10 @@
       <c r="A20" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="70" t="s">
         <v>417</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="70" t="s">
         <v>411</v>
       </c>
     </row>
@@ -11618,10 +11635,10 @@
       <c r="A21" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="70" t="s">
         <v>418</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="70" t="s">
         <v>411</v>
       </c>
     </row>
@@ -11629,10 +11646,10 @@
       <c r="A22" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="70" t="s">
         <v>427</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="70" t="s">
         <v>412</v>
       </c>
     </row>
@@ -11640,10 +11657,10 @@
       <c r="A23" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="70" t="s">
         <v>428</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="70" t="s">
         <v>412</v>
       </c>
     </row>
@@ -11651,10 +11668,10 @@
       <c r="A24" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="70" t="s">
         <v>451</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="70" t="s">
         <v>419</v>
       </c>
     </row>
@@ -11662,10 +11679,10 @@
       <c r="A25" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="70" t="s">
         <v>451</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="70" t="s">
         <v>419</v>
       </c>
     </row>
@@ -11673,10 +11690,10 @@
       <c r="A26" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="70" t="s">
         <v>451</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="70" t="s">
         <v>340</v>
       </c>
     </row>
@@ -11684,10 +11701,10 @@
       <c r="A27" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="70" t="s">
         <v>451</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="70" t="s">
         <v>340</v>
       </c>
     </row>
@@ -11695,10 +11712,10 @@
       <c r="A28" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="70" t="s">
         <v>420</v>
       </c>
     </row>
@@ -11706,10 +11723,10 @@
       <c r="A29" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="70" t="s">
         <v>420</v>
       </c>
     </row>
@@ -11717,10 +11734,10 @@
       <c r="A30" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="70" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="70" t="s">
         <v>421</v>
       </c>
     </row>
@@ -11728,10 +11745,10 @@
       <c r="A31" s="33" t="s">
         <v>408</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="70" t="s">
         <v>294</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="70" t="s">
         <v>421</v>
       </c>
     </row>
@@ -11739,10 +11756,10 @@
       <c r="A32" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="70" t="s">
         <v>340</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="70" t="s">
         <v>422</v>
       </c>
     </row>
@@ -11750,10 +11767,10 @@
       <c r="A33" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="70" t="s">
         <v>340</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="70" t="s">
         <v>422</v>
       </c>
     </row>

--- a/config/project/Integrate_90kw/IntegrateConfig.xlsx
+++ b/config/project/Integrate_90kw/IntegrateConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_90kw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2ADC5DDD-75A6-42E3-8F1B-4C6EC0B41339}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{51F6D111-37F6-485C-B41B-60E4B27EEA0D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="466">
   <si>
     <t>组序号</t>
   </si>
@@ -698,10 +698,6 @@
     <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
-    <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
     <t>枪1电表电流</t>
     <phoneticPr fontId="35" type="noConversion"/>
   </si>
@@ -803,10 +799,6 @@
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪2直流充电模块工作状态</t>
     <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
@@ -3720,64 +3712,64 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4139,8 +4131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4478,11 +4470,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="140"/>
-      <c r="B15" s="140" t="s">
+      <c r="A15" s="135"/>
+      <c r="B15" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="135" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -4613,11 +4605,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="134"/>
-      <c r="B22" s="134" t="s">
+      <c r="A22" s="141"/>
+      <c r="B22" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="141" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4634,9 +4626,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="135"/>
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="137"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4651,9 +4643,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="135"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4668,9 +4660,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="135"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4685,9 +4677,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="141"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
+      <c r="A26" s="142"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="142"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -4744,11 +4736,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
-      <c r="B29" s="142" t="s">
+      <c r="A29" s="143"/>
+      <c r="B29" s="146" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="142" t="s">
+      <c r="C29" s="146" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -4765,9 +4757,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="143"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="143"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -4782,9 +4774,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="143"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="143"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -4799,9 +4791,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="143"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="143"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -4816,14 +4808,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="144"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
       <c r="E33" s="96" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F33" s="67" t="s">
         <v>11</v>
@@ -4875,14 +4867,14 @@
       <c r="B36" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="140" t="s">
-        <v>148</v>
+      <c r="C36" s="135" t="s">
+        <v>147</v>
       </c>
       <c r="D36" s="20">
         <v>35</v>
       </c>
       <c r="E36" s="99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F36" s="69" t="s">
         <v>73</v>
@@ -4899,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="E37" s="99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F37" s="67" t="s">
         <v>11</v>
@@ -4910,17 +4902,17 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="132"/>
-      <c r="B38" s="139" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="139" t="s">
+      <c r="B38" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="138" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
         <v>37</v>
       </c>
       <c r="E38" s="99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" s="68" t="s">
         <v>11</v>
@@ -4937,7 +4929,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F39" s="67" t="s">
         <v>11</v>
@@ -4951,7 +4943,7 @@
       <c r="B40" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="139" t="s">
+      <c r="C40" s="138" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -4964,7 +4956,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="53" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -4981,7 +4973,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="53" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -4998,7 +4990,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="53" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -5015,7 +5007,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="53" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -5032,7 +5024,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="53" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -5053,7 +5045,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="53" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -5062,7 +5054,7 @@
         <v>78</v>
       </c>
       <c r="C46" s="108" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D46" s="20">
         <v>45</v>
@@ -5101,16 +5093,16 @@
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="56" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C48" s="108" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D48" s="20">
         <v>47</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F48" s="68" t="s">
         <v>77</v>
@@ -5120,21 +5112,21 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="133"/>
-      <c r="B49" s="137" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="138" t="s">
-        <v>287</v>
+      <c r="A49" s="149"/>
+      <c r="B49" s="139" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="140" t="s">
+        <v>285</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F49" s="70" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>11</v>
@@ -5148,10 +5140,10 @@
         <v>49</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F50" s="70" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>11</v>
@@ -5165,10 +5157,10 @@
         <v>50</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F51" s="70" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>11</v>
@@ -5177,7 +5169,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="47"/>
       <c r="B52" s="43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C52" s="106" t="s">
         <v>58</v>
@@ -5186,7 +5178,7 @@
         <v>51</v>
       </c>
       <c r="E52" s="44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F52" s="69" t="s">
         <v>73</v>
@@ -5198,7 +5190,7 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="47"/>
       <c r="B53" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C53" s="108" t="s">
         <v>58</v>
@@ -5207,7 +5199,7 @@
         <v>52</v>
       </c>
       <c r="E53" s="44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F53" s="67" t="s">
         <v>11</v>
@@ -5259,18 +5251,18 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="134"/>
+      <c r="A56" s="141"/>
       <c r="B56" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="134" t="s">
+      <c r="C56" s="141" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
         <v>55</v>
       </c>
-      <c r="E56" s="29" t="s">
-        <v>134</v>
+      <c r="E56" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="F56" s="67" t="s">
         <v>11</v>
@@ -5280,99 +5272,99 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="135"/>
-      <c r="B57" s="135"/>
-      <c r="C57" s="135"/>
+      <c r="A57" s="137"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F57" s="128" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G57" s="128" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="135"/>
-      <c r="B58" s="135"/>
-      <c r="C58" s="135"/>
+      <c r="A58" s="137"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="137"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F58" s="128" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G58" s="128" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="135"/>
-      <c r="B59" s="135"/>
-      <c r="C59" s="135"/>
+      <c r="A59" s="137"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="F59" s="148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="148" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="130" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="135"/>
-      <c r="B60" s="135"/>
-      <c r="C60" s="135"/>
+      <c r="A60" s="137"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F60" s="128" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G60" s="128" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="135"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="135"/>
+      <c r="A61" s="137"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="137"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F61" s="128" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G61" s="128" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="135"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="135"/>
+      <c r="A62" s="137"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F62" s="67" t="s">
         <v>11</v>
@@ -5408,7 +5400,7 @@
         <v>84</v>
       </c>
       <c r="C64" s="108" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D64" s="20">
         <v>63</v>
@@ -5424,21 +5416,21 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="133"/>
-      <c r="B65" s="137" t="s">
-        <v>199</v>
-      </c>
-      <c r="C65" s="138" t="s">
-        <v>287</v>
+      <c r="A65" s="149"/>
+      <c r="B65" s="139" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="140" t="s">
+        <v>285</v>
       </c>
       <c r="D65" s="20">
         <v>64</v>
       </c>
       <c r="E65" s="48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F65" s="70" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G65" s="46" t="s">
         <v>11</v>
@@ -5452,10 +5444,10 @@
         <v>65</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F66" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G66" s="46" t="s">
         <v>11</v>
@@ -5469,10 +5461,10 @@
         <v>66</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F67" s="70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G67" s="46" t="s">
         <v>11</v>
@@ -5481,7 +5473,7 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="43"/>
       <c r="B68" s="63" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C68" s="43" t="s">
         <v>58</v>
@@ -5490,7 +5482,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="64" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F68" s="69" t="s">
         <v>73</v>
@@ -5502,7 +5494,7 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="43"/>
       <c r="B69" s="43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C69" s="108" t="s">
         <v>58</v>
@@ -5511,7 +5503,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="44" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F69" s="67" t="s">
         <v>11</v>
@@ -5555,133 +5547,133 @@
       <c r="E71" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F71" s="148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="148" t="s">
+      <c r="F71" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="130" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="134"/>
+      <c r="A72" s="141"/>
       <c r="B72" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="134" t="s">
+      <c r="C72" s="141" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
         <v>71</v>
       </c>
-      <c r="E72" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="F72" s="148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="149" t="s">
+      <c r="E72" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="131" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="135"/>
-      <c r="B73" s="135"/>
-      <c r="C73" s="135"/>
+      <c r="A73" s="137"/>
+      <c r="B73" s="137"/>
+      <c r="C73" s="137"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
       <c r="E73" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F73" s="128" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G73" s="128" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="135"/>
-      <c r="B74" s="135"/>
-      <c r="C74" s="135"/>
+      <c r="A74" s="137"/>
+      <c r="B74" s="137"/>
+      <c r="C74" s="137"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
       <c r="E74" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F74" s="128" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G74" s="128" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="135"/>
-      <c r="B75" s="135"/>
-      <c r="C75" s="135"/>
+      <c r="A75" s="137"/>
+      <c r="B75" s="137"/>
+      <c r="C75" s="137"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
       <c r="E75" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="F75" s="148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="148" t="s">
+        <v>156</v>
+      </c>
+      <c r="F75" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="130" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="135"/>
-      <c r="B76" s="135"/>
-      <c r="C76" s="135"/>
+      <c r="A76" s="137"/>
+      <c r="B76" s="137"/>
+      <c r="C76" s="137"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
       <c r="E76" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F76" s="128" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G76" s="128" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="135"/>
-      <c r="B77" s="135"/>
-      <c r="C77" s="135"/>
+      <c r="A77" s="137"/>
+      <c r="B77" s="137"/>
+      <c r="C77" s="137"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
       <c r="E77" s="37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F77" s="128" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G77" s="128" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="135"/>
-      <c r="B78" s="135"/>
-      <c r="C78" s="135"/>
+      <c r="A78" s="137"/>
+      <c r="B78" s="137"/>
+      <c r="C78" s="137"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="F78" s="148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="148" t="s">
+        <v>159</v>
+      </c>
+      <c r="F78" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="130" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5712,7 +5704,7 @@
         <v>87</v>
       </c>
       <c r="C80" s="108" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D80" s="20">
         <v>79</v>
@@ -5728,11 +5720,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="140"/>
-      <c r="B81" s="140" t="s">
+      <c r="A81" s="135"/>
+      <c r="B81" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="139" t="s">
+      <c r="C81" s="138" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5847,7 +5839,7 @@
         <v>93</v>
       </c>
       <c r="C87" s="108" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D87" s="66">
         <v>86</v>
@@ -5865,16 +5857,16 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="114" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C88" s="108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D88" s="66">
         <v>87</v>
       </c>
       <c r="E88" s="96" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F88" s="67">
         <v>20</v>
@@ -5886,16 +5878,16 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C89" s="108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D89" s="66">
         <v>88</v>
       </c>
       <c r="E89" s="96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F89" s="67">
         <v>20</v>
@@ -5907,16 +5899,16 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="114" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C90" s="108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D90" s="66">
         <v>89</v>
       </c>
       <c r="E90" s="96" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F90" s="68">
         <v>3</v>
@@ -5928,7 +5920,7 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="114" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C91" s="109" t="s">
         <v>58</v>
@@ -5937,19 +5929,19 @@
         <v>90</v>
       </c>
       <c r="E91" s="96" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F91" s="68" t="s">
         <v>73</v>
       </c>
       <c r="G91" s="53" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="B92" s="114" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C92" s="109" t="s">
         <v>58</v>
@@ -5958,19 +5950,19 @@
         <v>91</v>
       </c>
       <c r="E92" s="96" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F92" s="68" t="s">
         <v>73</v>
       </c>
       <c r="G92" s="53" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
       <c r="B93" s="114" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C93" s="109" t="s">
         <v>58</v>
@@ -5979,19 +5971,19 @@
         <v>92</v>
       </c>
       <c r="E93" s="96" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F93" s="68" t="s">
         <v>73</v>
       </c>
       <c r="G93" s="53" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="B94" s="114" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C94" s="109" t="s">
         <v>58</v>
@@ -6000,19 +5992,19 @@
         <v>93</v>
       </c>
       <c r="E94" s="96" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F94" s="68" t="s">
         <v>73</v>
       </c>
       <c r="G94" s="53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="B95" s="114" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C95" s="109" t="s">
         <v>58</v>
@@ -6021,19 +6013,19 @@
         <v>94</v>
       </c>
       <c r="E95" s="96" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F95" s="68" t="s">
         <v>73</v>
       </c>
       <c r="G95" s="53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
       <c r="B96" s="114" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C96" s="109" t="s">
         <v>58</v>
@@ -6042,28 +6034,28 @@
         <v>95</v>
       </c>
       <c r="E96" s="96" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F96" s="68" t="s">
         <v>73</v>
       </c>
       <c r="G96" s="53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="66"/>
       <c r="B97" s="115" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C97" s="109" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D97" s="66">
         <v>96</v>
       </c>
       <c r="E97" s="96" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F97" s="68" t="s">
         <v>73</v>
@@ -6075,7 +6067,7 @@
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="66"/>
       <c r="B98" s="115" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C98" s="109" t="s">
         <v>76</v>
@@ -6084,7 +6076,7 @@
         <v>97</v>
       </c>
       <c r="E98" s="96" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F98" s="68" t="s">
         <v>73</v>
@@ -6094,18 +6086,18 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="130"/>
-      <c r="B99" s="130" t="s">
-        <v>297</v>
-      </c>
-      <c r="C99" s="130" t="s">
+      <c r="A99" s="147"/>
+      <c r="B99" s="147" t="s">
+        <v>295</v>
+      </c>
+      <c r="C99" s="147" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="81">
         <v>98</v>
       </c>
       <c r="E99" s="96" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F99" s="80" t="s">
         <v>73</v>
@@ -6115,14 +6107,14 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="130"/>
-      <c r="B100" s="130"/>
-      <c r="C100" s="130"/>
+      <c r="A100" s="147"/>
+      <c r="B100" s="147"/>
+      <c r="C100" s="147"/>
       <c r="D100" s="81">
         <v>99</v>
       </c>
       <c r="E100" s="96" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F100" s="80" t="s">
         <v>73</v>
@@ -6132,14 +6124,14 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="130"/>
-      <c r="B101" s="130"/>
-      <c r="C101" s="130"/>
+      <c r="A101" s="147"/>
+      <c r="B101" s="147"/>
+      <c r="C101" s="147"/>
       <c r="D101" s="81">
         <v>100</v>
       </c>
       <c r="E101" s="96" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F101" s="80" t="s">
         <v>73</v>
@@ -6151,16 +6143,16 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="82"/>
       <c r="B102" s="116" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C102" s="110" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D102" s="81">
         <v>101</v>
       </c>
       <c r="E102" s="96" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F102" s="80" t="s">
         <v>73</v>
@@ -6170,11 +6162,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="130"/>
-      <c r="B103" s="130" t="s">
-        <v>299</v>
-      </c>
-      <c r="C103" s="130" t="s">
+      <c r="A103" s="147"/>
+      <c r="B103" s="147" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103" s="147" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="76">
@@ -6191,9 +6183,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="131"/>
-      <c r="B104" s="131"/>
-      <c r="C104" s="131"/>
+      <c r="A104" s="148"/>
+      <c r="B104" s="148"/>
+      <c r="C104" s="148"/>
       <c r="D104" s="76">
         <v>103</v>
       </c>
@@ -6208,9 +6200,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="131"/>
-      <c r="B105" s="131"/>
-      <c r="C105" s="131"/>
+      <c r="A105" s="148"/>
+      <c r="B105" s="148"/>
+      <c r="C105" s="148"/>
       <c r="D105" s="76">
         <v>104</v>
       </c>
@@ -6227,7 +6219,7 @@
     <row r="106" spans="1:7" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="74"/>
       <c r="B106" s="114" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C106" s="109" t="s">
         <v>58</v>
@@ -6236,10 +6228,10 @@
         <v>105</v>
       </c>
       <c r="E106" s="96" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F106" s="129" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G106" s="71" t="s">
         <v>73</v>
@@ -6248,16 +6240,16 @@
     <row r="107" spans="1:7" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="77"/>
       <c r="B107" s="115" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C107" s="109" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D107" s="98">
         <v>106</v>
       </c>
       <c r="E107" s="98" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F107" s="75" t="s">
         <v>73</v>
@@ -6269,7 +6261,7 @@
     <row r="108" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="77"/>
       <c r="B108" s="115" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C108" s="109" t="s">
         <v>76</v>
@@ -6278,7 +6270,7 @@
         <v>107</v>
       </c>
       <c r="E108" s="98" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F108" s="75" t="s">
         <v>73</v>
@@ -6290,7 +6282,7 @@
     <row r="109" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="77"/>
       <c r="B109" s="115" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C109" s="109" t="s">
         <v>76</v>
@@ -6299,7 +6291,7 @@
         <v>108</v>
       </c>
       <c r="E109" s="98" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F109" s="75" t="s">
         <v>73</v>
@@ -6311,7 +6303,7 @@
     <row r="110" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="77"/>
       <c r="B110" s="115" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C110" s="109" t="s">
         <v>76</v>
@@ -6320,7 +6312,7 @@
         <v>109</v>
       </c>
       <c r="E110" s="98" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F110" s="75" t="s">
         <v>73</v>
@@ -6332,7 +6324,7 @@
     <row r="111" spans="1:7" s="73" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="77"/>
       <c r="B111" s="114" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C111" s="109" t="s">
         <v>76</v>
@@ -6341,7 +6333,7 @@
         <v>110</v>
       </c>
       <c r="E111" s="96" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F111" s="75" t="s">
         <v>73</v>
@@ -6353,7 +6345,7 @@
     <row r="112" spans="1:7" s="73" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="78"/>
       <c r="B112" s="114" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C112" s="109" t="s">
         <v>76</v>
@@ -6362,7 +6354,7 @@
         <v>111</v>
       </c>
       <c r="E112" s="96" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F112" s="79" t="s">
         <v>73</v>
@@ -6374,16 +6366,16 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="100"/>
       <c r="B113" s="114" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C113" s="108" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D113" s="115">
         <v>112</v>
       </c>
       <c r="E113" s="96" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F113" s="89" t="s">
         <v>73</v>
@@ -6395,16 +6387,16 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="100"/>
       <c r="B114" s="114" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C114" s="108" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D114" s="115">
         <v>113</v>
       </c>
       <c r="E114" s="96" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F114" s="89" t="s">
         <v>73</v>
@@ -6416,16 +6408,16 @@
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="100"/>
       <c r="B115" s="114" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C115" s="108" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D115" s="115">
         <v>114</v>
       </c>
       <c r="E115" s="96" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F115" s="89" t="s">
         <v>73</v>
@@ -6437,16 +6429,16 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="100"/>
       <c r="B116" s="114" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C116" s="108" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D116" s="115">
         <v>115</v>
       </c>
       <c r="E116" s="96" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F116" s="89" t="s">
         <v>73</v>
@@ -6458,16 +6450,16 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="100"/>
       <c r="B117" s="114" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C117" s="108" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D117" s="115">
         <v>116</v>
       </c>
       <c r="E117" s="96" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F117" s="89" t="s">
         <v>73</v>
@@ -6479,16 +6471,16 @@
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="100"/>
       <c r="B118" s="114" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C118" s="108" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D118" s="115">
         <v>117</v>
       </c>
       <c r="E118" s="96" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F118" s="89" t="s">
         <v>73</v>
@@ -6500,16 +6492,16 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="100"/>
       <c r="B119" s="114" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C119" s="108" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D119" s="115">
         <v>118</v>
       </c>
       <c r="E119" s="96" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F119" s="89" t="s">
         <v>73</v>
@@ -6521,753 +6513,782 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="108"/>
       <c r="B120" s="114" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C120" s="108" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D120" s="115">
         <v>119</v>
       </c>
       <c r="E120" s="108" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F120" s="108" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G120" s="108" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="112"/>
       <c r="B121" s="114" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C121" s="112" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D121" s="115">
         <v>120</v>
       </c>
       <c r="E121" s="112" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F121" s="112" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G121" s="112" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="112"/>
       <c r="B122" s="114" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C122" s="112" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D122" s="115">
         <v>121</v>
       </c>
       <c r="E122" s="112" t="s">
+        <v>395</v>
+      </c>
+      <c r="F122" s="112" t="s">
         <v>397</v>
       </c>
-      <c r="F122" s="112" t="s">
-        <v>399</v>
-      </c>
       <c r="G122" s="112" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="118"/>
       <c r="B123" s="118" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C123" s="118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D123" s="117">
         <v>122</v>
       </c>
       <c r="E123" s="118" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F123" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G123" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="118"/>
       <c r="B124" s="118" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C124" s="118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D124" s="117">
         <v>123</v>
       </c>
       <c r="E124" s="118" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F124" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G124" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="118"/>
       <c r="B125" s="118" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C125" s="118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D125" s="117">
         <v>124</v>
       </c>
       <c r="E125" s="118" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F125" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G125" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="118"/>
       <c r="B126" s="118" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C126" s="118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D126" s="117">
         <v>125</v>
       </c>
       <c r="E126" s="118" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F126" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G126" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="118"/>
       <c r="B127" s="118" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C127" s="118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D127" s="117">
         <v>126</v>
       </c>
       <c r="E127" s="118" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F127" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G127" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="118"/>
       <c r="B128" s="118" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C128" s="118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D128" s="117">
         <v>127</v>
       </c>
       <c r="E128" s="118" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F128" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G128" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="118"/>
       <c r="B129" s="118" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C129" s="118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D129" s="117">
         <v>128</v>
       </c>
       <c r="E129" s="118" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F129" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G129" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="118"/>
       <c r="B130" s="118" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C130" s="118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D130" s="117">
         <v>129</v>
       </c>
       <c r="E130" s="118" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F130" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G130" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="118"/>
       <c r="B131" s="118" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C131" s="118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D131" s="117">
         <v>130</v>
       </c>
       <c r="E131" s="118" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F131" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G131" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="118"/>
       <c r="B132" s="118" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C132" s="118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D132" s="117">
         <v>131</v>
       </c>
       <c r="E132" s="118" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F132" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G132" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="118"/>
       <c r="B133" s="118" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C133" s="118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D133" s="117">
         <v>132</v>
       </c>
       <c r="E133" s="118" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F133" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G133" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="118"/>
       <c r="B134" s="118" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C134" s="118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D134" s="117">
         <v>133</v>
       </c>
       <c r="E134" s="118" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F134" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G134" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="118"/>
       <c r="B135" s="118" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C135" s="118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D135" s="117">
         <v>134</v>
       </c>
       <c r="E135" s="118" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F135" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G135" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="118"/>
       <c r="B136" s="118" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C136" s="118" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D136" s="117">
         <v>135</v>
       </c>
       <c r="E136" s="118" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F136" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G136" s="118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="119"/>
       <c r="B137" s="119" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C137" s="119" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D137" s="119">
         <v>136</v>
       </c>
       <c r="E137" s="120" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F137" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G137" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="119"/>
       <c r="B138" s="119" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C138" s="119" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D138" s="119">
         <v>137</v>
       </c>
       <c r="E138" s="120" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F138" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G138" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="119"/>
       <c r="B139" s="119" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C139" s="119" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D139" s="119">
         <v>138</v>
       </c>
       <c r="E139" s="120" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F139" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G139" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="119"/>
       <c r="B140" s="119" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C140" s="119" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D140" s="119">
         <v>139</v>
       </c>
       <c r="E140" s="120" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F140" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G140" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="119"/>
       <c r="B141" s="119" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C141" s="119" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D141" s="119">
         <v>140</v>
       </c>
       <c r="E141" s="120" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F141" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G141" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="119"/>
       <c r="B142" s="119" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C142" s="119" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D142" s="119">
         <v>141</v>
       </c>
       <c r="E142" s="120" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F142" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G142" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="119"/>
       <c r="B143" s="119" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C143" s="119" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D143" s="119">
         <v>142</v>
       </c>
       <c r="E143" s="120" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F143" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G143" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="119"/>
       <c r="B144" s="119" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C144" s="119" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D144" s="119">
         <v>143</v>
       </c>
       <c r="E144" s="120" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F144" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G144" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="119"/>
       <c r="B145" s="119" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C145" s="119" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D145" s="119">
         <v>144</v>
       </c>
       <c r="E145" s="120" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F145" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G145" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="119"/>
       <c r="B146" s="119" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C146" s="119" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D146" s="119">
         <v>145</v>
       </c>
       <c r="E146" s="120" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F146" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G146" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="119"/>
       <c r="B147" s="119" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C147" s="119" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D147" s="119">
         <v>146</v>
       </c>
       <c r="E147" s="120" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F147" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G147" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="119"/>
       <c r="B148" s="119" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C148" s="119" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D148" s="119">
         <v>147</v>
       </c>
       <c r="E148" s="120" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F148" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G148" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="119"/>
       <c r="B149" s="119" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C149" s="119" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D149" s="119">
         <v>148</v>
       </c>
       <c r="E149" s="120" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F149" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G149" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="119"/>
       <c r="B150" s="119" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C150" s="119" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D150" s="119">
         <v>149</v>
       </c>
       <c r="E150" s="120" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F150" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G150" s="119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="120"/>
       <c r="B151" s="120" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C151" s="120" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D151" s="120">
         <v>150</v>
       </c>
       <c r="E151" s="120" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F151" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G151" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="121"/>
       <c r="B152" s="121" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C152" s="121" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D152" s="121">
         <v>151</v>
       </c>
       <c r="E152" s="121" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F152" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G152" s="121" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="147"/>
-      <c r="B153" s="146" t="s">
-        <v>459</v>
+      <c r="A153" s="134"/>
+      <c r="B153" s="133" t="s">
+        <v>457</v>
       </c>
       <c r="C153" s="132" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D153" s="123">
         <v>152</v>
       </c>
       <c r="E153" s="126" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F153" s="128" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G153" s="128" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="147"/>
-      <c r="B154" s="147"/>
+      <c r="A154" s="134"/>
+      <c r="B154" s="134"/>
       <c r="C154" s="132"/>
       <c r="D154" s="123">
         <v>153</v>
       </c>
       <c r="E154" s="127" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F154" s="128" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G154" s="128" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="147"/>
-      <c r="B155" s="147"/>
+      <c r="A155" s="134"/>
+      <c r="B155" s="134"/>
       <c r="C155" s="132"/>
       <c r="D155" s="123">
         <v>154</v>
       </c>
       <c r="E155" s="127" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F155" s="128" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G155" s="128" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="C153:C155"/>
     <mergeCell ref="B153:B155"/>
     <mergeCell ref="A153:A155"/>
@@ -7284,35 +7305,6 @@
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A99:A101"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7334,337 +7326,337 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="100"/>
       <c r="B1" s="114" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C1" s="108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1" s="115">
         <v>122</v>
       </c>
       <c r="E1" s="96" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F1" s="86" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G1" s="86" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="100"/>
       <c r="B2" s="114" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C2" s="108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D2" s="115">
         <v>123</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F2" s="99" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G2" s="96" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="100"/>
       <c r="B3" s="114" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C3" s="108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D3" s="115">
         <v>124</v>
       </c>
       <c r="E3" s="96" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F3" s="86" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G3" s="86" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="100"/>
       <c r="B4" s="114" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C4" s="108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D4" s="115">
         <v>125</v>
       </c>
       <c r="E4" s="96" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F4" s="86" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G4" s="86" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="100"/>
       <c r="B5" s="114" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C5" s="108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D5" s="115">
         <v>126</v>
       </c>
       <c r="E5" s="96" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F5" s="86" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G5" s="99" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="100"/>
       <c r="B6" s="114" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C6" s="108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D6" s="115">
         <v>127</v>
       </c>
       <c r="E6" s="96" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F6" s="99" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G6" s="99" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="100"/>
       <c r="B7" s="114" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C7" s="108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D7" s="115">
         <v>128</v>
       </c>
       <c r="E7" s="96" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F7" s="99" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G7" s="99" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="100"/>
       <c r="B8" s="114" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C8" s="108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D8" s="115">
         <v>129</v>
       </c>
       <c r="E8" s="96" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G8" s="99" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="114" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C9" s="108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D9" s="115">
         <v>130</v>
       </c>
       <c r="E9" s="96" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F9" s="86" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G9" s="99" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="100"/>
       <c r="B10" s="114" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C10" s="108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D10" s="115">
         <v>131</v>
       </c>
       <c r="E10" s="96" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F10" s="99" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G10" s="99" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="100"/>
       <c r="B11" s="114" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C11" s="108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D11" s="115">
         <v>132</v>
       </c>
       <c r="E11" s="96" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F11" s="99" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G11" s="99" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="100"/>
       <c r="B12" s="114" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C12" s="108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D12" s="115">
         <v>133</v>
       </c>
       <c r="E12" s="96" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F12" s="99" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G12" s="99" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="100"/>
       <c r="B13" s="114" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C13" s="108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D13" s="115">
         <v>134</v>
       </c>
       <c r="E13" s="96" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F13" s="99" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G13" s="99" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
       <c r="B14" s="114" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C14" s="108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D14" s="115">
         <v>135</v>
       </c>
       <c r="E14" s="96" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F14" s="99" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G14" s="99" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="100"/>
       <c r="B15" s="114" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C15" s="108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D15" s="115">
         <v>136</v>
       </c>
       <c r="E15" s="96" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F15" s="99" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G15" s="99" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="100"/>
       <c r="B16" s="114" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C16" s="108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D16" s="115">
         <v>137</v>
       </c>
       <c r="E16" s="96" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F16" s="99" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G16" s="99" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -7704,7 +7696,7 @@
         <v>102</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7833,10 +7825,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>151</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7844,10 +7836,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7855,10 +7847,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7866,10 +7858,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -7877,10 +7869,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -7888,10 +7880,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -7899,10 +7891,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -7910,10 +7902,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -7921,10 +7913,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -7932,10 +7924,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -7943,10 +7935,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -7954,10 +7946,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7965,10 +7957,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -7976,10 +7968,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -7987,10 +7979,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -7998,10 +7990,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8009,10 +8001,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -8020,10 +8012,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8031,10 +8023,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8042,10 +8034,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8053,10 +8045,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8064,10 +8056,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8075,10 +8067,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8086,10 +8078,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8097,10 +8089,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8108,10 +8100,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="C39" s="34" t="s">
         <v>355</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8119,10 +8111,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="C40" s="34" t="s">
         <v>356</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -8153,97 +8145,97 @@
         <v>99</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>150</v>
-      </c>
       <c r="C4" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>174</v>
-      </c>
       <c r="C6" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -9024,7 +9016,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
@@ -9044,7 +9036,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="17">
         <v>2</v>
@@ -9064,7 +9056,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="17">
         <v>2</v>
@@ -9084,7 +9076,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
@@ -9104,7 +9096,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="17">
         <v>2</v>
@@ -9124,7 +9116,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="17">
         <v>2</v>
@@ -9264,7 +9256,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
@@ -9284,7 +9276,7 @@
     </row>
     <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B26" s="17">
         <v>0</v>
@@ -9384,7 +9376,7 @@
     </row>
     <row r="31" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" s="17">
         <v>2</v>
@@ -9404,7 +9396,7 @@
     </row>
     <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" s="17">
         <v>2</v>
@@ -9424,7 +9416,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B33" s="17">
         <v>0</v>
@@ -9464,7 +9456,7 @@
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B35" s="17">
         <v>5</v>
@@ -9484,7 +9476,7 @@
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B36" s="17">
         <v>5</v>
@@ -9504,7 +9496,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B37" s="17">
         <v>3</v>
@@ -9524,7 +9516,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B38" s="17">
         <v>3</v>
@@ -9544,7 +9536,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B39" s="17">
         <v>3</v>
@@ -9564,7 +9556,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B40" s="17">
         <v>5</v>
@@ -9584,7 +9576,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B41" s="17">
         <v>5</v>
@@ -9604,7 +9596,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B42" s="17">
         <v>3</v>
@@ -9624,7 +9616,7 @@
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B43" s="17">
         <v>3</v>
@@ -9644,7 +9636,7 @@
     </row>
     <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B44" s="17">
         <v>3</v>
@@ -9664,7 +9656,7 @@
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B45" s="17">
         <v>3</v>
@@ -9684,7 +9676,7 @@
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B46" s="17">
         <v>3</v>
@@ -9724,7 +9716,7 @@
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="87" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B48" s="17">
         <v>3</v>
@@ -9744,7 +9736,7 @@
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="101" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B49" s="17">
         <v>3</v>
@@ -9764,7 +9756,7 @@
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="84" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B50" s="17">
         <v>3</v>
@@ -9784,7 +9776,7 @@
     </row>
     <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="84" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B51" s="17">
         <v>3</v>
@@ -9804,7 +9796,7 @@
     </row>
     <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="84" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B52" s="17">
         <v>3</v>
@@ -9824,7 +9816,7 @@
     </row>
     <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="84" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B53" s="17">
         <v>3</v>
@@ -9844,7 +9836,7 @@
     </row>
     <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="84" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B54" s="17">
         <v>3</v>
@@ -9864,7 +9856,7 @@
     </row>
     <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="84" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B55" s="17">
         <v>3</v>
@@ -9884,7 +9876,7 @@
     </row>
     <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="84" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B56" s="17">
         <v>3</v>
@@ -9904,7 +9896,7 @@
     </row>
     <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="84" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B57" s="17">
         <v>3</v>
@@ -9924,7 +9916,7 @@
     </row>
     <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="84" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B58" s="17">
         <v>3</v>
@@ -9944,7 +9936,7 @@
     </row>
     <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="84" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B59" s="17">
         <v>3</v>
@@ -9964,7 +9956,7 @@
     </row>
     <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="84" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B60" s="17">
         <v>3</v>
@@ -9984,7 +9976,7 @@
     </row>
     <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="84" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B61" s="17">
         <v>3</v>
@@ -10004,7 +9996,7 @@
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="84" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B62" s="17">
         <v>3</v>
@@ -10024,7 +10016,7 @@
     </row>
     <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="84" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B63" s="17">
         <v>3</v>
@@ -10044,7 +10036,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="84" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B64" s="17">
         <v>3</v>
@@ -10064,7 +10056,7 @@
     </row>
     <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="84" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B65" s="17">
         <v>3</v>
@@ -10084,7 +10076,7 @@
     </row>
     <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="84" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B66" s="17">
         <v>3</v>
@@ -10104,7 +10096,7 @@
     </row>
     <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="84" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B67" s="17">
         <v>3</v>
@@ -10124,7 +10116,7 @@
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="84" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B68" s="17">
         <v>3</v>
@@ -10144,7 +10136,7 @@
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="84" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B69" s="17">
         <v>3</v>
@@ -10164,7 +10156,7 @@
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="84" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B70" s="17">
         <v>3</v>
@@ -10184,7 +10176,7 @@
     </row>
     <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="84" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B71" s="17">
         <v>3</v>
@@ -10204,7 +10196,7 @@
     </row>
     <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="84" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B72" s="17">
         <v>3</v>
@@ -10224,7 +10216,7 @@
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="84" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B73" s="17">
         <v>3</v>
@@ -10244,7 +10236,7 @@
     </row>
     <row r="74" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="51" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B74" s="17">
         <v>3</v>
@@ -10264,7 +10256,7 @@
     </row>
     <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="51" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B75" s="17">
         <v>3</v>
@@ -10284,7 +10276,7 @@
     </row>
     <row r="76" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="51" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B76" s="17">
         <v>3</v>
@@ -10304,7 +10296,7 @@
     </row>
     <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="83" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B77" s="17">
         <v>0</v>
@@ -10324,7 +10316,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="124" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B78" s="16">
         <v>0</v>
@@ -10344,7 +10336,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B79" s="125">
         <v>5</v>
@@ -10364,7 +10356,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B80" s="125">
         <v>5</v>
@@ -10428,7 +10420,7 @@
         <v>98</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E1" s="33">
         <v>23</v>
@@ -10505,16 +10497,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E2" s="104"/>
       <c r="F2" s="104"/>
@@ -10526,140 +10518,140 @@
       <c r="L2" s="104"/>
       <c r="M2" s="105"/>
       <c r="N2" s="104" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O2" s="104" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P2" s="104" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q2" s="104" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R2" s="104" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S2" s="104" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T2" s="104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U2" s="104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="V2" s="104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W2" s="104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="X2" s="104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y2" s="104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Z2" s="104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AA2" s="104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AB2" s="104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D3" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="V3" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="W3" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z3" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA3" t="s">
         <v>278</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>461</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="S3" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="T3" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="U3" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="V3" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="W3" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="X3" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y3" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z3" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>280</v>
-      </c>
       <c r="AB3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -10673,13 +10665,13 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -10693,13 +10685,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -10713,13 +10705,13 @@
     </row>
     <row r="7" spans="1:28" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="91" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C7" s="94" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D7" s="92"/>
       <c r="E7" s="103">
@@ -10788,13 +10780,13 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="103">
@@ -10866,13 +10858,13 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D9" s="18">
         <v>294947</v>
@@ -10946,13 +10938,13 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B10" s="94" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D10" s="18">
         <v>557315</v>
@@ -11026,13 +11018,13 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B11" s="94" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D11" s="18">
         <v>1081603</v>
@@ -11106,13 +11098,13 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B12" s="94" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C12" s="94" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D12" s="33">
         <v>2130019</v>
@@ -11186,13 +11178,13 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B13" s="94" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C13" s="94" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D13" s="18">
         <v>2130947</v>
@@ -11266,13 +11258,13 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D14" s="33">
         <v>2059</v>
@@ -11346,13 +11338,13 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B15" s="94" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D15" s="33">
         <v>8451</v>
@@ -11428,13 +11420,13 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B16" s="94" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D16" s="33">
         <v>4137</v>
@@ -11514,13 +11506,13 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B17" s="94" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D17" s="33">
         <v>17665</v>
@@ -11600,178 +11592,178 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B22" s="70" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B23" s="70" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B24" s="70" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C24" s="70" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B25" s="70" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C25" s="70" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B26" s="70" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C26" s="70" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B27" s="70" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C27" s="70" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B28" s="70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C28" s="70" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B29" s="70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B30" s="70" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B31" s="70" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B32" s="70" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B33" s="70" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/Integrate_90kw/IntegrateConfig.xlsx
+++ b/config/project/Integrate_90kw/IntegrateConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_90kw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_increase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{51F6D111-37F6-485C-B41B-60E4B27EEA0D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FD9A6A05-B010-4263-8D51-A7383F9CB202}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="513">
   <si>
     <t>组序号</t>
   </si>
@@ -59,15 +59,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -83,39 +83,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -131,107 +131,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -294,15 +294,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -321,62 +321,62 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -392,7 +392,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -408,7 +408,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -424,71 +424,71 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -504,27 +504,27 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -540,7 +540,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -556,218 +556,218 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -783,154 +783,154 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
   </si>
   <si>
     <t>编译时间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>是否连接正式平台</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测结果</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测结果</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>合上30关闭29</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>合上30合上29</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>断开30断开29</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>0x30000002</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>0x20000002</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试启动充电</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试停止充电</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试启动充电</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试停止充电</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻正</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻负</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻正</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻负</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪前测量值</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪后测量值</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪前测量值</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪后测量值</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -963,7 +963,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -996,7 +996,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1022,7 +1022,7 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1048,7 +1048,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1074,7 +1074,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1100,15 +1100,15 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1功率分配</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2功率分配</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>避雷器反馈</t>
@@ -1130,7 +1130,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1146,7 +1146,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1162,7 +1162,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1178,7 +1178,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1194,11 +1194,11 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>备用</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1214,7 +1214,7 @@
       </rPr>
       <t>5K6</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1230,15 +1230,15 @@
       </rPr>
       <t>9K10</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>门禁开关</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>急停反馈</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1254,111 +1254,111 @@
       </rPr>
       <t>7K8</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>枪1电子锁反馈</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>枪2电子锁反馈</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0118</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x1118</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>请按下急停按钮</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>0x0260</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x1260</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>门节点</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>防雷器</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>打开门</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>关闭门</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器告警</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器不告警</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>按下急停按钮</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>不按下急停按钮</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>门闭合状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>门打开状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>防雷器告警状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>防雷器正常状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>true_</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>false_</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1374,87 +1374,87 @@
       </rPr>
       <t>nlock</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于拔出状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于拔出状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1470,31 +1470,31 @@
       </rPr>
       <t>看门狗短路插片JP2升完程序后不安装 2控制器贴有已检标记 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>参数矫正时候，请确保没有插入枪</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>请确保没有插枪，并且已经断电</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮按下</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮未按下</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1510,43 +1510,39 @@
       </rPr>
       <t>PP测试</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>掩码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>0xFFFFFFFF</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>APP枪1测试</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>APP枪2测试</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>组测试前继电器操作掩码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>组测试后继电器操作掩码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1562,7 +1558,7 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1578,18 +1574,18 @@
       </rPr>
       <t>O</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
   </si>
   <si>
     <t>交流接触器KM控制</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>充电枪1的电子锁通电时间控制</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1605,7 +1601,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1621,11 +1617,11 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>充电枪2的电子锁通电时间控制</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1641,7 +1637,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1657,43 +1653,43 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>PowerDistribute</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>K5K6</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>K9K10</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>K1K2</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>K3K4</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0800</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1709,95 +1705,95 @@
       </rPr>
       <t>IBO</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>sim卡采集</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>sim卡编号采集</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>设备信息</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>铭牌编号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>资产编号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>显示板号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪型号记录</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>直流挡板</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>铭牌</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>看门狗插片</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>K60看门狗</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>显示盖板</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>CtrlBoxSet</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1K2控制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3K4控制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1枪K5K6控制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>K7K8控制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1K2控制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3K4控制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2枪K9K10控制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
@@ -1825,271 +1821,271 @@
   </si>
   <si>
     <t>1枪K1反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>KM1反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>KM2反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>K5K6反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>K9K10反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>K7K8反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>KM控制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>PowerModule</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>电源模块4</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6_1</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6_2</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>电源模块2</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>电源模块3</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>电源模块5</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>继电器断开K5_K7_K9</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>继电器断开K6_K8_K10</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>断开K5,K7,K9,闭合K6,K8,K10</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>断开K6,K8,K10,闭合K5,K7,K9</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>继电器1枪K1K2闭合</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>继电器1枪K1K2断开</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>继电器2枪K1K2闭合</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>继电器2枪K1K2断开</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5断开_K6闭合</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5闭合_K6断开</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5闭合_K6闭合</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5断开_K6断开</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7断开_K8闭合</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7闭合_K8断开</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7闭合_K8闭合</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7断开_K8断开</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9断开_K10断开</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9断开_K10闭合</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9闭合_K10断开</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9闭合_K10闭合</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>模块控制</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>模块1</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>模块2</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>模块3</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>模块4</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>模块5</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>模块6</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x088103</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x108103</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x208403</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x048023</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x01800B</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x02800B</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x208063</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测控制</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测控制</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0001</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2105,23 +2101,23 @@
       </rPr>
       <t>080B</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x2103</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>枪1泄放</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>枪2泄放</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>断开交流接触器</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2137,87 +2133,87 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>断开交流接触器</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0001</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x010003</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x1029</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x4501</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>K5</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>K6</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>K7</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>K8</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>K9</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>K10</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0009</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0101</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0008</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0010</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0010</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2233,39 +2229,39 @@
       </rPr>
       <t>x0021</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0041</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0401</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>1枪K4</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>2枪K4</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0020</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0040</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2281,139 +2277,312 @@
       </rPr>
       <t>IBO</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>1枪K4-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>2枪K4-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>K5-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>K6-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>K7-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>K8-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>K9-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>K10-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>断开所有继电器</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>断开所有继电器</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>上电</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>断电</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6(电表1)</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6(电表2)</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0000</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>0x0000</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>gunSelect</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>断开网络</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>NetWorkCheck</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>枪1启动类型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2启动类型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>paramSet</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>基本配置检查</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>模块7</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
   </si>
   <si>
     <t>模块8</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="60" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x010003</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01800B</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02800B</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04800B</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08800B</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x108103</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x208103</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x408103</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x808103</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>120KW_电源模块1</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>120KW_电源模块2</t>
+  </si>
+  <si>
+    <t>120KW_电源模块3</t>
+  </si>
+  <si>
+    <t>120KW_电源模块4</t>
+  </si>
+  <si>
+    <t>120KW_电源模块5</t>
+  </si>
+  <si>
+    <t>120KW_电源模块6</t>
+  </si>
+  <si>
+    <t>120KW_电源模块7</t>
+  </si>
+  <si>
+    <t>120KW_电源模块8</t>
+  </si>
+  <si>
+    <t>PowerModule_120KW</t>
+  </si>
+  <si>
+    <t>120KW_麦格米特电源模块1</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>120KW_麦格米特电源模块2</t>
+  </si>
+  <si>
+    <t>120KW_麦格米特电源模块3</t>
+  </si>
+  <si>
+    <t>120KW_麦格米特电源模块4</t>
+  </si>
+  <si>
+    <t>0x048103</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x088103</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率分配</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块厂家</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>单枪模块个数</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块功率</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块额定电流</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块最小输出电压</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块最大输出电压</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦格米特电源模块设置</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>950</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>英可瑞电源模块设置</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramCheck</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块厂家查看</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2427,37 +2596,66 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>B</t>
+      <t>C</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>350</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2.77</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>0.2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
-    <t>350</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP测试</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台登入连接</t>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2872,7 +3070,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3032,6 +3230,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3223,554 +3427,615 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="43" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="43" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -4129,10 +4394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4470,11 +4735,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
-      <c r="B15" s="135" t="s">
+      <c r="A15" s="154"/>
+      <c r="B15" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="154" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -4491,9 +4756,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
+      <c r="A16" s="152"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -4508,9 +4773,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
+      <c r="A17" s="152"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="152"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -4525,9 +4790,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -4542,9 +4807,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="132"/>
+      <c r="A19" s="152"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -4605,11 +4870,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="141"/>
-      <c r="B22" s="141" t="s">
+      <c r="A22" s="160"/>
+      <c r="B22" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="160" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4626,9 +4891,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="137"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
+      <c r="A23" s="156"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4643,9 +4908,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="137"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
+      <c r="A24" s="156"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="156"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4660,9 +4925,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="137"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4677,9 +4942,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="142"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
+      <c r="A26" s="161"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -4736,11 +5001,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="143"/>
-      <c r="B29" s="146" t="s">
+      <c r="A29" s="162"/>
+      <c r="B29" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="165" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -4752,14 +5017,14 @@
       <c r="F29" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="62" t="s">
+      <c r="G29" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="144"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
+      <c r="A30" s="163"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="163"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -4769,14 +5034,14 @@
       <c r="F30" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="G30" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="144"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
+      <c r="A31" s="163"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -4786,14 +5051,14 @@
       <c r="F31" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="62" t="s">
+      <c r="G31" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="144"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
+      <c r="A32" s="163"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="163"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -4803,14 +5068,14 @@
       <c r="F32" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="145"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
+      <c r="A33" s="164"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -4820,16 +5085,16 @@
       <c r="F33" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="132"/>
-      <c r="B34" s="132" t="s">
+      <c r="A34" s="152"/>
+      <c r="B34" s="152" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="132" t="s">
+      <c r="C34" s="152" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -4846,9 +5111,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="132"/>
-      <c r="B35" s="132"/>
-      <c r="C35" s="132"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -4863,11 +5128,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="132"/>
-      <c r="B36" s="132" t="s">
+      <c r="A36" s="152"/>
+      <c r="B36" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="135" t="s">
+      <c r="C36" s="154" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="20">
@@ -4884,9 +5149,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="132"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
+      <c r="A37" s="152"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="152"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -4901,11 +5166,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="132"/>
-      <c r="B38" s="138" t="s">
+      <c r="A38" s="152"/>
+      <c r="B38" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="138" t="s">
+      <c r="C38" s="153" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -4922,9 +5187,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="132"/>
-      <c r="B39" s="132"/>
-      <c r="C39" s="132"/>
+      <c r="A39" s="152"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="152"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -4939,11 +5204,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="132"/>
-      <c r="B40" s="132" t="s">
+      <c r="A40" s="152"/>
+      <c r="B40" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="138" t="s">
+      <c r="C40" s="153" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -4955,14 +5220,14 @@
       <c r="F40" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="53" t="s">
+      <c r="G40" s="55" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="132"/>
-      <c r="B41" s="132"/>
-      <c r="C41" s="132"/>
+      <c r="A41" s="152"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="152"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -4972,14 +5237,14 @@
       <c r="F41" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="53" t="s">
+      <c r="G41" s="55" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="132"/>
-      <c r="B42" s="132"/>
-      <c r="C42" s="132"/>
+      <c r="A42" s="152"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="152"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -4989,14 +5254,14 @@
       <c r="F42" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="53" t="s">
+      <c r="G42" s="55" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="132"/>
-      <c r="B43" s="132"/>
-      <c r="C43" s="132"/>
+      <c r="A43" s="152"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -5006,14 +5271,14 @@
       <c r="F43" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="53" t="s">
+      <c r="G43" s="55" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="132"/>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132"/>
+      <c r="A44" s="152"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -5023,16 +5288,16 @@
       <c r="F44" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="53" t="s">
+      <c r="G44" s="55" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="132">
+      <c r="A45" s="152">
         <v>13</v>
       </c>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132" t="s">
+      <c r="B45" s="152"/>
+      <c r="C45" s="152" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5044,7 +5309,7 @@
       <c r="F45" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="53" t="s">
+      <c r="G45" s="55" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5065,7 +5330,7 @@
       <c r="F46" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="52" t="s">
+      <c r="G46" s="54" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5092,7 +5357,7 @@
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="58" t="s">
         <v>259</v>
       </c>
       <c r="C48" s="108" t="s">
@@ -5112,17 +5377,17 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="149"/>
-      <c r="B49" s="139" t="s">
+      <c r="A49" s="159"/>
+      <c r="B49" s="157" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="140" t="s">
-        <v>285</v>
+      <c r="C49" s="158" t="s">
+        <v>284</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
-      <c r="E49" s="48" t="s">
+      <c r="E49" s="50" t="s">
         <v>190</v>
       </c>
       <c r="F49" s="70" t="s">
@@ -5133,13 +5398,13 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="132"/>
-      <c r="B50" s="132"/>
-      <c r="C50" s="132"/>
+      <c r="A50" s="152"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="152"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="50" t="s">
         <v>191</v>
       </c>
       <c r="F50" s="70" t="s">
@@ -5150,13 +5415,13 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="132"/>
-      <c r="B51" s="132"/>
-      <c r="C51" s="132"/>
+      <c r="A51" s="152"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="152"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="50" t="s">
         <v>192</v>
       </c>
       <c r="F51" s="70" t="s">
@@ -5167,29 +5432,29 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="47"/>
-      <c r="B52" s="43" t="s">
+      <c r="A52" s="49"/>
+      <c r="B52" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="C52" s="106" t="s">
+      <c r="C52" s="141" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="20">
         <v>51</v>
       </c>
-      <c r="E52" s="44" t="s">
+      <c r="E52" s="46" t="s">
         <v>185</v>
       </c>
       <c r="F52" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="60">
+      <c r="G52" s="62">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="47"/>
-      <c r="B53" s="43" t="s">
+      <c r="A53" s="49"/>
+      <c r="B53" s="45" t="s">
         <v>183</v>
       </c>
       <c r="C53" s="108" t="s">
@@ -5198,13 +5463,13 @@
       <c r="D53" s="20">
         <v>52</v>
       </c>
-      <c r="E53" s="44" t="s">
+      <c r="E53" s="46" t="s">
         <v>185</v>
       </c>
       <c r="F53" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="58">
+      <c r="G53" s="60">
         <v>4</v>
       </c>
     </row>
@@ -5251,17 +5516,17 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="141"/>
-      <c r="B56" s="136" t="s">
+      <c r="A56" s="160"/>
+      <c r="B56" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="141" t="s">
+      <c r="C56" s="160" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
         <v>55</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="147" t="s">
         <v>84</v>
       </c>
       <c r="F56" s="67" t="s">
@@ -5272,9 +5537,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="137"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
+      <c r="A57" s="156"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="156"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5282,16 +5547,16 @@
         <v>134</v>
       </c>
       <c r="F57" s="128" t="s">
-        <v>463</v>
+        <v>510</v>
       </c>
       <c r="G57" s="128" t="s">
-        <v>462</v>
+        <v>509</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="137"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
+      <c r="A58" s="156"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="156"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5299,33 +5564,33 @@
         <v>135</v>
       </c>
       <c r="F58" s="128" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="G58" s="128" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="137"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
+      <c r="A59" s="156"/>
+      <c r="B59" s="156"/>
+      <c r="C59" s="156"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F59" s="130" t="s">
+      <c r="F59" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="130" t="s">
+      <c r="G59" s="144" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="137"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="137"/>
+      <c r="A60" s="156"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="156"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5333,16 +5598,16 @@
         <v>137</v>
       </c>
       <c r="F60" s="128" t="s">
-        <v>463</v>
+        <v>510</v>
       </c>
       <c r="G60" s="128" t="s">
-        <v>462</v>
+        <v>509</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="137"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
+      <c r="A61" s="156"/>
+      <c r="B61" s="156"/>
+      <c r="C61" s="156"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5350,16 +5615,16 @@
         <v>138</v>
       </c>
       <c r="F61" s="128" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="G61" s="128" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="137"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
+      <c r="A62" s="156"/>
+      <c r="B62" s="156"/>
+      <c r="C62" s="156"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -5416,84 +5681,84 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="149"/>
-      <c r="B65" s="139" t="s">
+      <c r="A65" s="159"/>
+      <c r="B65" s="157" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="140" t="s">
-        <v>285</v>
+      <c r="C65" s="158" t="s">
+        <v>284</v>
       </c>
       <c r="D65" s="20">
         <v>64</v>
       </c>
-      <c r="E65" s="48" t="s">
+      <c r="E65" s="50" t="s">
         <v>193</v>
       </c>
       <c r="F65" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="G65" s="46" t="s">
+      <c r="G65" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="132"/>
-      <c r="B66" s="132"/>
-      <c r="C66" s="132"/>
+      <c r="A66" s="152"/>
+      <c r="B66" s="152"/>
+      <c r="C66" s="152"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="50" t="s">
         <v>194</v>
       </c>
       <c r="F66" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="G66" s="46" t="s">
+      <c r="G66" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="132"/>
-      <c r="B67" s="132"/>
-      <c r="C67" s="132"/>
+      <c r="A67" s="152"/>
+      <c r="B67" s="152"/>
+      <c r="C67" s="152"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
-      <c r="E67" s="48" t="s">
+      <c r="E67" s="50" t="s">
         <v>195</v>
       </c>
       <c r="F67" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="G67" s="46" t="s">
+      <c r="G67" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="43"/>
-      <c r="B68" s="63" t="s">
+      <c r="A68" s="45"/>
+      <c r="B68" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C68" s="43" t="s">
+      <c r="C68" s="45" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="20">
         <v>67</v>
       </c>
-      <c r="E68" s="64" t="s">
+      <c r="E68" s="65" t="s">
         <v>186</v>
       </c>
       <c r="F68" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="G68" s="60">
+      <c r="G68" s="62">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43" t="s">
+      <c r="A69" s="45"/>
+      <c r="B69" s="45" t="s">
         <v>187</v>
       </c>
       <c r="C69" s="108" t="s">
@@ -5502,18 +5767,18 @@
       <c r="D69" s="20">
         <v>68</v>
       </c>
-      <c r="E69" s="44" t="s">
+      <c r="E69" s="46" t="s">
         <v>186</v>
       </c>
       <c r="F69" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="59">
+      <c r="G69" s="61">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
+      <c r="A70" s="38"/>
       <c r="B70" s="114" t="s">
         <v>128</v>
       </c>
@@ -5523,13 +5788,13 @@
       <c r="D70" s="20">
         <v>69</v>
       </c>
-      <c r="E70" s="38" t="s">
+      <c r="E70" s="40" t="s">
         <v>128</v>
       </c>
       <c r="F70" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G70" s="36" t="s">
+      <c r="G70" s="38" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5547,133 +5812,133 @@
       <c r="E71" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F71" s="130" t="s">
+      <c r="F71" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="130" t="s">
+      <c r="G71" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="141"/>
-      <c r="B72" s="136" t="s">
+      <c r="A72" s="160"/>
+      <c r="B72" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="141" t="s">
+      <c r="C72" s="160" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
         <v>71</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E72" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="F72" s="130" t="s">
+      <c r="F72" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="131" t="s">
+      <c r="G72" s="36" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="137"/>
-      <c r="B73" s="137"/>
-      <c r="C73" s="137"/>
+      <c r="A73" s="156"/>
+      <c r="B73" s="156"/>
+      <c r="C73" s="156"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
-      <c r="E73" s="39" t="s">
+      <c r="E73" s="41" t="s">
         <v>154</v>
       </c>
       <c r="F73" s="128" t="s">
-        <v>463</v>
+        <v>510</v>
       </c>
       <c r="G73" s="128" t="s">
-        <v>462</v>
+        <v>509</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="137"/>
-      <c r="B74" s="137"/>
-      <c r="C74" s="137"/>
+      <c r="A74" s="156"/>
+      <c r="B74" s="156"/>
+      <c r="C74" s="156"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
-      <c r="E74" s="37" t="s">
+      <c r="E74" s="39" t="s">
         <v>155</v>
       </c>
       <c r="F74" s="128" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="G74" s="128" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="137"/>
-      <c r="B75" s="137"/>
-      <c r="C75" s="137"/>
+      <c r="A75" s="156"/>
+      <c r="B75" s="156"/>
+      <c r="C75" s="156"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
-      <c r="E75" s="37" t="s">
+      <c r="E75" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="F75" s="130" t="s">
+      <c r="F75" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="130" t="s">
+      <c r="G75" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="137"/>
-      <c r="B76" s="137"/>
-      <c r="C76" s="137"/>
+      <c r="A76" s="156"/>
+      <c r="B76" s="156"/>
+      <c r="C76" s="156"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
-      <c r="E76" s="37" t="s">
+      <c r="E76" s="39" t="s">
         <v>157</v>
       </c>
       <c r="F76" s="128" t="s">
-        <v>463</v>
+        <v>510</v>
       </c>
       <c r="G76" s="128" t="s">
-        <v>462</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="137"/>
-      <c r="B77" s="137"/>
-      <c r="C77" s="137"/>
+      <c r="A77" s="156"/>
+      <c r="B77" s="156"/>
+      <c r="C77" s="156"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
-      <c r="E77" s="37" t="s">
+      <c r="E77" s="39" t="s">
         <v>158</v>
       </c>
       <c r="F77" s="128" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="G77" s="128" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="137"/>
-      <c r="B78" s="137"/>
-      <c r="C78" s="137"/>
+      <c r="A78" s="156"/>
+      <c r="B78" s="156"/>
+      <c r="C78" s="156"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
-      <c r="E78" s="37" t="s">
+      <c r="E78" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="F78" s="130" t="s">
+      <c r="F78" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G78" s="130" t="s">
+      <c r="G78" s="37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5720,11 +5985,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="135"/>
-      <c r="B81" s="135" t="s">
+      <c r="A81" s="154"/>
+      <c r="B81" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="138" t="s">
+      <c r="C81" s="153" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5741,9 +6006,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="132"/>
-      <c r="B82" s="132"/>
-      <c r="C82" s="132"/>
+      <c r="A82" s="152"/>
+      <c r="B82" s="152"/>
+      <c r="C82" s="152"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -5758,9 +6023,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="132"/>
-      <c r="B83" s="132"/>
-      <c r="C83" s="132"/>
+      <c r="A83" s="152"/>
+      <c r="B83" s="152"/>
+      <c r="C83" s="152"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -5775,9 +6040,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="132"/>
-      <c r="B84" s="132"/>
-      <c r="C84" s="132"/>
+      <c r="A84" s="152"/>
+      <c r="B84" s="152"/>
+      <c r="C84" s="152"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -5857,7 +6122,7 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C88" s="108" t="s">
         <v>153</v>
@@ -5899,7 +6164,7 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="114" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C90" s="108" t="s">
         <v>152</v>
@@ -5934,7 +6199,7 @@
       <c r="F91" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G91" s="53" t="s">
+      <c r="G91" s="55" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5955,7 +6220,7 @@
       <c r="F92" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G92" s="53" t="s">
+      <c r="G92" s="55" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5976,7 +6241,7 @@
       <c r="F93" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G93" s="53" t="s">
+      <c r="G93" s="55" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5997,7 +6262,7 @@
       <c r="F94" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G94" s="53" t="s">
+      <c r="G94" s="55" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6018,7 +6283,7 @@
       <c r="F95" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G95" s="53" t="s">
+      <c r="G95" s="55" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6039,17 +6304,17 @@
       <c r="F96" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G96" s="53" t="s">
+      <c r="G96" s="55" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="66"/>
       <c r="B97" s="115" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C97" s="109" t="s">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="D97" s="66">
         <v>96</v>
@@ -6060,16 +6325,16 @@
       <c r="F97" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G97" s="61" t="s">
-        <v>73</v>
+      <c r="G97" s="145" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="66"/>
       <c r="B98" s="115" t="s">
-        <v>270</v>
-      </c>
-      <c r="C98" s="109" t="s">
+        <v>269</v>
+      </c>
+      <c r="C98" s="151" t="s">
         <v>76</v>
       </c>
       <c r="D98" s="66">
@@ -6081,23 +6346,23 @@
       <c r="F98" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G98" s="65" t="s">
-        <v>73</v>
+      <c r="G98" s="145" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="147"/>
-      <c r="B99" s="147" t="s">
-        <v>295</v>
-      </c>
-      <c r="C99" s="147" t="s">
+      <c r="A99" s="166"/>
+      <c r="B99" s="166" t="s">
+        <v>294</v>
+      </c>
+      <c r="C99" s="166" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="81">
         <v>98</v>
       </c>
       <c r="E99" s="96" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F99" s="80" t="s">
         <v>73</v>
@@ -6107,14 +6372,14 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="147"/>
-      <c r="B100" s="147"/>
-      <c r="C100" s="147"/>
+      <c r="A100" s="166"/>
+      <c r="B100" s="166"/>
+      <c r="C100" s="166"/>
       <c r="D100" s="81">
         <v>99</v>
       </c>
       <c r="E100" s="96" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F100" s="80" t="s">
         <v>73</v>
@@ -6124,14 +6389,14 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="147"/>
-      <c r="B101" s="147"/>
-      <c r="C101" s="147"/>
+      <c r="A101" s="166"/>
+      <c r="B101" s="166"/>
+      <c r="C101" s="166"/>
       <c r="D101" s="81">
         <v>100</v>
       </c>
       <c r="E101" s="96" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F101" s="80" t="s">
         <v>73</v>
@@ -6143,16 +6408,16 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="82"/>
       <c r="B102" s="116" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C102" s="110" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D102" s="81">
         <v>101</v>
       </c>
       <c r="E102" s="96" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F102" s="80" t="s">
         <v>73</v>
@@ -6162,11 +6427,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="147"/>
-      <c r="B103" s="147" t="s">
-        <v>297</v>
-      </c>
-      <c r="C103" s="147" t="s">
+      <c r="A103" s="166"/>
+      <c r="B103" s="166" t="s">
+        <v>296</v>
+      </c>
+      <c r="C103" s="166" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="76">
@@ -6183,9 +6448,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="148"/>
-      <c r="B104" s="148"/>
-      <c r="C104" s="148"/>
+      <c r="A104" s="169"/>
+      <c r="B104" s="169"/>
+      <c r="C104" s="169"/>
       <c r="D104" s="76">
         <v>103</v>
       </c>
@@ -6200,9 +6465,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="148"/>
-      <c r="B105" s="148"/>
-      <c r="C105" s="148"/>
+      <c r="A105" s="169"/>
+      <c r="B105" s="169"/>
+      <c r="C105" s="169"/>
       <c r="D105" s="76">
         <v>104</v>
       </c>
@@ -6219,7 +6484,7 @@
     <row r="106" spans="1:7" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="74"/>
       <c r="B106" s="114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C106" s="109" t="s">
         <v>58</v>
@@ -6228,10 +6493,10 @@
         <v>105</v>
       </c>
       <c r="E106" s="96" t="s">
-        <v>298</v>
-      </c>
-      <c r="F106" s="129" t="s">
-        <v>461</v>
+        <v>297</v>
+      </c>
+      <c r="F106" s="142" t="s">
+        <v>506</v>
       </c>
       <c r="G106" s="71" t="s">
         <v>73</v>
@@ -6240,16 +6505,16 @@
     <row r="107" spans="1:7" s="73" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="77"/>
       <c r="B107" s="115" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C107" s="109" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D107" s="98">
         <v>106</v>
       </c>
       <c r="E107" s="98" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F107" s="75" t="s">
         <v>73</v>
@@ -6261,7 +6526,7 @@
     <row r="108" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="77"/>
       <c r="B108" s="115" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C108" s="109" t="s">
         <v>76</v>
@@ -6270,7 +6535,7 @@
         <v>107</v>
       </c>
       <c r="E108" s="98" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F108" s="75" t="s">
         <v>73</v>
@@ -6282,7 +6547,7 @@
     <row r="109" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="77"/>
       <c r="B109" s="115" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C109" s="109" t="s">
         <v>76</v>
@@ -6291,7 +6556,7 @@
         <v>108</v>
       </c>
       <c r="E109" s="98" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F109" s="75" t="s">
         <v>73</v>
@@ -6303,7 +6568,7 @@
     <row r="110" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="77"/>
       <c r="B110" s="115" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C110" s="109" t="s">
         <v>76</v>
@@ -6312,7 +6577,7 @@
         <v>109</v>
       </c>
       <c r="E110" s="98" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F110" s="75" t="s">
         <v>73</v>
@@ -6324,7 +6589,7 @@
     <row r="111" spans="1:7" s="73" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="77"/>
       <c r="B111" s="114" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C111" s="109" t="s">
         <v>76</v>
@@ -6333,7 +6598,7 @@
         <v>110</v>
       </c>
       <c r="E111" s="96" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F111" s="75" t="s">
         <v>73</v>
@@ -6345,7 +6610,7 @@
     <row r="112" spans="1:7" s="73" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="78"/>
       <c r="B112" s="114" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C112" s="109" t="s">
         <v>76</v>
@@ -6354,7 +6619,7 @@
         <v>111</v>
       </c>
       <c r="E112" s="96" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F112" s="79" t="s">
         <v>73</v>
@@ -6366,16 +6631,16 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="100"/>
       <c r="B113" s="114" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C113" s="108" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D113" s="115">
         <v>112</v>
       </c>
       <c r="E113" s="96" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F113" s="89" t="s">
         <v>73</v>
@@ -6387,16 +6652,16 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="100"/>
       <c r="B114" s="114" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C114" s="108" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D114" s="115">
         <v>113</v>
       </c>
       <c r="E114" s="96" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F114" s="89" t="s">
         <v>73</v>
@@ -6408,16 +6673,16 @@
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="100"/>
       <c r="B115" s="114" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C115" s="108" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D115" s="115">
         <v>114</v>
       </c>
       <c r="E115" s="96" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F115" s="89" t="s">
         <v>73</v>
@@ -6429,16 +6694,16 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="100"/>
       <c r="B116" s="114" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C116" s="108" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D116" s="115">
         <v>115</v>
       </c>
       <c r="E116" s="96" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F116" s="89" t="s">
         <v>73</v>
@@ -6450,16 +6715,16 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="100"/>
       <c r="B117" s="114" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C117" s="108" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D117" s="115">
         <v>116</v>
       </c>
       <c r="E117" s="96" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F117" s="89" t="s">
         <v>73</v>
@@ -6471,16 +6736,16 @@
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="100"/>
       <c r="B118" s="114" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C118" s="108" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D118" s="115">
         <v>117</v>
       </c>
       <c r="E118" s="96" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F118" s="89" t="s">
         <v>73</v>
@@ -6492,16 +6757,16 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="100"/>
       <c r="B119" s="114" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C119" s="108" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D119" s="115">
         <v>118</v>
       </c>
       <c r="E119" s="96" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F119" s="89" t="s">
         <v>73</v>
@@ -6513,703 +6778,703 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="108"/>
       <c r="B120" s="114" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C120" s="108" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D120" s="115">
         <v>119</v>
       </c>
       <c r="E120" s="108" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F120" s="108" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G120" s="108" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="112"/>
       <c r="B121" s="114" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C121" s="112" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D121" s="115">
         <v>120</v>
       </c>
       <c r="E121" s="112" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F121" s="112" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G121" s="112" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="112"/>
       <c r="B122" s="114" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C122" s="112" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D122" s="115">
         <v>121</v>
       </c>
       <c r="E122" s="112" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F122" s="112" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G122" s="112" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="118"/>
       <c r="B123" s="118" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C123" s="118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D123" s="117">
         <v>122</v>
       </c>
       <c r="E123" s="118" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F123" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G123" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="118"/>
       <c r="B124" s="118" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C124" s="118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D124" s="117">
         <v>123</v>
       </c>
       <c r="E124" s="118" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F124" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G124" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="118"/>
       <c r="B125" s="118" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C125" s="118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D125" s="117">
         <v>124</v>
       </c>
       <c r="E125" s="118" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F125" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G125" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="118"/>
       <c r="B126" s="118" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C126" s="118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D126" s="117">
         <v>125</v>
       </c>
       <c r="E126" s="118" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F126" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G126" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="118"/>
       <c r="B127" s="118" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C127" s="118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D127" s="117">
         <v>126</v>
       </c>
       <c r="E127" s="118" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F127" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G127" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="118"/>
       <c r="B128" s="118" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C128" s="118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D128" s="117">
         <v>127</v>
       </c>
       <c r="E128" s="118" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F128" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G128" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="118"/>
       <c r="B129" s="118" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C129" s="118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D129" s="117">
         <v>128</v>
       </c>
       <c r="E129" s="118" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F129" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G129" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="118"/>
       <c r="B130" s="118" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C130" s="118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D130" s="117">
         <v>129</v>
       </c>
       <c r="E130" s="118" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F130" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G130" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="118"/>
       <c r="B131" s="118" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C131" s="118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D131" s="117">
         <v>130</v>
       </c>
       <c r="E131" s="118" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F131" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G131" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="118"/>
       <c r="B132" s="118" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C132" s="118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D132" s="117">
         <v>131</v>
       </c>
       <c r="E132" s="118" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F132" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G132" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="118"/>
       <c r="B133" s="118" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C133" s="118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D133" s="117">
         <v>132</v>
       </c>
       <c r="E133" s="118" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F133" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G133" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="118"/>
       <c r="B134" s="118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C134" s="118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D134" s="117">
         <v>133</v>
       </c>
       <c r="E134" s="118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F134" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G134" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="118"/>
       <c r="B135" s="118" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C135" s="118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D135" s="117">
         <v>134</v>
       </c>
       <c r="E135" s="118" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F135" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G135" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="118"/>
       <c r="B136" s="118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C136" s="118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D136" s="117">
         <v>135</v>
       </c>
       <c r="E136" s="118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F136" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G136" s="118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="119"/>
       <c r="B137" s="119" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C137" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D137" s="119">
         <v>136</v>
       </c>
       <c r="E137" s="120" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F137" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G137" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="119"/>
       <c r="B138" s="119" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C138" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D138" s="119">
         <v>137</v>
       </c>
       <c r="E138" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F138" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G138" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="119"/>
       <c r="B139" s="119" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C139" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D139" s="119">
         <v>138</v>
       </c>
       <c r="E139" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F139" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G139" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="119"/>
       <c r="B140" s="119" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C140" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D140" s="119">
         <v>139</v>
       </c>
       <c r="E140" s="120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F140" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G140" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="119"/>
       <c r="B141" s="119" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C141" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D141" s="119">
         <v>140</v>
       </c>
       <c r="E141" s="120" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F141" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G141" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="119"/>
       <c r="B142" s="119" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C142" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D142" s="119">
         <v>141</v>
       </c>
       <c r="E142" s="120" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F142" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G142" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="119"/>
       <c r="B143" s="119" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C143" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D143" s="119">
         <v>142</v>
       </c>
       <c r="E143" s="120" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F143" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G143" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="119"/>
       <c r="B144" s="119" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C144" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D144" s="119">
         <v>143</v>
       </c>
       <c r="E144" s="120" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F144" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G144" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="119"/>
       <c r="B145" s="119" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C145" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D145" s="119">
         <v>144</v>
       </c>
       <c r="E145" s="120" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F145" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G145" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="119"/>
       <c r="B146" s="119" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C146" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D146" s="119">
         <v>145</v>
       </c>
       <c r="E146" s="120" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F146" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G146" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="119"/>
       <c r="B147" s="119" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C147" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D147" s="119">
         <v>146</v>
       </c>
       <c r="E147" s="120" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F147" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G147" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="119"/>
       <c r="B148" s="119" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C148" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D148" s="119">
         <v>147</v>
       </c>
       <c r="E148" s="120" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F148" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G148" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="119"/>
       <c r="B149" s="119" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C149" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D149" s="119">
         <v>148</v>
       </c>
       <c r="E149" s="120" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F149" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G149" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="119"/>
       <c r="B150" s="119" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C150" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D150" s="119">
         <v>149</v>
       </c>
       <c r="E150" s="120" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F150" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G150" s="119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="120"/>
       <c r="B151" s="120" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C151" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D151" s="120">
         <v>150</v>
       </c>
       <c r="E151" s="120" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F151" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G151" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="121"/>
       <c r="B152" s="121" t="s">
+        <v>451</v>
+      </c>
+      <c r="C152" s="121" t="s">
         <v>452</v>
-      </c>
-      <c r="C152" s="121" t="s">
-        <v>453</v>
       </c>
       <c r="D152" s="121">
         <v>151</v>
       </c>
       <c r="E152" s="121" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F152" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G152" s="121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="134"/>
-      <c r="B153" s="133" t="s">
-        <v>457</v>
-      </c>
-      <c r="C153" s="132" t="s">
+      <c r="A153" s="171"/>
+      <c r="B153" s="170" t="s">
         <v>456</v>
+      </c>
+      <c r="C153" s="152" t="s">
+        <v>455</v>
       </c>
       <c r="D153" s="123">
         <v>152</v>
@@ -7218,64 +7483,610 @@
         <v>166</v>
       </c>
       <c r="F153" s="128" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G153" s="128" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="134"/>
-      <c r="B154" s="134"/>
-      <c r="C154" s="132"/>
+      <c r="A154" s="171"/>
+      <c r="B154" s="171"/>
+      <c r="C154" s="152"/>
       <c r="D154" s="123">
         <v>153</v>
       </c>
       <c r="E154" s="127" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F154" s="128" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G154" s="128" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="134"/>
-      <c r="B155" s="134"/>
-      <c r="C155" s="132"/>
+      <c r="A155" s="171"/>
+      <c r="B155" s="171"/>
+      <c r="C155" s="152"/>
       <c r="D155" s="123">
         <v>154</v>
       </c>
       <c r="E155" s="127" t="s">
+        <v>454</v>
+      </c>
+      <c r="F155" s="128" t="s">
+        <v>457</v>
+      </c>
+      <c r="G155" s="128" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="130"/>
+      <c r="B156" s="131" t="s">
+        <v>469</v>
+      </c>
+      <c r="C156" s="132" t="s">
+        <v>477</v>
+      </c>
+      <c r="D156" s="133">
+        <v>155</v>
+      </c>
+      <c r="E156" s="131" t="s">
+        <v>469</v>
+      </c>
+      <c r="F156" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="G156" s="129">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="130"/>
+      <c r="B157" s="131" t="s">
+        <v>470</v>
+      </c>
+      <c r="C157" s="132" t="s">
+        <v>477</v>
+      </c>
+      <c r="D157" s="133">
+        <v>156</v>
+      </c>
+      <c r="E157" s="131" t="s">
+        <v>470</v>
+      </c>
+      <c r="F157" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="G157" s="129">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="130"/>
+      <c r="B158" s="131" t="s">
+        <v>471</v>
+      </c>
+      <c r="C158" s="132" t="s">
+        <v>477</v>
+      </c>
+      <c r="D158" s="133">
+        <v>157</v>
+      </c>
+      <c r="E158" s="131" t="s">
+        <v>471</v>
+      </c>
+      <c r="F158" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="G158" s="129">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="130"/>
+      <c r="B159" s="131" t="s">
+        <v>472</v>
+      </c>
+      <c r="C159" s="132" t="s">
+        <v>477</v>
+      </c>
+      <c r="D159" s="133">
+        <v>158</v>
+      </c>
+      <c r="E159" s="131" t="s">
+        <v>472</v>
+      </c>
+      <c r="F159" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="G159" s="129">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="130"/>
+      <c r="B160" s="131" t="s">
+        <v>473</v>
+      </c>
+      <c r="C160" s="132" t="s">
+        <v>477</v>
+      </c>
+      <c r="D160" s="133">
+        <v>159</v>
+      </c>
+      <c r="E160" s="131" t="s">
+        <v>473</v>
+      </c>
+      <c r="F160" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="G160" s="129">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="130"/>
+      <c r="B161" s="131" t="s">
+        <v>474</v>
+      </c>
+      <c r="C161" s="132" t="s">
+        <v>477</v>
+      </c>
+      <c r="D161" s="133">
+        <v>160</v>
+      </c>
+      <c r="E161" s="131" t="s">
+        <v>474</v>
+      </c>
+      <c r="F161" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="G161" s="129">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="130"/>
+      <c r="B162" s="131" t="s">
+        <v>475</v>
+      </c>
+      <c r="C162" s="132" t="s">
+        <v>477</v>
+      </c>
+      <c r="D162" s="133">
+        <v>161</v>
+      </c>
+      <c r="E162" s="131" t="s">
+        <v>475</v>
+      </c>
+      <c r="F162" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="G162" s="129">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="130"/>
+      <c r="B163" s="131" t="s">
+        <v>476</v>
+      </c>
+      <c r="C163" s="132" t="s">
+        <v>477</v>
+      </c>
+      <c r="D163" s="133">
+        <v>162</v>
+      </c>
+      <c r="E163" s="131" t="s">
+        <v>476</v>
+      </c>
+      <c r="F163" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="G163" s="129">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="130"/>
+      <c r="B164" s="131" t="s">
+        <v>478</v>
+      </c>
+      <c r="C164" s="132" t="s">
+        <v>477</v>
+      </c>
+      <c r="D164" s="133">
+        <v>163</v>
+      </c>
+      <c r="E164" s="131" t="s">
+        <v>478</v>
+      </c>
+      <c r="F164" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="G164" s="134">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="130"/>
+      <c r="B165" s="131" t="s">
+        <v>479</v>
+      </c>
+      <c r="C165" s="132" t="s">
+        <v>477</v>
+      </c>
+      <c r="D165" s="133">
+        <v>164</v>
+      </c>
+      <c r="E165" s="131" t="s">
+        <v>479</v>
+      </c>
+      <c r="F165" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="G165" s="134">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="130"/>
+      <c r="B166" s="131" t="s">
+        <v>480</v>
+      </c>
+      <c r="C166" s="132" t="s">
+        <v>477</v>
+      </c>
+      <c r="D166" s="133">
+        <v>165</v>
+      </c>
+      <c r="E166" s="131" t="s">
+        <v>480</v>
+      </c>
+      <c r="F166" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="G166" s="134">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="130"/>
+      <c r="B167" s="131" t="s">
+        <v>481</v>
+      </c>
+      <c r="C167" s="132" t="s">
+        <v>477</v>
+      </c>
+      <c r="D167" s="133">
+        <v>166</v>
+      </c>
+      <c r="E167" s="131" t="s">
+        <v>481</v>
+      </c>
+      <c r="F167" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="G167" s="134">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="155"/>
+      <c r="B168" s="155" t="s">
+        <v>491</v>
+      </c>
+      <c r="C168" s="155" t="s">
         <v>455</v>
       </c>
-      <c r="F155" s="128" t="s">
-        <v>458</v>
-      </c>
-      <c r="G155" s="128" t="s">
-        <v>458</v>
+      <c r="D168" s="133">
+        <v>167</v>
+      </c>
+      <c r="E168" s="135" t="s">
+        <v>484</v>
+      </c>
+      <c r="F168" s="128" t="s">
+        <v>457</v>
+      </c>
+      <c r="G168" s="128" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="156"/>
+      <c r="B169" s="167"/>
+      <c r="C169" s="167"/>
+      <c r="D169" s="133">
+        <v>168</v>
+      </c>
+      <c r="E169" s="135" t="s">
+        <v>485</v>
+      </c>
+      <c r="F169" s="128" t="s">
+        <v>492</v>
+      </c>
+      <c r="G169" s="128" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="156"/>
+      <c r="B170" s="167"/>
+      <c r="C170" s="167"/>
+      <c r="D170" s="133">
+        <v>169</v>
+      </c>
+      <c r="E170" s="135" t="s">
+        <v>486</v>
+      </c>
+      <c r="F170" s="128" t="s">
+        <v>492</v>
+      </c>
+      <c r="G170" s="128" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="156"/>
+      <c r="B171" s="167"/>
+      <c r="C171" s="167"/>
+      <c r="D171" s="133">
+        <v>170</v>
+      </c>
+      <c r="E171" s="135" t="s">
+        <v>487</v>
+      </c>
+      <c r="F171" s="128" t="s">
+        <v>493</v>
+      </c>
+      <c r="G171" s="128" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="156"/>
+      <c r="B172" s="167"/>
+      <c r="C172" s="167"/>
+      <c r="D172" s="133">
+        <v>171</v>
+      </c>
+      <c r="E172" s="135" t="s">
+        <v>488</v>
+      </c>
+      <c r="F172" s="128" t="s">
+        <v>494</v>
+      </c>
+      <c r="G172" s="128" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="156"/>
+      <c r="B173" s="167"/>
+      <c r="C173" s="167"/>
+      <c r="D173" s="133">
+        <v>172</v>
+      </c>
+      <c r="E173" s="135" t="s">
+        <v>489</v>
+      </c>
+      <c r="F173" s="128" t="s">
+        <v>495</v>
+      </c>
+      <c r="G173" s="128" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="161"/>
+      <c r="B174" s="168"/>
+      <c r="C174" s="168"/>
+      <c r="D174" s="133">
+        <v>173</v>
+      </c>
+      <c r="E174" s="135" t="s">
+        <v>490</v>
+      </c>
+      <c r="F174" s="128" t="s">
+        <v>496</v>
+      </c>
+      <c r="G174" s="128" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="155"/>
+      <c r="B175" s="155" t="s">
+        <v>497</v>
+      </c>
+      <c r="C175" s="155" t="s">
+        <v>455</v>
+      </c>
+      <c r="D175" s="133">
+        <v>174</v>
+      </c>
+      <c r="E175" s="136" t="s">
+        <v>484</v>
+      </c>
+      <c r="F175" s="128" t="s">
+        <v>457</v>
+      </c>
+      <c r="G175" s="128" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="156"/>
+      <c r="B176" s="167"/>
+      <c r="C176" s="167"/>
+      <c r="D176" s="133">
+        <v>175</v>
+      </c>
+      <c r="E176" s="136" t="s">
+        <v>485</v>
+      </c>
+      <c r="F176" s="128" t="s">
+        <v>498</v>
+      </c>
+      <c r="G176" s="128" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="156"/>
+      <c r="B177" s="167"/>
+      <c r="C177" s="167"/>
+      <c r="D177" s="133">
+        <v>176</v>
+      </c>
+      <c r="E177" s="136" t="s">
+        <v>486</v>
+      </c>
+      <c r="F177" s="128" t="s">
+        <v>499</v>
+      </c>
+      <c r="G177" s="128" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="156"/>
+      <c r="B178" s="167"/>
+      <c r="C178" s="167"/>
+      <c r="D178" s="133">
+        <v>177</v>
+      </c>
+      <c r="E178" s="136" t="s">
+        <v>487</v>
+      </c>
+      <c r="F178" s="128" t="s">
+        <v>500</v>
+      </c>
+      <c r="G178" s="128" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="156"/>
+      <c r="B179" s="167"/>
+      <c r="C179" s="167"/>
+      <c r="D179" s="133">
+        <v>178</v>
+      </c>
+      <c r="E179" s="136" t="s">
+        <v>488</v>
+      </c>
+      <c r="F179" s="128" t="s">
+        <v>502</v>
+      </c>
+      <c r="G179" s="128" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="156"/>
+      <c r="B180" s="167"/>
+      <c r="C180" s="167"/>
+      <c r="D180" s="133">
+        <v>179</v>
+      </c>
+      <c r="E180" s="136" t="s">
+        <v>489</v>
+      </c>
+      <c r="F180" s="128" t="s">
+        <v>495</v>
+      </c>
+      <c r="G180" s="128" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="161"/>
+      <c r="B181" s="168"/>
+      <c r="C181" s="168"/>
+      <c r="D181" s="133">
+        <v>180</v>
+      </c>
+      <c r="E181" s="136" t="s">
+        <v>490</v>
+      </c>
+      <c r="F181" s="128" t="s">
+        <v>501</v>
+      </c>
+      <c r="G181" s="128" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="143"/>
+      <c r="B182" s="141" t="s">
+        <v>504</v>
+      </c>
+      <c r="C182" s="140" t="s">
+        <v>503</v>
+      </c>
+      <c r="D182" s="133">
+        <v>181</v>
+      </c>
+      <c r="E182" s="141" t="s">
+        <v>485</v>
+      </c>
+      <c r="F182" s="140" t="s">
+        <v>505</v>
+      </c>
+      <c r="G182" s="140" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="143"/>
+      <c r="B183" s="174" t="s">
+        <v>512</v>
+      </c>
+      <c r="C183" s="150" t="s">
+        <v>58</v>
+      </c>
+      <c r="D183" s="133">
+        <v>182</v>
+      </c>
+      <c r="E183" s="174" t="s">
+        <v>512</v>
+      </c>
+      <c r="F183" s="150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G183" s="150" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="51">
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
     <mergeCell ref="C103:C105"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A168:A174"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="A153:A155"/>
     <mergeCell ref="C56:C62"/>
     <mergeCell ref="B72:B78"/>
-    <mergeCell ref="A65:A67"/>
     <mergeCell ref="B65:B67"/>
     <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C40:C45"/>
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="B99:B101"/>
     <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A81:A84"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="B34:B35"/>
@@ -7289,9 +8100,9 @@
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B56:B62"/>
@@ -7300,13 +8111,13 @@
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="B40:B45"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A65:A67"/>
   </mergeCells>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -7326,19 +8137,19 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="100"/>
       <c r="B1" s="114" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C1" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1" s="115">
         <v>122</v>
       </c>
       <c r="E1" s="96" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F1" s="86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G1" s="86" t="s">
         <v>235</v>
@@ -7347,19 +8158,19 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="100"/>
       <c r="B2" s="114" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C2" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" s="115">
         <v>123</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F2" s="99" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G2" s="96" t="s">
         <v>236</v>
@@ -7368,19 +8179,19 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="100"/>
       <c r="B3" s="114" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C3" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D3" s="115">
         <v>124</v>
       </c>
       <c r="E3" s="96" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F3" s="86" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G3" s="86" t="s">
         <v>235</v>
@@ -7389,19 +8200,19 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="100"/>
       <c r="B4" s="114" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C4" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D4" s="115">
         <v>125</v>
       </c>
       <c r="E4" s="96" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F4" s="86" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G4" s="86" t="s">
         <v>236</v>
@@ -7410,19 +8221,19 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="100"/>
       <c r="B5" s="114" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C5" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5" s="115">
         <v>126</v>
       </c>
       <c r="E5" s="96" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F5" s="86" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G5" s="99" t="s">
         <v>235</v>
@@ -7431,19 +8242,19 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="100"/>
       <c r="B6" s="114" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C6" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D6" s="115">
         <v>127</v>
       </c>
       <c r="E6" s="96" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F6" s="99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G6" s="99" t="s">
         <v>235</v>
@@ -7452,19 +8263,19 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="100"/>
       <c r="B7" s="114" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C7" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D7" s="115">
         <v>128</v>
       </c>
       <c r="E7" s="96" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F7" s="99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G7" s="99" t="s">
         <v>235</v>
@@ -7473,19 +8284,19 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="100"/>
       <c r="B8" s="114" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C8" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D8" s="115">
         <v>129</v>
       </c>
       <c r="E8" s="96" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G8" s="99" t="s">
         <v>236</v>
@@ -7494,19 +8305,19 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="114" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C9" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D9" s="115">
         <v>130</v>
       </c>
       <c r="E9" s="96" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F9" s="86" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G9" s="99" t="s">
         <v>235</v>
@@ -7515,19 +8326,19 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="100"/>
       <c r="B10" s="114" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C10" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D10" s="115">
         <v>131</v>
       </c>
       <c r="E10" s="96" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F10" s="99" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G10" s="99" t="s">
         <v>235</v>
@@ -7536,19 +8347,19 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="100"/>
       <c r="B11" s="114" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C11" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D11" s="115">
         <v>132</v>
       </c>
       <c r="E11" s="96" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F11" s="99" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G11" s="99" t="s">
         <v>235</v>
@@ -7557,19 +8368,19 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="100"/>
       <c r="B12" s="114" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C12" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D12" s="115">
         <v>133</v>
       </c>
       <c r="E12" s="96" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F12" s="99" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G12" s="99" t="s">
         <v>236</v>
@@ -7578,19 +8389,19 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="100"/>
       <c r="B13" s="114" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C13" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D13" s="115">
         <v>134</v>
       </c>
       <c r="E13" s="96" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F13" s="99" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G13" s="99" t="s">
         <v>235</v>
@@ -7599,19 +8410,19 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
       <c r="B14" s="114" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C14" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D14" s="115">
         <v>135</v>
       </c>
       <c r="E14" s="96" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F14" s="99" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G14" s="99" t="s">
         <v>235</v>
@@ -7620,19 +8431,19 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="100"/>
       <c r="B15" s="114" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C15" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D15" s="115">
         <v>136</v>
       </c>
       <c r="E15" s="96" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F15" s="99" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G15" s="99" t="s">
         <v>235</v>
@@ -7641,26 +8452,26 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="100"/>
       <c r="B16" s="114" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C16" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D16" s="115">
         <v>137</v>
       </c>
       <c r="E16" s="96" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F16" s="99" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G16" s="99" t="s">
         <v>236</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7695,7 +8506,7 @@
       <c r="B2" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="57" t="s">
         <v>258</v>
       </c>
     </row>
@@ -7846,7 +8657,7 @@
       <c r="A16" s="33">
         <v>14</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="45" t="s">
         <v>182</v>
       </c>
       <c r="C16" s="33" t="s">
@@ -7857,7 +8668,7 @@
       <c r="A17" s="33">
         <v>15</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="56" t="s">
         <v>238</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -7868,7 +8679,7 @@
       <c r="A18" s="33">
         <v>16</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="56" t="s">
         <v>239</v>
       </c>
       <c r="C18" s="34" t="s">
@@ -7879,7 +8690,7 @@
       <c r="A19" s="33">
         <v>17</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="56" t="s">
         <v>240</v>
       </c>
       <c r="C19" s="34" t="s">
@@ -7890,7 +8701,7 @@
       <c r="A20" s="33">
         <v>18</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="56" t="s">
         <v>241</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -7901,7 +8712,7 @@
       <c r="A21" s="33">
         <v>19</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="56" t="s">
         <v>242</v>
       </c>
       <c r="C21" s="34" t="s">
@@ -7912,7 +8723,7 @@
       <c r="A22" s="33">
         <v>20</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="45" t="s">
         <v>183</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -7923,7 +8734,7 @@
       <c r="A23" s="33">
         <v>21</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="45" t="s">
         <v>184</v>
       </c>
       <c r="C23" s="33" t="s">
@@ -7934,7 +8745,7 @@
       <c r="A24" s="33">
         <v>22</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="45" t="s">
         <v>187</v>
       </c>
       <c r="C24" s="34" t="s">
@@ -7945,7 +8756,7 @@
       <c r="A25" s="33">
         <v>23</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="56" t="s">
         <v>249</v>
       </c>
       <c r="C25" s="34" t="s">
@@ -7956,7 +8767,7 @@
       <c r="A26" s="33">
         <v>24</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="56" t="s">
         <v>250</v>
       </c>
       <c r="C26" s="34" t="s">
@@ -7967,7 +8778,7 @@
       <c r="A27" s="33">
         <v>25</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="56" t="s">
         <v>251</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -7978,7 +8789,7 @@
       <c r="A28" s="33">
         <v>26</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="56" t="s">
         <v>252</v>
       </c>
       <c r="C28" s="34" t="s">
@@ -7989,7 +8800,7 @@
       <c r="A29" s="33">
         <v>27</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="56" t="s">
         <v>253</v>
       </c>
       <c r="C29" s="34" t="s">
@@ -8000,7 +8811,7 @@
       <c r="A30" s="33">
         <v>28</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="52" t="s">
         <v>217</v>
       </c>
       <c r="C30" s="34" t="s">
@@ -8011,7 +8822,7 @@
       <c r="A31" s="33">
         <v>29</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="55" t="s">
         <v>232</v>
       </c>
       <c r="C31" s="34" t="s">
@@ -8022,7 +8833,7 @@
       <c r="A32" s="33">
         <v>30</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="55" t="s">
         <v>233</v>
       </c>
       <c r="C32" s="34" t="s">
@@ -8033,7 +8844,7 @@
       <c r="A33" s="33">
         <v>31</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="55" t="s">
         <v>263</v>
       </c>
       <c r="C33" s="34" t="s">
@@ -8044,7 +8855,7 @@
       <c r="A34" s="33">
         <v>32</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="55" t="s">
         <v>231</v>
       </c>
       <c r="C34" s="33" t="s">
@@ -8055,7 +8866,7 @@
       <c r="A35" s="33">
         <v>33</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="55" t="s">
         <v>234</v>
       </c>
       <c r="C35" s="34" t="s">
@@ -8066,7 +8877,7 @@
       <c r="A36" s="33">
         <v>34</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="55" t="s">
         <v>264</v>
       </c>
       <c r="C36" s="34" t="s">
@@ -8077,7 +8888,7 @@
       <c r="A37" s="33">
         <v>35</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="59" t="s">
         <v>259</v>
       </c>
       <c r="C37" s="34" t="s">
@@ -8088,7 +8899,7 @@
       <c r="A38" s="33">
         <v>36</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="59" t="s">
         <v>261</v>
       </c>
       <c r="C38" s="34" t="s">
@@ -8099,26 +8910,26 @@
       <c r="A39" s="33">
         <v>37</v>
       </c>
-      <c r="B39" s="57" t="s">
-        <v>353</v>
+      <c r="B39" s="59" t="s">
+        <v>352</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
         <v>38</v>
       </c>
-      <c r="B40" s="57" t="s">
-        <v>354</v>
+      <c r="B40" s="59" t="s">
+        <v>353</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -8129,7 +8940,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -8145,18 +8956,18 @@
         <v>99</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>273</v>
-      </c>
       <c r="D1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>140</v>
@@ -8165,21 +8976,21 @@
         <v>140</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8193,11 +9004,11 @@
         <v>149</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>169</v>
       </c>
       <c r="B5" s="34" t="s">
@@ -8207,11 +9018,11 @@
         <v>173</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="42" t="s">
         <v>170</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -8221,11 +9032,11 @@
         <v>172</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="42" t="s">
         <v>171</v>
       </c>
       <c r="B7" s="34" t="s">
@@ -8235,11 +9046,11 @@
         <v>140</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8250,7 +9061,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -8752,7 +9563,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="51" type="noConversion"/>
+  <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8760,10 +9571,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:A80"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9455,7 +10266,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="51" t="s">
         <v>174</v>
       </c>
       <c r="B35" s="17">
@@ -9475,7 +10286,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="44" t="s">
         <v>175</v>
       </c>
       <c r="B36" s="17">
@@ -9495,7 +10306,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="43" t="s">
         <v>167</v>
       </c>
       <c r="B37" s="17">
@@ -9515,7 +10326,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="44" t="s">
         <v>178</v>
       </c>
       <c r="B38" s="17">
@@ -9535,7 +10346,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="43" t="s">
         <v>179</v>
       </c>
       <c r="B39" s="17">
@@ -9615,7 +10426,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="43" t="s">
         <v>180</v>
       </c>
       <c r="B43" s="17">
@@ -9635,7 +10446,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="43" t="s">
         <v>181</v>
       </c>
       <c r="B44" s="17">
@@ -9655,7 +10466,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="47" t="s">
         <v>188</v>
       </c>
       <c r="B45" s="17">
@@ -9675,7 +10486,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="47" t="s">
         <v>189</v>
       </c>
       <c r="B46" s="17">
@@ -9716,7 +10527,7 @@
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="87" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B48" s="17">
         <v>3</v>
@@ -9736,7 +10547,7 @@
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="101" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B49" s="17">
         <v>3</v>
@@ -9756,7 +10567,7 @@
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="84" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B50" s="17">
         <v>3</v>
@@ -9776,7 +10587,7 @@
     </row>
     <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="84" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B51" s="17">
         <v>3</v>
@@ -9796,7 +10607,7 @@
     </row>
     <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="84" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B52" s="17">
         <v>3</v>
@@ -9816,7 +10627,7 @@
     </row>
     <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="84" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B53" s="17">
         <v>3</v>
@@ -9836,7 +10647,7 @@
     </row>
     <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="84" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B54" s="17">
         <v>3</v>
@@ -9856,7 +10667,7 @@
     </row>
     <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="84" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B55" s="17">
         <v>3</v>
@@ -9876,7 +10687,7 @@
     </row>
     <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="84" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B56" s="17">
         <v>3</v>
@@ -9896,7 +10707,7 @@
     </row>
     <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="84" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B57" s="17">
         <v>3</v>
@@ -9916,7 +10727,7 @@
     </row>
     <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="84" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B58" s="17">
         <v>3</v>
@@ -9936,7 +10747,7 @@
     </row>
     <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="84" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B59" s="17">
         <v>3</v>
@@ -9956,7 +10767,7 @@
     </row>
     <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="84" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B60" s="17">
         <v>3</v>
@@ -9976,7 +10787,7 @@
     </row>
     <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="84" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B61" s="17">
         <v>3</v>
@@ -9996,7 +10807,7 @@
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="84" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B62" s="17">
         <v>3</v>
@@ -10016,7 +10827,7 @@
     </row>
     <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="84" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B63" s="17">
         <v>3</v>
@@ -10036,7 +10847,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="84" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B64" s="17">
         <v>3</v>
@@ -10056,7 +10867,7 @@
     </row>
     <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="84" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B65" s="17">
         <v>3</v>
@@ -10076,7 +10887,7 @@
     </row>
     <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="84" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B66" s="17">
         <v>3</v>
@@ -10096,7 +10907,7 @@
     </row>
     <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="84" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B67" s="17">
         <v>3</v>
@@ -10116,7 +10927,7 @@
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="84" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B68" s="17">
         <v>3</v>
@@ -10136,7 +10947,7 @@
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="84" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B69" s="17">
         <v>3</v>
@@ -10156,7 +10967,7 @@
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="84" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B70" s="17">
         <v>3</v>
@@ -10176,7 +10987,7 @@
     </row>
     <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="84" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B71" s="17">
         <v>3</v>
@@ -10196,7 +11007,7 @@
     </row>
     <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="84" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B72" s="17">
         <v>3</v>
@@ -10216,7 +11027,7 @@
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="84" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B73" s="17">
         <v>3</v>
@@ -10235,7 +11046,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="51" t="s">
+      <c r="A74" s="53" t="s">
         <v>221</v>
       </c>
       <c r="B74" s="17">
@@ -10255,7 +11066,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="51" t="s">
+      <c r="A75" s="53" t="s">
         <v>222</v>
       </c>
       <c r="B75" s="17">
@@ -10275,7 +11086,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="51" t="s">
+      <c r="A76" s="53" t="s">
         <v>223</v>
       </c>
       <c r="B76" s="17">
@@ -10296,7 +11107,7 @@
     </row>
     <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="83" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B77" s="17">
         <v>0</v>
@@ -10336,7 +11147,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B79" s="125">
         <v>5</v>
@@ -10356,7 +11167,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B80" s="125">
         <v>5</v>
@@ -10374,8 +11185,188 @@
         <v>0</v>
       </c>
     </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="137" t="s">
+        <v>484</v>
+      </c>
+      <c r="B81" s="138">
+        <v>0</v>
+      </c>
+      <c r="C81" s="139">
+        <v>14</v>
+      </c>
+      <c r="D81" s="138">
+        <v>0</v>
+      </c>
+      <c r="E81" s="138">
+        <v>0</v>
+      </c>
+      <c r="F81" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="137" t="s">
+        <v>485</v>
+      </c>
+      <c r="B82" s="138">
+        <v>0</v>
+      </c>
+      <c r="C82" s="139">
+        <v>14</v>
+      </c>
+      <c r="D82" s="138">
+        <v>0</v>
+      </c>
+      <c r="E82" s="138">
+        <v>1</v>
+      </c>
+      <c r="F82" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="137" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" s="138">
+        <v>0</v>
+      </c>
+      <c r="C83" s="139">
+        <v>14</v>
+      </c>
+      <c r="D83" s="138">
+        <v>0</v>
+      </c>
+      <c r="E83" s="138">
+        <v>2</v>
+      </c>
+      <c r="F83" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="137" t="s">
+        <v>487</v>
+      </c>
+      <c r="B84" s="138">
+        <v>0</v>
+      </c>
+      <c r="C84" s="139">
+        <v>14</v>
+      </c>
+      <c r="D84" s="138">
+        <v>0</v>
+      </c>
+      <c r="E84" s="138">
+        <v>3</v>
+      </c>
+      <c r="F84" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="137" t="s">
+        <v>488</v>
+      </c>
+      <c r="B85" s="138">
+        <v>0</v>
+      </c>
+      <c r="C85" s="139">
+        <v>14</v>
+      </c>
+      <c r="D85" s="138">
+        <v>0</v>
+      </c>
+      <c r="E85" s="138">
+        <v>4</v>
+      </c>
+      <c r="F85" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="137" t="s">
+        <v>489</v>
+      </c>
+      <c r="B86" s="138">
+        <v>0</v>
+      </c>
+      <c r="C86" s="139">
+        <v>14</v>
+      </c>
+      <c r="D86" s="138">
+        <v>0</v>
+      </c>
+      <c r="E86" s="138">
+        <v>5</v>
+      </c>
+      <c r="F86" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="137" t="s">
+        <v>490</v>
+      </c>
+      <c r="B87" s="138">
+        <v>0</v>
+      </c>
+      <c r="C87" s="139">
+        <v>14</v>
+      </c>
+      <c r="D87" s="138">
+        <v>0</v>
+      </c>
+      <c r="E87" s="138">
+        <v>6</v>
+      </c>
+      <c r="F87" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="146" t="s">
+        <v>511</v>
+      </c>
+      <c r="B88" s="148">
+        <v>0</v>
+      </c>
+      <c r="C88" s="149">
+        <v>8</v>
+      </c>
+      <c r="D88" s="148">
+        <v>0</v>
+      </c>
+      <c r="E88" s="148">
+        <v>3</v>
+      </c>
+      <c r="F88" s="148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="172" t="s">
+        <v>512</v>
+      </c>
+      <c r="B89" s="172">
+        <v>0</v>
+      </c>
+      <c r="C89" s="172">
+        <v>8</v>
+      </c>
+      <c r="D89" s="173">
+        <v>0</v>
+      </c>
+      <c r="E89" s="173">
+        <v>3</v>
+      </c>
+      <c r="F89" s="173">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10383,10 +11374,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A25" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10420,7 +11411,7 @@
         <v>98</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E1" s="33">
         <v>23</v>
@@ -10497,7 +11488,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>213</v>
@@ -10506,7 +11497,7 @@
         <v>213</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E2" s="104"/>
       <c r="F2" s="104"/>
@@ -10565,7 +11556,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>216</v>
@@ -10574,52 +11565,52 @@
         <v>216</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R3" s="33" t="s">
         <v>207</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V3" s="33" t="s">
         <v>210</v>
@@ -10628,30 +11619,30 @@
         <v>206</v>
       </c>
       <c r="X3" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y3" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z3" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AB3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -10665,13 +11656,13 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -10685,13 +11676,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -10705,13 +11696,13 @@
     </row>
     <row r="7" spans="1:28" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="91" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C7" s="94" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D7" s="92"/>
       <c r="E7" s="103">
@@ -10780,13 +11771,13 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="103">
@@ -10858,13 +11849,13 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D9" s="18">
         <v>294947</v>
@@ -10938,13 +11929,13 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B10" s="94" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D10" s="18">
         <v>557315</v>
@@ -11018,13 +12009,13 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B11" s="94" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D11" s="18">
         <v>1081603</v>
@@ -11098,13 +12089,13 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B12" s="94" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C12" s="94" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D12" s="33">
         <v>2130019</v>
@@ -11178,13 +12169,13 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B13" s="94" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C13" s="94" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D13" s="18">
         <v>2130947</v>
@@ -11258,13 +12249,13 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D14" s="33">
         <v>2059</v>
@@ -11338,13 +12329,13 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B15" s="94" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D15" s="33">
         <v>8451</v>
@@ -11420,13 +12411,13 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B16" s="94" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D16" s="33">
         <v>4137</v>
@@ -11506,13 +12497,13 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B17" s="94" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D17" s="33">
         <v>17665</v>
@@ -11592,182 +12583,326 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B22" s="70" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B23" s="70" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B24" s="70" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C24" s="70" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B25" s="70" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C25" s="70" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B26" s="70" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C26" s="70" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B27" s="70" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C27" s="70" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B28" s="70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C28" s="70" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B29" s="70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B30" s="70" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B31" s="70" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>337</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="B32" s="70" t="s">
-        <v>338</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>408</v>
-      </c>
       <c r="B33" s="70" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>420</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="91" t="s">
+        <v>469</v>
+      </c>
+      <c r="B34" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="C34" s="94" t="s">
+        <v>461</v>
+      </c>
+      <c r="D34">
+        <v>98315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="91" t="s">
+        <v>470</v>
+      </c>
+      <c r="B35" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="C35" s="94" t="s">
+        <v>462</v>
+      </c>
+      <c r="D35">
+        <v>163851</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="91" t="s">
+        <v>471</v>
+      </c>
+      <c r="B36" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="C36" s="94" t="s">
+        <v>463</v>
+      </c>
+      <c r="D36">
+        <v>294923</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="91" t="s">
+        <v>472</v>
+      </c>
+      <c r="B37" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="C37" s="94" t="s">
+        <v>464</v>
+      </c>
+      <c r="D37">
+        <v>557067</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="91" t="s">
+        <v>473</v>
+      </c>
+      <c r="B38" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="91" t="s">
+        <v>474</v>
+      </c>
+      <c r="B39" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="91" t="s">
+        <v>475</v>
+      </c>
+      <c r="B40" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="91" t="s">
+        <v>476</v>
+      </c>
+      <c r="B41" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="131" t="s">
+        <v>478</v>
+      </c>
+      <c r="B42" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="C42" s="94" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="131" t="s">
+        <v>479</v>
+      </c>
+      <c r="B43" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="C43" s="94" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="131" t="s">
+        <v>480</v>
+      </c>
+      <c r="B44" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="C44" s="70" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="131" t="s">
+        <v>481</v>
+      </c>
+      <c r="B45" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="C45" s="70" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="57" type="noConversion"/>
+  <phoneticPr fontId="60" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
